--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Oyster Project\oyster_project2\project_task_working\t5_postcon_mon\oyster\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\oyster\transect\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,9 @@
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
     <sheet name="Participants" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Participants!$A$1:$B$60</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="95">
   <si>
     <t>STATION</t>
   </si>
@@ -307,6 +310,9 @@
   </si>
   <si>
     <t>Jamie Casteel</t>
+  </si>
+  <si>
+    <t>Emily Khazan</t>
   </si>
 </sst>
 </file>
@@ -4109,10 +4115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A58"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,10 +4512,10 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>43456</v>
+        <v>43455</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -4517,7 +4523,7 @@
         <v>43456</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -4525,7 +4531,7 @@
         <v>43456</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4533,7 +4539,7 @@
         <v>43456</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -4541,23 +4547,23 @@
         <v>43456</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>43457</v>
+        <v>43456</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>43457</v>
+        <v>43456</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -4565,7 +4571,7 @@
         <v>43457</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -4573,7 +4579,7 @@
         <v>43457</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -4581,10 +4587,35 @@
         <v>43457</v>
       </c>
       <c r="B58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>43457</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>43457</v>
+      </c>
+      <c r="B60" t="s">
         <v>85</v>
       </c>
     </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>43457</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B60"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Participants" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Participants!$A$1:$B$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Participants!$A$1:$B$59</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="96">
   <si>
     <t>STATION</t>
   </si>
@@ -159,9 +159,6 @@
     <t>LCN8</t>
   </si>
   <si>
-    <t>LCN9</t>
-  </si>
-  <si>
     <t>LCO9B</t>
   </si>
   <si>
@@ -313,6 +310,12 @@
   </si>
   <si>
     <t>Emily Khazan</t>
+  </si>
+  <si>
+    <t>Arik Hartmann</t>
+  </si>
+  <si>
+    <t>Scott Borsum</t>
   </si>
 </sst>
 </file>
@@ -640,20 +643,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15:N19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -674,25 +678,25 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -700,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -712,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -734,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -746,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -768,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -780,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -802,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -814,7 +818,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -836,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -848,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
@@ -870,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -882,7 +886,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
@@ -904,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -916,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
@@ -938,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -950,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -972,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -984,7 +988,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -1006,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1018,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
@@ -1040,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -1052,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>9</v>
@@ -1074,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -1086,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>9</v>
@@ -1108,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -1120,7 +1124,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
@@ -1142,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -1154,7 +1158,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>9</v>
@@ -1176,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -1188,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>9</v>
@@ -1210,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
@@ -1222,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>9</v>
@@ -1244,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
@@ -1256,7 +1260,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>9</v>
@@ -1278,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
@@ -1290,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>9</v>
@@ -1347,6 +1351,9 @@
       <c r="M20" s="3">
         <v>43432</v>
       </c>
+      <c r="N20" s="3">
+        <v>43442</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1388,6 +1395,9 @@
       <c r="M21" s="3">
         <v>43432</v>
       </c>
+      <c r="N21" s="3">
+        <v>43441</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1429,6 +1439,9 @@
       <c r="M22" s="3">
         <v>43432</v>
       </c>
+      <c r="N22" s="3">
+        <v>43441</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1470,6 +1483,9 @@
       <c r="M23" s="3">
         <v>43432</v>
       </c>
+      <c r="N23" s="3">
+        <v>43441</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1511,6 +1527,9 @@
       <c r="M24" s="3">
         <v>43432</v>
       </c>
+      <c r="N24" s="3">
+        <v>43441</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1552,6 +1571,9 @@
       <c r="M25" s="3">
         <v>43432</v>
       </c>
+      <c r="N25" s="3">
+        <v>43442</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1593,6 +1615,9 @@
       <c r="M26" s="3">
         <v>43432</v>
       </c>
+      <c r="N26" s="3">
+        <v>43442</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2954,34 +2979,31 @@
         <v>1</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="G61" s="1">
+        <v>5</v>
       </c>
       <c r="H61" s="1">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I61" s="1">
-        <v>297281</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J61" s="1">
-        <v>3233308</v>
-      </c>
-      <c r="K61" s="1">
-        <v>297247</v>
-      </c>
-      <c r="L61" s="1">
-        <v>3233315</v>
-      </c>
-      <c r="M61" s="3">
-        <v>43429</v>
+        <v>3238750.773</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -2989,19 +3011,19 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
-        <v>3</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G62" s="1">
         <v>5</v>
@@ -3027,31 +3049,31 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1">
-        <v>3</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G63" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H63" s="1">
         <v>22</v>
       </c>
       <c r="I63" s="1">
-        <v>294920.8002</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J63" s="1">
-        <v>3238651.68899999</v>
+        <v>3238750.773</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>9</v>
@@ -3065,31 +3087,31 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1">
-        <v>3</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G64" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H64" s="1">
         <v>22</v>
       </c>
       <c r="I64" s="1">
-        <v>294942.0013</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J64" s="1">
-        <v>3238634.6979999901</v>
+        <v>3238750.773</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>9</v>
@@ -3098,15 +3120,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
@@ -3115,19 +3137,19 @@
         <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G65" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H65" s="1">
         <v>22</v>
       </c>
       <c r="I65" s="1">
-        <v>295026.7623</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J65" s="1">
-        <v>3238588.838</v>
+        <v>3238750.773</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>9</v>
@@ -3136,15 +3158,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -3153,7 +3175,7 @@
         <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G66" s="1">
         <v>2</v>
@@ -3162,10 +3184,10 @@
         <v>22</v>
       </c>
       <c r="I66" s="1">
-        <v>295240.32020000002</v>
+        <v>294920.8002</v>
       </c>
       <c r="J66" s="1">
-        <v>3238286.6310000001</v>
+        <v>3238651.68899999</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>9</v>
@@ -3174,15 +3196,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -3191,19 +3213,19 @@
         <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G67" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H67" s="1">
         <v>22</v>
       </c>
       <c r="I67" s="1">
-        <v>295455.982599999</v>
+        <v>294920.8002</v>
       </c>
       <c r="J67" s="1">
-        <v>3238032.784</v>
+        <v>3238651.68899999</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>9</v>
@@ -3212,15 +3234,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C68" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -3229,19 +3251,19 @@
         <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G68" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" s="1">
         <v>22</v>
       </c>
       <c r="I68" s="1">
-        <v>295625.47989999899</v>
+        <v>294942.0013</v>
       </c>
       <c r="J68" s="1">
-        <v>3237836.0819999902</v>
+        <v>3238634.6979999901</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>9</v>
@@ -3250,15 +3272,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -3267,19 +3289,19 @@
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G69" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H69" s="1">
         <v>22</v>
       </c>
       <c r="I69" s="1">
-        <v>295729.59279999899</v>
+        <v>295026.7623</v>
       </c>
       <c r="J69" s="1">
-        <v>3237751.31</v>
+        <v>3238588.838</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>9</v>
@@ -3288,15 +3310,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1">
         <v>3</v>
@@ -3305,7 +3327,7 @@
         <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G70" s="1">
         <v>3</v>
@@ -3314,10 +3336,10 @@
         <v>22</v>
       </c>
       <c r="I70" s="1">
-        <v>295774.17820000002</v>
+        <v>295026.7623</v>
       </c>
       <c r="J70" s="1">
-        <v>3237700.8870000001</v>
+        <v>3238588.838</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>9</v>
@@ -3326,15 +3348,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C71" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1">
         <v>3</v>
@@ -3343,19 +3365,19 @@
         <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G71" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" s="1">
         <v>22</v>
       </c>
       <c r="I71" s="1">
-        <v>295902.69449999899</v>
+        <v>295026.7623</v>
       </c>
       <c r="J71" s="1">
-        <v>3237537.557</v>
+        <v>3238588.838</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>9</v>
@@ -3364,36 +3386,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G72" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" s="1">
         <v>22</v>
       </c>
       <c r="I72" s="1">
-        <v>295964.86560000002</v>
+        <v>295240.32020000002</v>
       </c>
       <c r="J72" s="1">
-        <v>3236951.5189999901</v>
+        <v>3238286.6310000001</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>9</v>
@@ -3402,36 +3424,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1">
         <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G73" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H73" s="1">
         <v>22</v>
       </c>
       <c r="I73" s="1">
-        <v>296176.874699999</v>
+        <v>295240.32020000002</v>
       </c>
       <c r="J73" s="1">
-        <v>3236569.86799999</v>
+        <v>3238286.6310000001</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>9</v>
@@ -3440,36 +3462,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
         <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G74" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H74" s="1">
         <v>22</v>
       </c>
       <c r="I74" s="1">
-        <v>296250.60749999899</v>
+        <v>295455.982599999</v>
       </c>
       <c r="J74" s="1">
-        <v>3236434.89099999</v>
+        <v>3238032.784</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>9</v>
@@ -3478,24 +3500,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D75" s="1">
         <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G75" s="1">
         <v>5</v>
@@ -3504,10 +3526,10 @@
         <v>22</v>
       </c>
       <c r="I75" s="1">
-        <v>296377.63929999899</v>
+        <v>295455.982599999</v>
       </c>
       <c r="J75" s="1">
-        <v>3236022.0610000002</v>
+        <v>3238032.784</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>9</v>
@@ -3516,36 +3538,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C76" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1">
         <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G76" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H76" s="1">
         <v>22</v>
       </c>
       <c r="I76" s="1">
-        <v>296388.02639999898</v>
+        <v>295455.982599999</v>
       </c>
       <c r="J76" s="1">
-        <v>3236002.7</v>
+        <v>3238032.784</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>9</v>
@@ -3554,36 +3576,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C77" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G77" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H77" s="1">
         <v>22</v>
       </c>
       <c r="I77" s="1">
-        <v>296525.8751</v>
+        <v>295455.982599999</v>
       </c>
       <c r="J77" s="1">
-        <v>3235705.75999999</v>
+        <v>3238032.784</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>9</v>
@@ -3592,518 +3614,1848 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C78" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D78" s="1">
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G78" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H78" s="1">
         <v>22</v>
       </c>
       <c r="I78" s="1">
+        <v>295455.982599999</v>
+      </c>
+      <c r="J78" s="1">
+        <v>3238032.784</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G79" s="1">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1">
+        <v>22</v>
+      </c>
+      <c r="I79" s="1">
+        <v>295625.47989999899</v>
+      </c>
+      <c r="J79" s="1">
+        <v>3237836.0819999902</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G80" s="1">
+        <v>3</v>
+      </c>
+      <c r="H80" s="1">
+        <v>22</v>
+      </c>
+      <c r="I80" s="1">
+        <v>295625.47989999899</v>
+      </c>
+      <c r="J80" s="1">
+        <v>3237836.0819999902</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81" s="1">
+        <v>3</v>
+      </c>
+      <c r="H81" s="1">
+        <v>22</v>
+      </c>
+      <c r="I81" s="1">
+        <v>295625.47989999899</v>
+      </c>
+      <c r="J81" s="1">
+        <v>3237836.0819999902</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" s="1">
+        <v>5</v>
+      </c>
+      <c r="H82" s="1">
+        <v>22</v>
+      </c>
+      <c r="I82" s="1">
+        <v>295729.59279999899</v>
+      </c>
+      <c r="J82" s="1">
+        <v>3237751.31</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>3</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G83" s="1">
+        <v>5</v>
+      </c>
+      <c r="H83" s="1">
+        <v>22</v>
+      </c>
+      <c r="I83" s="1">
+        <v>295729.59279999899</v>
+      </c>
+      <c r="J83" s="1">
+        <v>3237751.31</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G84" s="1">
+        <v>5</v>
+      </c>
+      <c r="H84" s="1">
+        <v>22</v>
+      </c>
+      <c r="I84" s="1">
+        <v>295729.59279999899</v>
+      </c>
+      <c r="J84" s="1">
+        <v>3237751.31</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1">
+        <v>3</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G85" s="1">
+        <v>5</v>
+      </c>
+      <c r="H85" s="1">
+        <v>22</v>
+      </c>
+      <c r="I85" s="1">
+        <v>295729.59279999899</v>
+      </c>
+      <c r="J85" s="1">
+        <v>3237751.31</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="1">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G86" s="1">
+        <v>5</v>
+      </c>
+      <c r="H86" s="1">
+        <v>22</v>
+      </c>
+      <c r="I86" s="1">
+        <v>295729.59279999899</v>
+      </c>
+      <c r="J86" s="1">
+        <v>3237751.31</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="1">
+        <v>6</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G87" s="1">
+        <v>3</v>
+      </c>
+      <c r="H87" s="1">
+        <v>22</v>
+      </c>
+      <c r="I87" s="1">
+        <v>295774.17820000002</v>
+      </c>
+      <c r="J87" s="1">
+        <v>3237700.8870000001</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="1">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G88" s="1">
+        <v>3</v>
+      </c>
+      <c r="H88" s="1">
+        <v>22</v>
+      </c>
+      <c r="I88" s="1">
+        <v>295774.17820000002</v>
+      </c>
+      <c r="J88" s="1">
+        <v>3237700.8870000001</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" s="1">
+        <v>8</v>
+      </c>
+      <c r="D89" s="1">
+        <v>3</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G89" s="1">
+        <v>3</v>
+      </c>
+      <c r="H89" s="1">
+        <v>22</v>
+      </c>
+      <c r="I89" s="1">
+        <v>295774.17820000002</v>
+      </c>
+      <c r="J89" s="1">
+        <v>3237700.8870000001</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1">
+        <v>22</v>
+      </c>
+      <c r="I90" s="1">
+        <v>295902.69449999899</v>
+      </c>
+      <c r="J90" s="1">
+        <v>3237537.557</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G91" s="1">
+        <v>3</v>
+      </c>
+      <c r="H91" s="1">
+        <v>22</v>
+      </c>
+      <c r="I91" s="1">
+        <v>295964.86560000002</v>
+      </c>
+      <c r="J91" s="1">
+        <v>3236951.5189999901</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G92" s="1">
+        <v>3</v>
+      </c>
+      <c r="H92" s="1">
+        <v>22</v>
+      </c>
+      <c r="I92" s="1">
+        <v>295964.86560000002</v>
+      </c>
+      <c r="J92" s="1">
+        <v>3236951.5189999901</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93" s="1">
+        <v>3</v>
+      </c>
+      <c r="H93" s="1">
+        <v>22</v>
+      </c>
+      <c r="I93" s="1">
+        <v>295964.86560000002</v>
+      </c>
+      <c r="J93" s="1">
+        <v>3236951.5189999901</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G94" s="1">
+        <v>4</v>
+      </c>
+      <c r="H94" s="1">
+        <v>22</v>
+      </c>
+      <c r="I94" s="1">
+        <v>296176.874699999</v>
+      </c>
+      <c r="J94" s="1">
+        <v>3236569.86799999</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G95" s="1">
+        <v>4</v>
+      </c>
+      <c r="H95" s="1">
+        <v>22</v>
+      </c>
+      <c r="I95" s="1">
+        <v>296176.874699999</v>
+      </c>
+      <c r="J95" s="1">
+        <v>3236569.86799999</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G96" s="1">
+        <v>4</v>
+      </c>
+      <c r="H96" s="1">
+        <v>22</v>
+      </c>
+      <c r="I96" s="1">
+        <v>296176.874699999</v>
+      </c>
+      <c r="J96" s="1">
+        <v>3236569.86799999</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G97" s="1">
+        <v>4</v>
+      </c>
+      <c r="H97" s="1">
+        <v>22</v>
+      </c>
+      <c r="I97" s="1">
+        <v>296176.874699999</v>
+      </c>
+      <c r="J97" s="1">
+        <v>3236569.86799999</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="1">
+        <v>5</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>22</v>
+      </c>
+      <c r="I98" s="1">
+        <v>296250.60749999899</v>
+      </c>
+      <c r="J98" s="1">
+        <v>3236434.89099999</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G99" s="1">
+        <v>5</v>
+      </c>
+      <c r="H99" s="1">
+        <v>22</v>
+      </c>
+      <c r="I99" s="1">
+        <v>296377.63929999899</v>
+      </c>
+      <c r="J99" s="1">
+        <v>3236022.0610000002</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100" s="1">
+        <v>5</v>
+      </c>
+      <c r="H100" s="1">
+        <v>22</v>
+      </c>
+      <c r="I100" s="1">
+        <v>296377.63929999899</v>
+      </c>
+      <c r="J100" s="1">
+        <v>3236022.0610000002</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" s="1">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G101" s="1">
+        <v>5</v>
+      </c>
+      <c r="H101" s="1">
+        <v>22</v>
+      </c>
+      <c r="I101" s="1">
+        <v>296377.63929999899</v>
+      </c>
+      <c r="J101" s="1">
+        <v>3236022.0610000002</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" s="1">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G102" s="1">
+        <v>5</v>
+      </c>
+      <c r="H102" s="1">
+        <v>22</v>
+      </c>
+      <c r="I102" s="1">
+        <v>296377.63929999899</v>
+      </c>
+      <c r="J102" s="1">
+        <v>3236022.0610000002</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G103" s="1">
+        <v>5</v>
+      </c>
+      <c r="H103" s="1">
+        <v>22</v>
+      </c>
+      <c r="I103" s="1">
+        <v>296377.63929999899</v>
+      </c>
+      <c r="J103" s="1">
+        <v>3236022.0610000002</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="1">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G104" s="1">
+        <v>4</v>
+      </c>
+      <c r="H104" s="1">
+        <v>22</v>
+      </c>
+      <c r="I104" s="1">
+        <v>296388.02639999898</v>
+      </c>
+      <c r="J104" s="1">
+        <v>3236002.7</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" s="1">
+        <v>7</v>
+      </c>
+      <c r="D105" s="1">
+        <v>3</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G105" s="1">
+        <v>4</v>
+      </c>
+      <c r="H105" s="1">
+        <v>22</v>
+      </c>
+      <c r="I105" s="1">
+        <v>296388.02639999898</v>
+      </c>
+      <c r="J105" s="1">
+        <v>3236002.7</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" s="1">
+        <v>8</v>
+      </c>
+      <c r="D106" s="1">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G106" s="1">
+        <v>4</v>
+      </c>
+      <c r="H106" s="1">
+        <v>22</v>
+      </c>
+      <c r="I106" s="1">
+        <v>296388.02639999898</v>
+      </c>
+      <c r="J106" s="1">
+        <v>3236002.7</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="1">
+        <v>9</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G107" s="1">
+        <v>4</v>
+      </c>
+      <c r="H107" s="1">
+        <v>22</v>
+      </c>
+      <c r="I107" s="1">
+        <v>296388.02639999898</v>
+      </c>
+      <c r="J107" s="1">
+        <v>3236002.7</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G108" s="1">
+        <v>3</v>
+      </c>
+      <c r="H108" s="1">
+        <v>22</v>
+      </c>
+      <c r="I108" s="1">
+        <v>296525.8751</v>
+      </c>
+      <c r="J108" s="1">
+        <v>3235705.75999999</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <v>3</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G109" s="1">
+        <v>3</v>
+      </c>
+      <c r="H109" s="1">
+        <v>22</v>
+      </c>
+      <c r="I109" s="1">
+        <v>296525.8751</v>
+      </c>
+      <c r="J109" s="1">
+        <v>3235705.75999999</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" s="1">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G110" s="1">
+        <v>3</v>
+      </c>
+      <c r="H110" s="1">
+        <v>22</v>
+      </c>
+      <c r="I110" s="1">
+        <v>296525.8751</v>
+      </c>
+      <c r="J110" s="1">
+        <v>3235705.75999999</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" s="1">
+        <v>4</v>
+      </c>
+      <c r="D111" s="1">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G111" s="1">
+        <v>3</v>
+      </c>
+      <c r="H111" s="1">
+        <v>22</v>
+      </c>
+      <c r="I111" s="1">
         <v>296574.42709999898</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J111" s="1">
         <v>3235607.21199999</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="K111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1">
+        <v>3</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G112" s="1">
+        <v>3</v>
+      </c>
+      <c r="H112" s="1">
+        <v>22</v>
+      </c>
+      <c r="I112" s="1">
+        <v>296574.42709999898</v>
+      </c>
+      <c r="J112" s="1">
+        <v>3235607.21199999</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="1">
+        <v>6</v>
+      </c>
+      <c r="D113" s="1">
+        <v>3</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G113" s="1">
+        <v>3</v>
+      </c>
+      <c r="H113" s="1">
+        <v>22</v>
+      </c>
+      <c r="I113" s="1">
+        <v>296574.42709999898</v>
+      </c>
+      <c r="J113" s="1">
+        <v>3235607.21199999</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" s="1">
+        <v>298132.23670000001</v>
+      </c>
+      <c r="J114" s="1">
+        <v>3238415.6540999901</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M114" s="3">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" s="1">
-        <v>298132.23670000001</v>
-      </c>
-      <c r="J79" s="1">
-        <v>3238415.6540999901</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M79" s="3">
+      <c r="E115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I115" s="1">
+        <v>298242.70030000003</v>
+      </c>
+      <c r="J115" s="1">
+        <v>3238323.5599000002</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M115" s="3">
         <v>43432</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>2</v>
-      </c>
-      <c r="B80" s="1" t="s">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80" s="1">
-        <v>298242.70030000003</v>
-      </c>
-      <c r="J80" s="1">
-        <v>3238323.5599000002</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M80" s="3">
+      <c r="E116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I116" s="1">
+        <v>298340.15010000003</v>
+      </c>
+      <c r="J116" s="1">
+        <v>3238402.3242000001</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M116" s="3">
         <v>43432</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>2</v>
-      </c>
-      <c r="B81" s="1" t="s">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81" s="1">
-        <v>298340.15010000003</v>
-      </c>
-      <c r="J81" s="1">
-        <v>3238402.3242000001</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="E117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I117" s="1">
+        <v>298294.44329999899</v>
+      </c>
+      <c r="J117" s="1">
+        <v>3238522.3177</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M117" s="3">
         <v>43432</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>2</v>
-      </c>
-      <c r="B82" s="1" t="s">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="1">
+        <v>24.79189513</v>
+      </c>
+      <c r="I118" s="1">
+        <v>298225.02500000002</v>
+      </c>
+      <c r="J118" s="1">
+        <v>3238535.733</v>
+      </c>
+      <c r="K118" s="1">
+        <v>298249.81689999899</v>
+      </c>
+      <c r="L118" s="1">
+        <v>3238535.733</v>
+      </c>
+      <c r="M118" s="3">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <v>3</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="1">
+        <v>22.960727330000001</v>
+      </c>
+      <c r="I119" s="1">
+        <v>298229.22509999899</v>
+      </c>
+      <c r="J119" s="1">
+        <v>3238527.733</v>
+      </c>
+      <c r="K119" s="1">
+        <v>298252.18579999899</v>
+      </c>
+      <c r="L119" s="1">
+        <v>3238527.733</v>
+      </c>
+      <c r="M119" s="3">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" s="1">
+        <v>25.006205810000001</v>
+      </c>
+      <c r="I120" s="1">
+        <v>298208.204399999</v>
+      </c>
+      <c r="J120" s="1">
+        <v>3238507.733</v>
+      </c>
+      <c r="K120" s="1">
+        <v>298233.210599999</v>
+      </c>
+      <c r="L120" s="1">
+        <v>3238507.733</v>
+      </c>
+      <c r="M120" s="3">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <v>3</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H121" s="1">
+        <v>19.462796910000002</v>
+      </c>
+      <c r="I121" s="1">
+        <v>298530.048899999</v>
+      </c>
+      <c r="J121" s="1">
+        <v>3237227.733</v>
+      </c>
+      <c r="K121" s="1">
+        <v>298549.51160000003</v>
+      </c>
+      <c r="L121" s="1">
+        <v>3237227.733</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" s="1">
-        <v>298294.44329999899</v>
-      </c>
-      <c r="J82" s="1">
-        <v>3238522.3177</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M82" s="3">
-        <v>43432</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>2</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1">
-        <v>3</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H83" s="1">
-        <v>24.79189513</v>
-      </c>
-      <c r="I83" s="1">
-        <v>298225.02500000002</v>
-      </c>
-      <c r="J83" s="1">
-        <v>3238535.733</v>
-      </c>
-      <c r="K83" s="1">
-        <v>298249.81689999899</v>
-      </c>
-      <c r="L83" s="1">
-        <v>3238535.733</v>
-      </c>
-      <c r="M83" s="3">
-        <v>43429</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>2</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="1">
-        <v>2</v>
-      </c>
-      <c r="D84" s="1">
-        <v>3</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H84" s="1">
-        <v>22.960727330000001</v>
-      </c>
-      <c r="I84" s="1">
-        <v>298229.22509999899</v>
-      </c>
-      <c r="J84" s="1">
-        <v>3238527.733</v>
-      </c>
-      <c r="K84" s="1">
-        <v>298252.18579999899</v>
-      </c>
-      <c r="L84" s="1">
-        <v>3238527.733</v>
-      </c>
-      <c r="M84" s="3">
-        <v>43429</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>2</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1">
-        <v>3</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="1">
-        <v>25.006205810000001</v>
-      </c>
-      <c r="I85" s="1">
-        <v>298208.204399999</v>
-      </c>
-      <c r="J85" s="1">
-        <v>3238507.733</v>
-      </c>
-      <c r="K85" s="1">
-        <v>298233.210599999</v>
-      </c>
-      <c r="L85" s="1">
-        <v>3238507.733</v>
-      </c>
-      <c r="M85" s="3">
-        <v>43429</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>2</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1">
-        <v>3</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H86" s="1">
-        <v>19.462796910000002</v>
-      </c>
-      <c r="I86" s="1">
-        <v>298530.048899999</v>
-      </c>
-      <c r="J86" s="1">
-        <v>3237227.733</v>
-      </c>
-      <c r="K86" s="1">
-        <v>298549.51160000003</v>
-      </c>
-      <c r="L86" s="1">
-        <v>3237227.733</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="E122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I122" s="1">
+        <v>298480.58419999899</v>
+      </c>
+      <c r="J122" s="1">
+        <v>3237712.7853999902</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I87" s="1">
-        <v>298480.58419999899</v>
-      </c>
-      <c r="J87" s="1">
-        <v>3237712.7853999902</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>2</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>3</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" s="1">
+        <v>20.600858209999899</v>
+      </c>
+      <c r="I123" s="1">
+        <v>298424.4375</v>
+      </c>
+      <c r="J123" s="1">
+        <v>3237687.6499999901</v>
+      </c>
+      <c r="K123" s="1">
+        <v>298424.4375</v>
+      </c>
+      <c r="L123" s="1">
+        <v>3237708.2510000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="1">
+        <v>22.309022290000001</v>
+      </c>
+      <c r="I124" s="1">
+        <v>298408.66950000002</v>
+      </c>
+      <c r="J124" s="1">
+        <v>3237701.733</v>
+      </c>
+      <c r="K124" s="1">
+        <v>298430.97850000003</v>
+      </c>
+      <c r="L124" s="1">
+        <v>3237701.733</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1">
-        <v>3</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H88" s="1">
-        <v>20.600858209999899</v>
-      </c>
-      <c r="I88" s="1">
-        <v>298424.4375</v>
-      </c>
-      <c r="J88" s="1">
-        <v>3237687.6499999901</v>
-      </c>
-      <c r="K88" s="1">
-        <v>298424.4375</v>
-      </c>
-      <c r="L88" s="1">
-        <v>3237708.2510000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>2</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" s="1">
-        <v>2</v>
-      </c>
-      <c r="D89" s="1">
-        <v>3</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="1">
-        <v>22.309022290000001</v>
-      </c>
-      <c r="I89" s="1">
-        <v>298408.66950000002</v>
-      </c>
-      <c r="J89" s="1">
-        <v>3237701.733</v>
-      </c>
-      <c r="K89" s="1">
-        <v>298430.97850000003</v>
-      </c>
-      <c r="L89" s="1">
-        <v>3237701.733</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>2</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1</v>
-      </c>
-      <c r="D90" s="1">
-        <v>3</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H90" s="1">
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>3</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="1">
         <v>13.07784964</v>
       </c>
-      <c r="I90" s="1">
+      <c r="I125" s="1">
         <v>298554.4375</v>
       </c>
-      <c r="J90" s="1">
+      <c r="J125" s="1">
         <v>3237797.60399999</v>
       </c>
-      <c r="K90" s="1">
+      <c r="K125" s="1">
         <v>298554.4375</v>
       </c>
-      <c r="L90" s="1">
+      <c r="L125" s="1">
         <v>3237810.682</v>
       </c>
     </row>
@@ -4117,8 +5469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:B55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4128,10 +5480,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4139,7 +5491,7 @@
         <v>43411</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4147,7 +5499,7 @@
         <v>43411</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4155,7 +5507,7 @@
         <v>43411</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4163,7 +5515,7 @@
         <v>43411</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4171,7 +5523,7 @@
         <v>43412</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4179,7 +5531,7 @@
         <v>43412</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4187,7 +5539,7 @@
         <v>43412</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4195,7 +5547,7 @@
         <v>43412</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4203,7 +5555,7 @@
         <v>43413</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4211,7 +5563,7 @@
         <v>43413</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4219,7 +5571,7 @@
         <v>43413</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4227,7 +5579,7 @@
         <v>43413</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4235,7 +5587,7 @@
         <v>43413</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4243,7 +5595,7 @@
         <v>43429</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4251,7 +5603,7 @@
         <v>43429</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4259,7 +5611,7 @@
         <v>43429</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4267,7 +5619,7 @@
         <v>43431</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4275,7 +5627,7 @@
         <v>43431</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4283,7 +5635,7 @@
         <v>43431</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4291,7 +5643,7 @@
         <v>43431</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4299,7 +5651,7 @@
         <v>43432</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4307,7 +5659,7 @@
         <v>43432</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4315,7 +5667,7 @@
         <v>43441</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4323,7 +5675,7 @@
         <v>43441</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4331,7 +5683,7 @@
         <v>43441</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4339,7 +5691,7 @@
         <v>43441</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4347,7 +5699,7 @@
         <v>43441</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4355,15 +5707,15 @@
         <v>43441</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>43442</v>
+        <v>43441</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4371,7 +5723,7 @@
         <v>43442</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4379,7 +5731,7 @@
         <v>43442</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4387,7 +5739,7 @@
         <v>43442</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4395,7 +5747,7 @@
         <v>43442</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -4403,7 +5755,7 @@
         <v>43442</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -4411,7 +5763,7 @@
         <v>43442</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4419,55 +5771,55 @@
         <v>43442</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>43443</v>
+        <v>43442</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>43443</v>
+        <v>43455</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>43443</v>
+        <v>43455</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43443</v>
+        <v>43455</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>43443</v>
+        <v>43455</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>43443</v>
+        <v>43455</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -4475,7 +5827,7 @@
         <v>43455</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -4483,7 +5835,7 @@
         <v>43455</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -4491,31 +5843,31 @@
         <v>43455</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>43455</v>
+        <v>43456</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43455</v>
+        <v>43456</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>43455</v>
+        <v>43456</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -4523,7 +5875,7 @@
         <v>43456</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -4531,7 +5883,7 @@
         <v>43456</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4539,7 +5891,7 @@
         <v>43456</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -4547,7 +5899,7 @@
         <v>43456</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -4555,15 +5907,15 @@
         <v>43456</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>43456</v>
+        <v>43457</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -4571,7 +5923,7 @@
         <v>43457</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -4579,7 +5931,7 @@
         <v>43457</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -4587,7 +5939,7 @@
         <v>43457</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -4595,7 +5947,7 @@
         <v>43457</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -4603,7 +5955,7 @@
         <v>43457</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -4615,7 +5967,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B60"/>
+  <autoFilter ref="A1:B59"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
     <sheet name="Participants" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Participants!$A$1:$B$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Participants!$A$1:$B$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="96">
   <si>
     <t>STATION</t>
   </si>
@@ -645,8 +645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N127" sqref="N127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,6 +1660,9 @@
       <c r="M27" s="3">
         <v>43432</v>
       </c>
+      <c r="N27" s="3">
+        <v>43456</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1700,6 +1704,9 @@
       <c r="M28" s="3">
         <v>43432</v>
       </c>
+      <c r="N28" s="3">
+        <v>43456</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -3120,7 +3127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -3158,7 +3165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3196,7 +3203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3234,7 +3241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3272,7 +3279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3310,7 +3317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -3348,7 +3355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3386,7 +3393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3424,7 +3431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3462,7 +3469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3500,7 +3507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3538,7 +3545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3576,7 +3583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -3614,7 +3621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -3652,7 +3659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -3689,8 +3696,14 @@
       <c r="L79" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="3">
+        <v>43457</v>
+      </c>
+      <c r="N79" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -3727,8 +3740,14 @@
       <c r="L80" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="3">
+        <v>43457</v>
+      </c>
+      <c r="N80" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -3765,8 +3784,14 @@
       <c r="L81" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="3">
+        <v>43457</v>
+      </c>
+      <c r="N81" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -3804,7 +3829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -3842,7 +3867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -3880,7 +3905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -3918,7 +3943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -3956,7 +3981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -3994,7 +4019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -4032,7 +4057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -4070,7 +4095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -4108,7 +4133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -4146,7 +4171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -4184,7 +4209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -4222,7 +4247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -4260,7 +4285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -4298,7 +4323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -4944,7 +4969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -4982,7 +5007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -5022,8 +5047,11 @@
       <c r="M114" s="3">
         <v>43432</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" s="3">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2</v>
       </c>
@@ -5063,8 +5091,11 @@
       <c r="M115" s="3">
         <v>43432</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2</v>
       </c>
@@ -5104,8 +5135,11 @@
       <c r="M116" s="3">
         <v>43432</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2</v>
       </c>
@@ -5145,8 +5179,11 @@
       <c r="M117" s="3">
         <v>43432</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="3">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2</v>
       </c>
@@ -5186,8 +5223,11 @@
       <c r="M118" s="3">
         <v>43429</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" s="3">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -5227,8 +5267,11 @@
       <c r="M119" s="3">
         <v>43429</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" s="3">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2</v>
       </c>
@@ -5268,8 +5311,11 @@
       <c r="M120" s="3">
         <v>43429</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" s="3">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -5307,7 +5353,7 @@
         <v>3237227.733</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2</v>
       </c>
@@ -5344,8 +5390,14 @@
       <c r="L122" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M122" s="3">
+        <v>43457</v>
+      </c>
+      <c r="N122" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -5382,8 +5434,14 @@
       <c r="L123" s="1">
         <v>3237708.2510000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M123" s="3">
+        <v>43457</v>
+      </c>
+      <c r="N123" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2</v>
       </c>
@@ -5420,8 +5478,14 @@
       <c r="L124" s="1">
         <v>3237701.733</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M124" s="3">
+        <v>43457</v>
+      </c>
+      <c r="N124" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -5457,6 +5521,12 @@
       </c>
       <c r="L125" s="1">
         <v>3237810.682</v>
+      </c>
+      <c r="M125" s="3">
+        <v>43457</v>
+      </c>
+      <c r="N125" s="3">
+        <v>43457</v>
       </c>
     </row>
   </sheetData>
@@ -5467,10 +5537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5784,7 +5854,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>43455</v>
+        <v>43456</v>
       </c>
       <c r="B39" t="s">
         <v>78</v>
@@ -5792,7 +5862,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>43455</v>
+        <v>43456</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
@@ -5800,7 +5870,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43455</v>
+        <v>43456</v>
       </c>
       <c r="B41" t="s">
         <v>79</v>
@@ -5808,166 +5878,78 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>43455</v>
+        <v>43456</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>43455</v>
+        <v>43456</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43455</v>
+        <v>43456</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>43455</v>
+        <v>43457</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>43455</v>
+        <v>43457</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>43456</v>
+        <v>43457</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43456</v>
+        <v>43457</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>43456</v>
+        <v>43457</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>43456</v>
+        <v>43457</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>43456</v>
-      </c>
-      <c r="B51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>43456</v>
-      </c>
-      <c r="B52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>43456</v>
-      </c>
-      <c r="B53" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>43456</v>
-      </c>
-      <c r="B54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>43457</v>
-      </c>
-      <c r="B55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>43457</v>
-      </c>
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>43457</v>
-      </c>
-      <c r="B57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>43457</v>
-      </c>
-      <c r="B58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>43457</v>
-      </c>
-      <c r="B59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>43457</v>
-      </c>
-      <c r="B60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>43457</v>
-      </c>
-      <c r="B61" t="s">
-        <v>94</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B59"/>
+  <autoFilter ref="A1:B48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="97">
   <si>
     <t>STATION</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>Scott Borsum</t>
+  </si>
+  <si>
+    <t>LCN9</t>
   </si>
 </sst>
 </file>
@@ -643,11 +646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N127" sqref="N127"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2980,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -2989,29 +2992,30 @@
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G61" s="1">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H61" s="1">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I61" s="1">
-        <v>294830.50900000002</v>
+        <v>297281</v>
       </c>
       <c r="J61" s="1">
-        <v>3238750.773</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>3233308</v>
+      </c>
+      <c r="K61">
+        <v>297247</v>
+      </c>
+      <c r="L61">
+        <v>3233315</v>
+      </c>
+      <c r="M61" s="3"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -3021,7 +3025,7 @@
         <v>43</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1">
         <v>3</v>
@@ -3059,7 +3063,7 @@
         <v>43</v>
       </c>
       <c r="C63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1">
         <v>3</v>
@@ -3097,7 +3101,7 @@
         <v>43</v>
       </c>
       <c r="C64" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -3135,7 +3139,7 @@
         <v>43</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
@@ -3173,7 +3177,7 @@
         <v>43</v>
       </c>
       <c r="C66" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -3185,16 +3189,16 @@
         <v>44</v>
       </c>
       <c r="G66" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H66" s="1">
         <v>22</v>
       </c>
       <c r="I66" s="1">
-        <v>294920.8002</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J66" s="1">
-        <v>3238651.68899999</v>
+        <v>3238750.773</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>9</v>
@@ -3211,7 +3215,7 @@
         <v>43</v>
       </c>
       <c r="C67" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -3249,7 +3253,7 @@
         <v>43</v>
       </c>
       <c r="C68" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -3261,16 +3265,16 @@
         <v>44</v>
       </c>
       <c r="G68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" s="1">
         <v>22</v>
       </c>
       <c r="I68" s="1">
-        <v>294942.0013</v>
+        <v>294920.8002</v>
       </c>
       <c r="J68" s="1">
-        <v>3238634.6979999901</v>
+        <v>3238651.68899999</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>9</v>
@@ -3284,10 +3288,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -3299,16 +3303,16 @@
         <v>44</v>
       </c>
       <c r="G69" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69" s="1">
         <v>22</v>
       </c>
       <c r="I69" s="1">
-        <v>295026.7623</v>
+        <v>294942.0013</v>
       </c>
       <c r="J69" s="1">
-        <v>3238588.838</v>
+        <v>3238634.6979999901</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>9</v>
@@ -3325,7 +3329,7 @@
         <v>45</v>
       </c>
       <c r="C70" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
         <v>3</v>
@@ -3363,7 +3367,7 @@
         <v>45</v>
       </c>
       <c r="C71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1">
         <v>3</v>
@@ -3398,10 +3402,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -3413,16 +3417,16 @@
         <v>44</v>
       </c>
       <c r="G72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72" s="1">
         <v>22</v>
       </c>
       <c r="I72" s="1">
-        <v>295240.32020000002</v>
+        <v>295026.7623</v>
       </c>
       <c r="J72" s="1">
-        <v>3238286.6310000001</v>
+        <v>3238588.838</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>9</v>
@@ -3439,7 +3443,7 @@
         <v>46</v>
       </c>
       <c r="C73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
         <v>3</v>
@@ -3474,10 +3478,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C74" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="1">
         <v>3</v>
@@ -3489,16 +3493,16 @@
         <v>44</v>
       </c>
       <c r="G74" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H74" s="1">
         <v>22</v>
       </c>
       <c r="I74" s="1">
-        <v>295455.982599999</v>
+        <v>295240.32020000002</v>
       </c>
       <c r="J74" s="1">
-        <v>3238032.784</v>
+        <v>3238286.6310000001</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>9</v>
@@ -3515,7 +3519,7 @@
         <v>47</v>
       </c>
       <c r="C75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
         <v>3</v>
@@ -3553,7 +3557,7 @@
         <v>47</v>
       </c>
       <c r="C76" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" s="1">
         <v>3</v>
@@ -3591,7 +3595,7 @@
         <v>47</v>
       </c>
       <c r="C77" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
@@ -3629,7 +3633,7 @@
         <v>47</v>
       </c>
       <c r="C78" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" s="1">
         <v>3</v>
@@ -3664,10 +3668,10 @@
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
@@ -3676,31 +3680,25 @@
         <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G79" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H79" s="1">
         <v>22</v>
       </c>
       <c r="I79" s="1">
-        <v>295625.47989999899</v>
+        <v>295455.982599999</v>
       </c>
       <c r="J79" s="1">
-        <v>3237836.0819999902</v>
+        <v>3238032.784</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M79" s="3">
-        <v>43457</v>
-      </c>
-      <c r="N79" s="3">
-        <v>43457</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -3711,7 +3709,7 @@
         <v>48</v>
       </c>
       <c r="C80" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
         <v>3</v>
@@ -3755,7 +3753,7 @@
         <v>48</v>
       </c>
       <c r="C81" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" s="1">
         <v>3</v>
@@ -3796,10 +3794,10 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1">
         <v>3</v>
@@ -3811,22 +3809,28 @@
         <v>49</v>
       </c>
       <c r="G82" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H82" s="1">
         <v>22</v>
       </c>
       <c r="I82" s="1">
-        <v>295729.59279999899</v>
+        <v>295625.47989999899</v>
       </c>
       <c r="J82" s="1">
-        <v>3237751.31</v>
+        <v>3237836.0819999902</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M82" s="3">
+        <v>43457</v>
+      </c>
+      <c r="N82" s="3">
+        <v>43457</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -3837,7 +3841,7 @@
         <v>50</v>
       </c>
       <c r="C83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
         <v>3</v>
@@ -3875,7 +3879,7 @@
         <v>50</v>
       </c>
       <c r="C84" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" s="1">
         <v>3</v>
@@ -3913,7 +3917,7 @@
         <v>50</v>
       </c>
       <c r="C85" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" s="1">
         <v>3</v>
@@ -3951,7 +3955,7 @@
         <v>50</v>
       </c>
       <c r="C86" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" s="1">
         <v>3</v>
@@ -3989,7 +3993,7 @@
         <v>50</v>
       </c>
       <c r="C87" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" s="1">
         <v>3</v>
@@ -4001,16 +4005,16 @@
         <v>49</v>
       </c>
       <c r="G87" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H87" s="1">
         <v>22</v>
       </c>
       <c r="I87" s="1">
-        <v>295774.17820000002</v>
+        <v>295729.59279999899</v>
       </c>
       <c r="J87" s="1">
-        <v>3237700.8870000001</v>
+        <v>3237751.31</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>9</v>
@@ -4027,7 +4031,7 @@
         <v>50</v>
       </c>
       <c r="C88" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88" s="1">
         <v>3</v>
@@ -4065,7 +4069,7 @@
         <v>50</v>
       </c>
       <c r="C89" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89" s="1">
         <v>3</v>
@@ -4100,10 +4104,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C90" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1">
         <v>3</v>
@@ -4115,16 +4119,16 @@
         <v>49</v>
       </c>
       <c r="G90" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" s="1">
         <v>22</v>
       </c>
       <c r="I90" s="1">
-        <v>295902.69449999899</v>
+        <v>295774.17820000002</v>
       </c>
       <c r="J90" s="1">
-        <v>3237537.557</v>
+        <v>3237700.8870000001</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>9</v>
@@ -4138,7 +4142,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -4147,22 +4151,22 @@
         <v>3</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G91" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" s="1">
         <v>22</v>
       </c>
       <c r="I91" s="1">
-        <v>295964.86560000002</v>
+        <v>295902.69449999899</v>
       </c>
       <c r="J91" s="1">
-        <v>3236951.5189999901</v>
+        <v>3237537.557</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>9</v>
@@ -4179,7 +4183,7 @@
         <v>52</v>
       </c>
       <c r="C92" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1">
         <v>3</v>
@@ -4217,7 +4221,7 @@
         <v>52</v>
       </c>
       <c r="C93" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" s="1">
         <v>3</v>
@@ -4252,10 +4256,10 @@
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C94" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
@@ -4267,16 +4271,16 @@
         <v>49</v>
       </c>
       <c r="G94" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H94" s="1">
         <v>22</v>
       </c>
       <c r="I94" s="1">
-        <v>296176.874699999</v>
+        <v>295964.86560000002</v>
       </c>
       <c r="J94" s="1">
-        <v>3236569.86799999</v>
+        <v>3236951.5189999901</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>9</v>
@@ -4293,7 +4297,7 @@
         <v>53</v>
       </c>
       <c r="C95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" s="1">
         <v>3</v>
@@ -4331,7 +4335,7 @@
         <v>53</v>
       </c>
       <c r="C96" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" s="1">
         <v>3</v>
@@ -4361,7 +4365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -4369,7 +4373,7 @@
         <v>53</v>
       </c>
       <c r="C97" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" s="1">
         <v>3</v>
@@ -4399,7 +4403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -4407,7 +4411,7 @@
         <v>53</v>
       </c>
       <c r="C98" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" s="1">
         <v>3</v>
@@ -4419,16 +4423,16 @@
         <v>49</v>
       </c>
       <c r="G98" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H98" s="1">
         <v>22</v>
       </c>
       <c r="I98" s="1">
-        <v>296250.60749999899</v>
+        <v>296176.874699999</v>
       </c>
       <c r="J98" s="1">
-        <v>3236434.89099999</v>
+        <v>3236569.86799999</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>9</v>
@@ -4437,15 +4441,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C99" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
@@ -4457,16 +4461,16 @@
         <v>49</v>
       </c>
       <c r="G99" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H99" s="1">
         <v>22</v>
       </c>
       <c r="I99" s="1">
-        <v>296377.63929999899</v>
+        <v>296250.60749999899</v>
       </c>
       <c r="J99" s="1">
-        <v>3236022.0610000002</v>
+        <v>3236434.89099999</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>9</v>
@@ -4475,7 +4479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>54</v>
       </c>
       <c r="C100" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1">
         <v>3</v>
@@ -4512,8 +4516,11 @@
       <c r="L100" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" s="3">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -4521,7 +4528,7 @@
         <v>54</v>
       </c>
       <c r="C101" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" s="1">
         <v>3</v>
@@ -4550,8 +4557,11 @@
       <c r="L101" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="3">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -4559,7 +4569,7 @@
         <v>54</v>
       </c>
       <c r="C102" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D102" s="1">
         <v>3</v>
@@ -4588,8 +4598,11 @@
       <c r="L102" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="3">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -4597,7 +4610,7 @@
         <v>54</v>
       </c>
       <c r="C103" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D103" s="1">
         <v>3</v>
@@ -4626,8 +4639,11 @@
       <c r="L103" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" s="3">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -4635,7 +4651,7 @@
         <v>54</v>
       </c>
       <c r="C104" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D104" s="1">
         <v>3</v>
@@ -4647,16 +4663,16 @@
         <v>49</v>
       </c>
       <c r="G104" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H104" s="1">
         <v>22</v>
       </c>
       <c r="I104" s="1">
-        <v>296388.02639999898</v>
+        <v>296377.63929999899</v>
       </c>
       <c r="J104" s="1">
-        <v>3236002.7</v>
+        <v>3236022.0610000002</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>9</v>
@@ -4664,8 +4680,11 @@
       <c r="L104" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="3">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -4673,7 +4692,7 @@
         <v>54</v>
       </c>
       <c r="C105" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D105" s="1">
         <v>3</v>
@@ -4703,7 +4722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -4711,7 +4730,7 @@
         <v>54</v>
       </c>
       <c r="C106" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D106" s="1">
         <v>3</v>
@@ -4741,7 +4760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -4749,7 +4768,7 @@
         <v>54</v>
       </c>
       <c r="C107" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D107" s="1">
         <v>3</v>
@@ -4779,15 +4798,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C108" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D108" s="1">
         <v>3</v>
@@ -4799,16 +4818,16 @@
         <v>49</v>
       </c>
       <c r="G108" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H108" s="1">
         <v>22</v>
       </c>
       <c r="I108" s="1">
-        <v>296525.8751</v>
+        <v>296388.02639999898</v>
       </c>
       <c r="J108" s="1">
-        <v>3235705.75999999</v>
+        <v>3236002.7</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>9</v>
@@ -4817,7 +4836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -4825,7 +4844,7 @@
         <v>55</v>
       </c>
       <c r="C109" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1">
         <v>3</v>
@@ -4855,7 +4874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -4863,7 +4882,7 @@
         <v>55</v>
       </c>
       <c r="C110" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110" s="1">
         <v>3</v>
@@ -4893,7 +4912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -4901,7 +4920,7 @@
         <v>55</v>
       </c>
       <c r="C111" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D111" s="1">
         <v>3</v>
@@ -4919,10 +4938,10 @@
         <v>22</v>
       </c>
       <c r="I111" s="1">
-        <v>296574.42709999898</v>
+        <v>296525.8751</v>
       </c>
       <c r="J111" s="1">
-        <v>3235607.21199999</v>
+        <v>3235705.75999999</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>9</v>
@@ -4931,7 +4950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
@@ -4939,7 +4958,7 @@
         <v>55</v>
       </c>
       <c r="C112" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D112" s="1">
         <v>3</v>
@@ -4977,7 +4996,7 @@
         <v>55</v>
       </c>
       <c r="C113" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D113" s="1">
         <v>3</v>
@@ -5012,43 +5031,37 @@
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C114" s="1">
-        <v>1</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D114" s="1">
+        <v>3</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="G114" s="1">
+        <v>3</v>
+      </c>
+      <c r="H114" s="1">
+        <v>22</v>
       </c>
       <c r="I114" s="1">
-        <v>298132.23670000001</v>
+        <v>296574.42709999898</v>
       </c>
       <c r="J114" s="1">
-        <v>3238415.6540999901</v>
+        <v>3235607.21199999</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M114" s="3">
-        <v>43432</v>
-      </c>
-      <c r="N114" s="3">
-        <v>43456</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -5056,7 +5069,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
@@ -5077,10 +5090,10 @@
         <v>9</v>
       </c>
       <c r="I115" s="1">
-        <v>298242.70030000003</v>
+        <v>298132.23670000001</v>
       </c>
       <c r="J115" s="1">
-        <v>3238323.5599000002</v>
+        <v>3238415.6540999901</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>9</v>
@@ -5092,7 +5105,7 @@
         <v>43432</v>
       </c>
       <c r="N115" s="3">
-        <v>43457</v>
+        <v>43456</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -5100,7 +5113,7 @@
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
@@ -5121,10 +5134,10 @@
         <v>9</v>
       </c>
       <c r="I116" s="1">
-        <v>298340.15010000003</v>
+        <v>298242.70030000003</v>
       </c>
       <c r="J116" s="1">
-        <v>3238402.3242000001</v>
+        <v>3238323.5599000002</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>9</v>
@@ -5144,7 +5157,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
@@ -5165,10 +5178,10 @@
         <v>9</v>
       </c>
       <c r="I117" s="1">
-        <v>298294.44329999899</v>
+        <v>298340.15010000003</v>
       </c>
       <c r="J117" s="1">
-        <v>3238522.3177</v>
+        <v>3238402.3242000001</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>9</v>
@@ -5180,7 +5193,7 @@
         <v>43432</v>
       </c>
       <c r="N117" s="3">
-        <v>43456</v>
+        <v>43457</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -5188,13 +5201,13 @@
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
       </c>
-      <c r="D118" s="1">
-        <v>3</v>
+      <c r="D118" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>8</v>
@@ -5205,23 +5218,23 @@
       <c r="G118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H118" s="1">
-        <v>24.79189513</v>
+      <c r="H118" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I118" s="1">
-        <v>298225.02500000002</v>
+        <v>298294.44329999899</v>
       </c>
       <c r="J118" s="1">
-        <v>3238535.733</v>
-      </c>
-      <c r="K118" s="1">
-        <v>298249.81689999899</v>
-      </c>
-      <c r="L118" s="1">
-        <v>3238535.733</v>
+        <v>3238522.3177</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M118" s="3">
-        <v>43429</v>
+        <v>43432</v>
       </c>
       <c r="N118" s="3">
         <v>43456</v>
@@ -5235,7 +5248,7 @@
         <v>60</v>
       </c>
       <c r="C119" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" s="1">
         <v>3</v>
@@ -5250,19 +5263,19 @@
         <v>9</v>
       </c>
       <c r="H119" s="1">
-        <v>22.960727330000001</v>
+        <v>24.79189513</v>
       </c>
       <c r="I119" s="1">
-        <v>298229.22509999899</v>
+        <v>298225.02500000002</v>
       </c>
       <c r="J119" s="1">
-        <v>3238527.733</v>
+        <v>3238535.733</v>
       </c>
       <c r="K119" s="1">
-        <v>298252.18579999899</v>
+        <v>298249.81689999899</v>
       </c>
       <c r="L119" s="1">
-        <v>3238527.733</v>
+        <v>3238535.733</v>
       </c>
       <c r="M119" s="3">
         <v>43429</v>
@@ -5276,10 +5289,10 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C120" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" s="1">
         <v>3</v>
@@ -5294,19 +5307,19 @@
         <v>9</v>
       </c>
       <c r="H120" s="1">
-        <v>25.006205810000001</v>
+        <v>22.960727330000001</v>
       </c>
       <c r="I120" s="1">
-        <v>298208.204399999</v>
+        <v>298229.22509999899</v>
       </c>
       <c r="J120" s="1">
-        <v>3238507.733</v>
+        <v>3238527.733</v>
       </c>
       <c r="K120" s="1">
-        <v>298233.210599999</v>
+        <v>298252.18579999899</v>
       </c>
       <c r="L120" s="1">
-        <v>3238507.733</v>
+        <v>3238527.733</v>
       </c>
       <c r="M120" s="3">
         <v>43429</v>
@@ -5320,7 +5333,7 @@
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -5338,19 +5351,25 @@
         <v>9</v>
       </c>
       <c r="H121" s="1">
-        <v>19.462796910000002</v>
+        <v>25.006205810000001</v>
       </c>
       <c r="I121" s="1">
-        <v>298530.048899999</v>
+        <v>298208.204399999</v>
       </c>
       <c r="J121" s="1">
-        <v>3237227.733</v>
+        <v>3238507.733</v>
       </c>
       <c r="K121" s="1">
-        <v>298549.51160000003</v>
+        <v>298233.210599999</v>
       </c>
       <c r="L121" s="1">
-        <v>3237227.733</v>
+        <v>3238507.733</v>
+      </c>
+      <c r="M121" s="3">
+        <v>43429</v>
+      </c>
+      <c r="N121" s="3">
+        <v>43456</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -5358,13 +5377,13 @@
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>7</v>
+      <c r="D122" s="1">
+        <v>3</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>8</v>
@@ -5375,26 +5394,20 @@
       <c r="G122" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>9</v>
+      <c r="H122" s="1">
+        <v>19.462796910000002</v>
       </c>
       <c r="I122" s="1">
-        <v>298480.58419999899</v>
+        <v>298530.048899999</v>
       </c>
       <c r="J122" s="1">
-        <v>3237712.7853999902</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M122" s="3">
-        <v>43457</v>
-      </c>
-      <c r="N122" s="3">
-        <v>43457</v>
+        <v>3237227.733</v>
+      </c>
+      <c r="K122" s="1">
+        <v>298549.51160000003</v>
+      </c>
+      <c r="L122" s="1">
+        <v>3237227.733</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -5402,13 +5415,13 @@
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
       </c>
-      <c r="D123" s="1">
-        <v>3</v>
+      <c r="D123" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>8</v>
@@ -5419,20 +5432,20 @@
       <c r="G123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H123" s="1">
-        <v>20.600858209999899</v>
+      <c r="H123" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I123" s="1">
-        <v>298424.4375</v>
+        <v>298480.58419999899</v>
       </c>
       <c r="J123" s="1">
-        <v>3237687.6499999901</v>
-      </c>
-      <c r="K123" s="1">
-        <v>298424.4375</v>
-      </c>
-      <c r="L123" s="1">
-        <v>3237708.2510000002</v>
+        <v>3237712.7853999902</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M123" s="3">
         <v>43457</v>
@@ -5449,7 +5462,7 @@
         <v>64</v>
       </c>
       <c r="C124" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124" s="1">
         <v>3</v>
@@ -5464,19 +5477,19 @@
         <v>9</v>
       </c>
       <c r="H124" s="1">
-        <v>22.309022290000001</v>
+        <v>20.600858209999899</v>
       </c>
       <c r="I124" s="1">
-        <v>298408.66950000002</v>
+        <v>298424.4375</v>
       </c>
       <c r="J124" s="1">
-        <v>3237701.733</v>
+        <v>3237687.6499999901</v>
       </c>
       <c r="K124" s="1">
-        <v>298430.97850000003</v>
+        <v>298424.4375</v>
       </c>
       <c r="L124" s="1">
-        <v>3237701.733</v>
+        <v>3237708.2510000002</v>
       </c>
       <c r="M124" s="3">
         <v>43457</v>
@@ -5490,10 +5503,10 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C125" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" s="1">
         <v>3</v>
@@ -5508,24 +5521,68 @@
         <v>9</v>
       </c>
       <c r="H125" s="1">
-        <v>13.07784964</v>
+        <v>22.309022290000001</v>
       </c>
       <c r="I125" s="1">
-        <v>298554.4375</v>
+        <v>298408.66950000002</v>
       </c>
       <c r="J125" s="1">
-        <v>3237797.60399999</v>
+        <v>3237701.733</v>
       </c>
       <c r="K125" s="1">
-        <v>298554.4375</v>
+        <v>298430.97850000003</v>
       </c>
       <c r="L125" s="1">
-        <v>3237810.682</v>
+        <v>3237701.733</v>
       </c>
       <c r="M125" s="3">
         <v>43457</v>
       </c>
       <c r="N125" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>3</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" s="1">
+        <v>13.07784964</v>
+      </c>
+      <c r="I126" s="1">
+        <v>298554.4375</v>
+      </c>
+      <c r="J126" s="1">
+        <v>3237797.60399999</v>
+      </c>
+      <c r="K126" s="1">
+        <v>298554.4375</v>
+      </c>
+      <c r="L126" s="1">
+        <v>3237810.682</v>
+      </c>
+      <c r="M126" s="3">
+        <v>43457</v>
+      </c>
+      <c r="N126" s="3">
         <v>43457</v>
       </c>
     </row>

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="99">
   <si>
     <t>STATION</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>LCN9</t>
+  </si>
+  <si>
+    <t>3-5 remaining</t>
+  </si>
+  <si>
+    <t>RENAME</t>
   </si>
 </sst>
 </file>
@@ -646,11 +652,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:O126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B126"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +665,7 @@
     <col min="14" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -702,8 +708,11 @@
       <c r="N1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -737,7 +746,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -771,7 +780,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -805,7 +814,7 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -839,7 +848,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -873,7 +882,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -907,7 +916,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -941,7 +950,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -975,7 +984,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1043,7 +1052,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1077,7 +1086,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1111,7 +1120,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1179,7 +1188,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1751,6 +1760,9 @@
       <c r="M29" s="3">
         <v>43432</v>
       </c>
+      <c r="N29" s="3">
+        <v>43470</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2500,7 +2512,7 @@
         <v>3235407.733</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2538,7 +2550,7 @@
         <v>3235241.2230000002</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2576,7 +2588,7 @@
         <v>3235185.733</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2614,7 +2626,7 @@
         <v>3235215.733</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2652,7 +2664,7 @@
         <v>3235125.3820000002</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2693,7 +2705,7 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2734,7 +2746,7 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2775,7 +2787,7 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2896,7 +2908,7 @@
       </c>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2937,7 +2949,7 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2978,7 +2990,7 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3017,7 +3029,7 @@
       </c>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3054,8 +3066,14 @@
       <c r="L62" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M62" s="3">
+        <v>43470</v>
+      </c>
+      <c r="N62" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -3093,7 +3111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -3472,6 +3490,9 @@
       <c r="L73" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="M73" s="3">
+        <v>43472</v>
+      </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -3745,7 +3766,7 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -3789,7 +3810,7 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -3833,7 +3854,7 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -3870,8 +3891,17 @@
       <c r="L83" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M83" s="3">
+        <v>43471</v>
+      </c>
+      <c r="N83" s="3">
+        <v>43472</v>
+      </c>
+      <c r="O83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -3909,7 +3939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -3947,7 +3977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -3985,7 +4015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -4023,7 +4053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -4061,7 +4091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -4099,7 +4129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -4137,7 +4167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -4175,7 +4205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -4212,8 +4242,11 @@
       <c r="L92" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M92" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -4251,7 +4284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -4289,7 +4322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -4327,7 +4360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -5408,6 +5441,12 @@
       </c>
       <c r="L122" s="1">
         <v>3237227.733</v>
+      </c>
+      <c r="M122" s="3">
+        <v>43470</v>
+      </c>
+      <c r="N122" s="3">
+        <v>43470</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -5594,10 +5633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B44"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,6 +6044,94 @@
         <v>94</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>43470</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>43470</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>43470</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>43471</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>43471</v>
+      </c>
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>43471</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>43471</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>43471</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>43472</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>43472</v>
+      </c>
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>43472</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="98">
   <si>
     <t>STATION</t>
   </si>
@@ -319,9 +319,6 @@
   </si>
   <si>
     <t>LCN9</t>
-  </si>
-  <si>
-    <t>3-5 remaining</t>
   </si>
   <si>
     <t>RENAME</t>
@@ -656,17 +653,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -709,11 +708,11 @@
         <v>75</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -734,11 +733,6 @@
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
       <c r="M2" s="3">
         <v>43411</v>
       </c>
@@ -746,8 +740,8 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -768,11 +762,6 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
       <c r="M3" s="3">
         <v>43411</v>
       </c>
@@ -780,8 +769,8 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -802,11 +791,6 @@
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
       <c r="M4" s="3">
         <v>43411</v>
       </c>
@@ -814,8 +798,8 @@
         <v>43411</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -836,11 +820,6 @@
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
       <c r="M5" s="3">
         <v>43411</v>
       </c>
@@ -848,8 +827,8 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -870,11 +849,6 @@
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
       <c r="M6" s="3">
         <v>43411</v>
       </c>
@@ -882,8 +856,8 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -904,11 +878,6 @@
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
       <c r="M7" s="3">
         <v>43411</v>
       </c>
@@ -916,8 +885,8 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -938,11 +907,6 @@
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
       <c r="M8" s="3">
         <v>43411</v>
       </c>
@@ -950,8 +914,8 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -972,11 +936,6 @@
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
       <c r="M9" s="3">
         <v>43411</v>
       </c>
@@ -984,8 +943,8 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1006,11 +965,6 @@
       <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
       <c r="M10" s="3">
         <v>43411</v>
       </c>
@@ -1018,8 +972,8 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1040,11 +994,6 @@
       <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
       <c r="M11" s="3">
         <v>43411</v>
       </c>
@@ -1052,8 +1001,8 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1074,11 +1023,6 @@
       <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
       <c r="M12" s="3">
         <v>43412</v>
       </c>
@@ -1086,8 +1030,8 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1108,11 +1052,6 @@
       <c r="G13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
       <c r="M13" s="3">
         <v>43412</v>
       </c>
@@ -1120,8 +1059,8 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1142,11 +1081,6 @@
       <c r="G14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
       <c r="M14" s="3">
         <v>43412</v>
       </c>
@@ -1154,8 +1088,8 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1176,11 +1110,6 @@
       <c r="G15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
       <c r="M15" s="3">
         <v>43412</v>
       </c>
@@ -1188,8 +1117,8 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1210,11 +1139,6 @@
       <c r="G16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
       <c r="M16" s="3">
         <v>43412</v>
       </c>
@@ -1222,8 +1146,8 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1244,11 +1168,6 @@
       <c r="G17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
       <c r="M17" s="3">
         <v>43412</v>
       </c>
@@ -1256,8 +1175,8 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1278,11 +1197,6 @@
       <c r="G18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
       <c r="M18" s="3">
         <v>43412</v>
       </c>
@@ -1290,8 +1204,8 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1312,11 +1226,6 @@
       <c r="G19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
       <c r="M19" s="3">
         <v>43412</v>
       </c>
@@ -1324,8 +1233,8 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1368,8 +1277,8 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1412,8 +1321,8 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1456,8 +1365,8 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1500,8 +1409,8 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1544,8 +1453,8 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1588,8 +1497,8 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1632,8 +1541,8 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1676,8 +1585,8 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1720,8 +1629,8 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1764,8 +1673,8 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1805,8 +1714,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1846,8 +1755,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1887,8 +1796,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1928,8 +1837,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1967,8 +1876,8 @@
       </c>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2006,8 +1915,8 @@
       </c>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2047,8 +1956,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2088,8 +1997,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2129,8 +2038,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2170,8 +2079,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2208,8 +2117,8 @@
         <v>3236035.1699999901</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2246,8 +2155,8 @@
         <v>3236029.4070000001</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2284,8 +2193,8 @@
         <v>3236025.7239999902</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2322,8 +2231,8 @@
         <v>3236057.733</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2360,8 +2269,8 @@
         <v>3235887.2319999901</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2398,8 +2307,8 @@
         <v>3235857.733</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2436,8 +2345,8 @@
         <v>3235757.74599999</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2474,8 +2383,8 @@
         <v>3235645.733</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2512,8 +2421,8 @@
         <v>3235407.733</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2550,8 +2459,8 @@
         <v>3235241.2230000002</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2588,8 +2497,8 @@
         <v>3235185.733</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2626,8 +2535,8 @@
         <v>3235215.733</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2664,8 +2573,8 @@
         <v>3235125.3820000002</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2705,8 +2614,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2746,8 +2655,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2787,8 +2696,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2828,8 +2737,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2869,8 +2778,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2908,8 +2817,8 @@
       </c>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2949,8 +2858,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2990,8 +2899,8 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3021,16 +2930,16 @@
       <c r="J61" s="1">
         <v>3233308</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="1">
         <v>297247</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="1">
         <v>3233315</v>
       </c>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -3073,8 +2982,8 @@
         <v>43471</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -3110,9 +3019,15 @@
       <c r="L63" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="M63" s="3">
+        <v>43470</v>
+      </c>
+      <c r="N63" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -3148,9 +3063,15 @@
       <c r="L64" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="M64" s="3">
+        <v>43470</v>
+      </c>
+      <c r="N64" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3186,9 +3107,15 @@
       <c r="L65" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="M65" s="3">
+        <v>43470</v>
+      </c>
+      <c r="N65" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -3224,9 +3151,15 @@
       <c r="L66" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="M66" s="3">
+        <v>43470</v>
+      </c>
+      <c r="N66" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -3263,8 +3196,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -3301,8 +3234,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -3339,8 +3272,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -3377,8 +3310,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -3415,8 +3348,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -3453,8 +3386,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -3494,8 +3427,8 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -3531,9 +3464,12 @@
       <c r="L74" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="M74" s="3">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -3570,8 +3506,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -3608,8 +3544,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -3646,8 +3582,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -3684,8 +3620,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3722,8 +3658,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -3766,8 +3702,8 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -3810,8 +3746,8 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3854,8 +3790,8 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
         <v>2</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -3897,12 +3833,9 @@
       <c r="N83" s="3">
         <v>43472</v>
       </c>
-      <c r="O83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84">
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -3938,9 +3871,15 @@
       <c r="L84" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="M84" s="3">
+        <v>43471</v>
+      </c>
+      <c r="N84" s="3">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3976,9 +3915,12 @@
       <c r="L85" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="M85" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -4014,9 +3956,12 @@
       <c r="L86" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="M86" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -4052,9 +3997,12 @@
       <c r="L87" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="M87" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -4091,8 +4039,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -4129,8 +4077,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -4167,8 +4115,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -4205,8 +4153,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -4246,8 +4194,8 @@
         <v>43471</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -4283,9 +4231,12 @@
       <c r="L93" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="M93" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -4321,9 +4272,12 @@
       <c r="L94" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="M94" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -4360,8 +4314,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -4398,8 +4352,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -4436,8 +4390,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -4474,8 +4428,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -4512,8 +4466,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -4553,8 +4507,8 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -4594,8 +4548,8 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -4635,8 +4589,8 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
         <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -4676,8 +4630,8 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -4717,8 +4671,8 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -4755,8 +4709,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -4793,8 +4747,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -4831,8 +4785,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -4869,8 +4823,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -4907,8 +4861,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -4945,8 +4899,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
         <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -4983,8 +4937,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
         <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -5021,8 +4975,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -5059,8 +5013,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -5097,8 +5051,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -5141,8 +5095,8 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -5185,8 +5139,8 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -5229,8 +5183,8 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -5273,8 +5227,8 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -5317,8 +5271,8 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -5361,8 +5315,8 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -5405,8 +5359,8 @@
         <v>43456</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -5449,8 +5403,8 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -5493,8 +5447,8 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -5537,8 +5491,8 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -5581,8 +5535,8 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -5627,7 +5581,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="100">
   <si>
     <t>STATION</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>RENAME</t>
+  </si>
+  <si>
+    <t>Nava Kiss</t>
+  </si>
+  <si>
+    <t>Annalee Tweitman</t>
   </si>
 </sst>
 </file>
@@ -364,11 +370,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +662,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N84" sqref="N84"/>
+      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1796,7 +1805,7 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1837,7 +1846,7 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -1876,7 +1885,7 @@
       </c>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -1915,7 +1924,7 @@
       </c>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -1955,8 +1964,11 @@
       <c r="M36" s="3">
         <v>43429</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="3">
+        <v>43478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1997,7 +2009,7 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -2037,8 +2049,11 @@
       <c r="M38" s="3">
         <v>43429</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="3">
+        <v>43478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -2079,7 +2094,7 @@
         <v>43429</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -2117,7 +2132,7 @@
         <v>3236035.1699999901</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -2155,7 +2170,7 @@
         <v>3236029.4070000001</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -2193,7 +2208,7 @@
         <v>3236025.7239999902</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -2231,7 +2246,7 @@
         <v>3236057.733</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -2269,7 +2284,7 @@
         <v>3235887.2319999901</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -2307,7 +2322,7 @@
         <v>3235857.733</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -2345,7 +2360,7 @@
         <v>3235757.74599999</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -2383,7 +2398,7 @@
         <v>3235645.733</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -2736,6 +2751,9 @@
       <c r="M56" s="3">
         <v>43429</v>
       </c>
+      <c r="N56" s="3">
+        <v>43463</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
@@ -2777,6 +2795,9 @@
       <c r="M57" s="3">
         <v>43429</v>
       </c>
+      <c r="N57" s="3">
+        <v>43463</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
@@ -2897,6 +2918,9 @@
       </c>
       <c r="M60" s="3">
         <v>43429</v>
+      </c>
+      <c r="N60" s="3">
+        <v>43463</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -5587,10 +5611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6086,8 +6110,161 @@
         <v>80</v>
       </c>
     </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>43486</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>43486</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>43486</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>43486</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>43486</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>43486</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>43486</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>43487</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>43488</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>43488</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>43488</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>43488</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>43488</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="102">
   <si>
     <t>STATION</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>Annalee Tweitman</t>
+  </si>
+  <si>
+    <t>Margo Stoddard</t>
+  </si>
+  <si>
+    <t>Elizabeth Scarlett</t>
   </si>
 </sst>
 </file>
@@ -660,9 +666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1883,7 +1889,12 @@
       <c r="L34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="3">
+        <v>43488</v>
+      </c>
+      <c r="N34" s="3">
+        <v>43488</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -1922,7 +1933,12 @@
       <c r="L35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="3">
+        <v>43488</v>
+      </c>
+      <c r="N35" s="3">
+        <v>43488</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -2283,6 +2299,12 @@
       <c r="L44" s="1">
         <v>3235887.2319999901</v>
       </c>
+      <c r="M44" s="3">
+        <v>43487</v>
+      </c>
+      <c r="N44" s="3">
+        <v>43487</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -2321,6 +2343,12 @@
       <c r="L45" s="1">
         <v>3235857.733</v>
       </c>
+      <c r="M45" s="3">
+        <v>43487</v>
+      </c>
+      <c r="N45" s="3">
+        <v>43487</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -2359,6 +2387,12 @@
       <c r="L46" s="1">
         <v>3235757.74599999</v>
       </c>
+      <c r="M46" s="3">
+        <v>43488</v>
+      </c>
+      <c r="N46" s="3">
+        <v>43488</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
@@ -2836,7 +2870,12 @@
       <c r="L58" s="1">
         <v>3234583</v>
       </c>
-      <c r="M58" s="3"/>
+      <c r="M58" s="3">
+        <v>43487</v>
+      </c>
+      <c r="N58" s="3">
+        <v>43488</v>
+      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
@@ -2960,7 +2999,9 @@
       <c r="L61" s="1">
         <v>3233315</v>
       </c>
-      <c r="M61" s="3"/>
+      <c r="M61" s="3">
+        <v>43487</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
@@ -4376,7 +4417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>2</v>
       </c>
@@ -4414,7 +4455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>2</v>
       </c>
@@ -4452,7 +4493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>2</v>
       </c>
@@ -4490,7 +4531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>2</v>
       </c>
@@ -4530,8 +4571,11 @@
       <c r="M100" s="3">
         <v>43442</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -4571,8 +4615,11 @@
       <c r="M101" s="3">
         <v>43442</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -4612,8 +4659,11 @@
       <c r="M102" s="3">
         <v>43442</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102" s="3">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -4653,8 +4703,11 @@
       <c r="M103" s="3">
         <v>43442</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103" s="3">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -4695,7 +4748,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>2</v>
       </c>
@@ -4732,8 +4785,11 @@
       <c r="L105" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M105" s="3">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -4770,8 +4826,11 @@
       <c r="L106" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M106" s="3">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>2</v>
       </c>
@@ -4808,8 +4867,11 @@
       <c r="L107" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M107" s="3">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>2</v>
       </c>
@@ -4847,7 +4909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -4884,8 +4946,14 @@
       <c r="L109" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M109" s="3">
+        <v>43487</v>
+      </c>
+      <c r="N109" s="3">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -4922,8 +4990,14 @@
       <c r="L110" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M110" s="3">
+        <v>43487</v>
+      </c>
+      <c r="N110" s="3">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>2</v>
       </c>
@@ -4960,8 +5034,14 @@
       <c r="L111" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M111" s="3">
+        <v>43487</v>
+      </c>
+      <c r="N111" s="3">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>2</v>
       </c>
@@ -4998,6 +5078,12 @@
       <c r="L112" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="M112" s="3">
+        <v>43487</v>
+      </c>
+      <c r="N112" s="3">
+        <v>43487</v>
+      </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
@@ -5035,6 +5121,12 @@
       </c>
       <c r="L113" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M113" s="3">
+        <v>43487</v>
+      </c>
+      <c r="N113" s="3">
+        <v>43487</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -5613,8 +5705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6203,7 +6295,7 @@
         <v>43487</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -6211,15 +6303,15 @@
         <v>43487</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>43487</v>
+        <v>43488</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -6227,7 +6319,7 @@
         <v>43488</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -6235,7 +6327,7 @@
         <v>43488</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -6243,7 +6335,7 @@
         <v>43488</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -6251,7 +6343,7 @@
         <v>43488</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -6259,7 +6351,7 @@
         <v>43488</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -666,9 +666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1728,6 +1728,9 @@
       <c r="M30" s="3">
         <v>43429</v>
       </c>
+      <c r="N30" s="3">
+        <v>43502</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -1769,6 +1772,9 @@
       <c r="M31" s="3">
         <v>43429</v>
       </c>
+      <c r="N31" s="3">
+        <v>43502</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -1936,9 +1942,7 @@
       <c r="M35" s="3">
         <v>43488</v>
       </c>
-      <c r="N35" s="3">
-        <v>43488</v>
-      </c>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -2147,6 +2151,12 @@
       <c r="L40" s="1">
         <v>3236035.1699999901</v>
       </c>
+      <c r="M40" s="3">
+        <v>43502</v>
+      </c>
+      <c r="N40" s="3">
+        <v>43502</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -2185,6 +2195,12 @@
       <c r="L41" s="1">
         <v>3236029.4070000001</v>
       </c>
+      <c r="M41" s="3">
+        <v>43502</v>
+      </c>
+      <c r="N41" s="3">
+        <v>43502</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -2223,6 +2239,12 @@
       <c r="L42" s="1">
         <v>3236025.7239999902</v>
       </c>
+      <c r="M42" s="3">
+        <v>43502</v>
+      </c>
+      <c r="N42" s="3">
+        <v>43502</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -2261,6 +2283,12 @@
       <c r="L43" s="1">
         <v>3236057.733</v>
       </c>
+      <c r="M43" s="3">
+        <v>43501</v>
+      </c>
+      <c r="N43" s="3">
+        <v>43501</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -2431,6 +2459,12 @@
       <c r="L47" s="1">
         <v>3235645.733</v>
       </c>
+      <c r="M47" s="3">
+        <v>43488</v>
+      </c>
+      <c r="N47" s="3">
+        <v>43488</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
@@ -2469,6 +2503,12 @@
       <c r="L48" s="1">
         <v>3235407.733</v>
       </c>
+      <c r="M48" s="3">
+        <v>43500</v>
+      </c>
+      <c r="N48" s="3">
+        <v>43500</v>
+      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
@@ -2507,6 +2547,12 @@
       <c r="L49" s="1">
         <v>3235241.2230000002</v>
       </c>
+      <c r="M49" s="3">
+        <v>43500</v>
+      </c>
+      <c r="N49" s="3">
+        <v>43500</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
@@ -2545,6 +2591,12 @@
       <c r="L50" s="1">
         <v>3235185.733</v>
       </c>
+      <c r="M50" s="3">
+        <v>43502</v>
+      </c>
+      <c r="N50" s="3">
+        <v>43502</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
@@ -2583,6 +2635,12 @@
       <c r="L51" s="1">
         <v>3235215.733</v>
       </c>
+      <c r="M51" s="3">
+        <v>43502</v>
+      </c>
+      <c r="N51" s="3">
+        <v>43502</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
@@ -2621,6 +2679,12 @@
       <c r="L52" s="1">
         <v>3235125.3820000002</v>
       </c>
+      <c r="M52" s="3">
+        <v>43502</v>
+      </c>
+      <c r="N52" s="3">
+        <v>43502</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
@@ -3001,6 +3065,9 @@
       </c>
       <c r="M61" s="3">
         <v>43487</v>
+      </c>
+      <c r="N61" s="3">
+        <v>43500</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -5705,7 +5772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -667,8 +667,8 @@
   <dimension ref="A1:O126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N59" sqref="N59"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1816,6 +1816,9 @@
       <c r="M32" s="3">
         <v>43429</v>
       </c>
+      <c r="N32" s="3">
+        <v>43503</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -1857,6 +1860,9 @@
       <c r="M33" s="3">
         <v>43429</v>
       </c>
+      <c r="N33" s="3">
+        <v>43503</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -1942,7 +1948,9 @@
       <c r="M35" s="3">
         <v>43488</v>
       </c>
-      <c r="N35" s="3"/>
+      <c r="N35" s="3">
+        <v>43503</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -2028,6 +2036,9 @@
       <c r="M37" s="3">
         <v>43429</v>
       </c>
+      <c r="N37" s="3">
+        <v>43503</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -2113,6 +2124,9 @@
       <c r="M39" s="3">
         <v>43429</v>
       </c>
+      <c r="N39" s="3">
+        <v>43503</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -2726,6 +2740,9 @@
       <c r="M53" s="3">
         <v>43429</v>
       </c>
+      <c r="N53" s="3">
+        <v>43503</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
@@ -2767,6 +2784,9 @@
       <c r="M54" s="3">
         <v>43429</v>
       </c>
+      <c r="N54" s="3">
+        <v>43503</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
@@ -2808,6 +2828,9 @@
       <c r="M55" s="3">
         <v>43429</v>
       </c>
+      <c r="N55" s="3">
+        <v>43503</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
@@ -2980,6 +3003,9 @@
       </c>
       <c r="M59" s="3">
         <v>43429</v>
+      </c>
+      <c r="N59" s="3">
+        <v>43503</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -667,8 +667,8 @@
   <dimension ref="A1:O126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R57" sqref="R57"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R87" sqref="R87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5258,6 +5258,12 @@
       </c>
       <c r="L114" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M114" s="3">
+        <v>43487</v>
+      </c>
+      <c r="N114" s="3">
+        <v>43487</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="109">
   <si>
     <t>STATION</t>
   </si>
@@ -334,6 +334,27 @@
   </si>
   <si>
     <t>Elizabeth Scarlett</t>
+  </si>
+  <si>
+    <t>Mike Allen</t>
+  </si>
+  <si>
+    <t>Wray Gabel</t>
+  </si>
+  <si>
+    <t>LCO2</t>
+  </si>
+  <si>
+    <t>LCO3</t>
+  </si>
+  <si>
+    <t>LCO4</t>
+  </si>
+  <si>
+    <t>LCO8A</t>
+  </si>
+  <si>
+    <t>not part of draw but sampled previously</t>
   </si>
 </sst>
 </file>
@@ -664,11 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O126"/>
+  <dimension ref="A1:O130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R87" sqref="R87"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V107" sqref="V107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2524,7 +2545,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -2568,7 +2589,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -2612,7 +2633,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -2656,7 +2677,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -2700,7 +2721,7 @@
         <v>43502</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -2744,7 +2765,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -2788,7 +2809,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -2832,7 +2853,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -2876,7 +2897,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -2920,7 +2941,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -2964,7 +2985,7 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -3008,7 +3029,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -3052,7 +3073,7 @@
         <v>43463</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -3096,183 +3117,63 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>2</v>
-      </c>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>3</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G62" s="1">
-        <v>5</v>
-      </c>
-      <c r="H62" s="1">
-        <v>22</v>
-      </c>
-      <c r="I62" s="1">
-        <v>294830.50900000002</v>
-      </c>
-      <c r="J62" s="1">
-        <v>3238750.773</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="M62" s="3">
-        <v>43470</v>
+        <v>43517</v>
       </c>
       <c r="N62" s="3">
-        <v>43471</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>2</v>
-      </c>
+        <v>43517</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2</v>
-      </c>
-      <c r="D63" s="1">
-        <v>3</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G63" s="1">
-        <v>5</v>
-      </c>
-      <c r="H63" s="1">
-        <v>22</v>
-      </c>
-      <c r="I63" s="1">
-        <v>294830.50900000002</v>
-      </c>
-      <c r="J63" s="1">
-        <v>3238750.773</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="M63" s="3">
-        <v>43470</v>
+        <v>43517</v>
       </c>
       <c r="N63" s="3">
-        <v>43471</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>2</v>
-      </c>
+        <v>43517</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="1">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1">
-        <v>3</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G64" s="1">
-        <v>5</v>
-      </c>
-      <c r="H64" s="1">
-        <v>22</v>
-      </c>
-      <c r="I64" s="1">
-        <v>294830.50900000002</v>
-      </c>
-      <c r="J64" s="1">
-        <v>3238750.773</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="M64" s="3">
-        <v>43470</v>
+        <v>43517</v>
       </c>
       <c r="N64" s="3">
-        <v>43471</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>2</v>
-      </c>
+        <v>43517</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="1">
-        <v>4</v>
-      </c>
-      <c r="D65" s="1">
-        <v>3</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G65" s="1">
-        <v>5</v>
-      </c>
-      <c r="H65" s="1">
-        <v>22</v>
-      </c>
-      <c r="I65" s="1">
-        <v>294830.50900000002</v>
-      </c>
-      <c r="J65" s="1">
-        <v>3238750.773</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="M65" s="3">
-        <v>43470</v>
+        <v>43517</v>
       </c>
       <c r="N65" s="3">
-        <v>43471</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43517</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -3280,7 +3181,7 @@
         <v>43</v>
       </c>
       <c r="C66" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -3316,7 +3217,7 @@
         <v>43471</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -3324,7 +3225,7 @@
         <v>43</v>
       </c>
       <c r="C67" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -3336,16 +3237,16 @@
         <v>44</v>
       </c>
       <c r="G67" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H67" s="1">
         <v>22</v>
       </c>
       <c r="I67" s="1">
-        <v>294920.8002</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J67" s="1">
-        <v>3238651.68899999</v>
+        <v>3238750.773</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>9</v>
@@ -3353,8 +3254,14 @@
       <c r="L67" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M67" s="3">
+        <v>43470</v>
+      </c>
+      <c r="N67" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -3362,7 +3269,7 @@
         <v>43</v>
       </c>
       <c r="C68" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -3374,16 +3281,16 @@
         <v>44</v>
       </c>
       <c r="G68" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H68" s="1">
         <v>22</v>
       </c>
       <c r="I68" s="1">
-        <v>294920.8002</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J68" s="1">
-        <v>3238651.68899999</v>
+        <v>3238750.773</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>9</v>
@@ -3391,8 +3298,14 @@
       <c r="L68" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>43470</v>
+      </c>
+      <c r="N68" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -3400,7 +3313,7 @@
         <v>43</v>
       </c>
       <c r="C69" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -3412,16 +3325,16 @@
         <v>44</v>
       </c>
       <c r="G69" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H69" s="1">
         <v>22</v>
       </c>
       <c r="I69" s="1">
-        <v>294942.0013</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J69" s="1">
-        <v>3238634.6979999901</v>
+        <v>3238750.773</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>9</v>
@@ -3429,16 +3342,22 @@
       <c r="L69" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>43470</v>
+      </c>
+      <c r="N69" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C70" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70" s="1">
         <v>3</v>
@@ -3450,16 +3369,16 @@
         <v>44</v>
       </c>
       <c r="G70" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H70" s="1">
         <v>22</v>
       </c>
       <c r="I70" s="1">
-        <v>295026.7623</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J70" s="1">
-        <v>3238588.838</v>
+        <v>3238750.773</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>9</v>
@@ -3467,16 +3386,22 @@
       <c r="L70" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>43470</v>
+      </c>
+      <c r="N70" s="3">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C71" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D71" s="1">
         <v>3</v>
@@ -3488,16 +3413,16 @@
         <v>44</v>
       </c>
       <c r="G71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" s="1">
         <v>22</v>
       </c>
       <c r="I71" s="1">
-        <v>295026.7623</v>
+        <v>294920.8002</v>
       </c>
       <c r="J71" s="1">
-        <v>3238588.838</v>
+        <v>3238651.68899999</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>9</v>
@@ -3506,15 +3431,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C72" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -3526,16 +3451,16 @@
         <v>44</v>
       </c>
       <c r="G72" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" s="1">
         <v>22</v>
       </c>
       <c r="I72" s="1">
-        <v>295026.7623</v>
+        <v>294920.8002</v>
       </c>
       <c r="J72" s="1">
-        <v>3238588.838</v>
+        <v>3238651.68899999</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>9</v>
@@ -3544,15 +3469,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C73" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D73" s="1">
         <v>3</v>
@@ -3564,16 +3489,16 @@
         <v>44</v>
       </c>
       <c r="G73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="1">
         <v>22</v>
       </c>
       <c r="I73" s="1">
-        <v>295240.32020000002</v>
+        <v>294942.0013</v>
       </c>
       <c r="J73" s="1">
-        <v>3238286.6310000001</v>
+        <v>3238634.6979999901</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>9</v>
@@ -3581,19 +3506,16 @@
       <c r="L73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M73" s="3">
-        <v>43472</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
         <v>3</v>
@@ -3605,16 +3527,16 @@
         <v>44</v>
       </c>
       <c r="G74" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74" s="1">
         <v>22</v>
       </c>
       <c r="I74" s="1">
-        <v>295240.32020000002</v>
+        <v>295026.7623</v>
       </c>
       <c r="J74" s="1">
-        <v>3238286.6310000001</v>
+        <v>3238588.838</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>9</v>
@@ -3622,19 +3544,16 @@
       <c r="L74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M74" s="3">
-        <v>43472</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" s="1">
         <v>3</v>
@@ -3646,16 +3565,16 @@
         <v>44</v>
       </c>
       <c r="G75" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H75" s="1">
         <v>22</v>
       </c>
       <c r="I75" s="1">
-        <v>295455.982599999</v>
+        <v>295026.7623</v>
       </c>
       <c r="J75" s="1">
-        <v>3238032.784</v>
+        <v>3238588.838</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>9</v>
@@ -3664,15 +3583,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C76" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1">
         <v>3</v>
@@ -3684,16 +3603,16 @@
         <v>44</v>
       </c>
       <c r="G76" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76" s="1">
         <v>22</v>
       </c>
       <c r="I76" s="1">
-        <v>295455.982599999</v>
+        <v>295026.7623</v>
       </c>
       <c r="J76" s="1">
-        <v>3238032.784</v>
+        <v>3238588.838</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>9</v>
@@ -3702,15 +3621,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C77" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
@@ -3722,16 +3641,16 @@
         <v>44</v>
       </c>
       <c r="G77" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H77" s="1">
         <v>22</v>
       </c>
       <c r="I77" s="1">
-        <v>295455.982599999</v>
+        <v>295240.32020000002</v>
       </c>
       <c r="J77" s="1">
-        <v>3238032.784</v>
+        <v>3238286.6310000001</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>9</v>
@@ -3739,16 +3658,19 @@
       <c r="L77" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C78" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" s="1">
         <v>3</v>
@@ -3760,16 +3682,16 @@
         <v>44</v>
       </c>
       <c r="G78" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H78" s="1">
         <v>22</v>
       </c>
       <c r="I78" s="1">
-        <v>295455.982599999</v>
+        <v>295240.32020000002</v>
       </c>
       <c r="J78" s="1">
-        <v>3238032.784</v>
+        <v>3238286.6310000001</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>9</v>
@@ -3777,8 +3699,11 @@
       <c r="L78" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M78" s="3">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -3786,7 +3711,7 @@
         <v>47</v>
       </c>
       <c r="C79" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
@@ -3816,15 +3741,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" s="1">
         <v>3</v>
@@ -3833,31 +3758,25 @@
         <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G80" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H80" s="1">
         <v>22</v>
       </c>
       <c r="I80" s="1">
-        <v>295625.47989999899</v>
+        <v>295455.982599999</v>
       </c>
       <c r="J80" s="1">
-        <v>3237836.0819999902</v>
+        <v>3238032.784</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M80" s="3">
-        <v>43457</v>
-      </c>
-      <c r="N80" s="3">
-        <v>43457</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -3865,10 +3784,10 @@
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" s="1">
         <v>3</v>
@@ -3877,31 +3796,25 @@
         <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G81" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H81" s="1">
         <v>22</v>
       </c>
       <c r="I81" s="1">
-        <v>295625.47989999899</v>
+        <v>295455.982599999</v>
       </c>
       <c r="J81" s="1">
-        <v>3237836.0819999902</v>
+        <v>3238032.784</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M81" s="3">
-        <v>43457</v>
-      </c>
-      <c r="N81" s="3">
-        <v>43457</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -3909,10 +3822,10 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C82" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" s="1">
         <v>3</v>
@@ -3921,31 +3834,25 @@
         <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G82" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H82" s="1">
         <v>22</v>
       </c>
       <c r="I82" s="1">
-        <v>295625.47989999899</v>
+        <v>295455.982599999</v>
       </c>
       <c r="J82" s="1">
-        <v>3237836.0819999902</v>
+        <v>3238032.784</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M82" s="3">
-        <v>43457</v>
-      </c>
-      <c r="N82" s="3">
-        <v>43457</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -3953,10 +3860,10 @@
         <v>2</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C83" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83" s="1">
         <v>3</v>
@@ -3965,7 +3872,7 @@
         <v>8</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G83" s="1">
         <v>5</v>
@@ -3974,22 +3881,16 @@
         <v>22</v>
       </c>
       <c r="I83" s="1">
-        <v>295729.59279999899</v>
+        <v>295455.982599999</v>
       </c>
       <c r="J83" s="1">
-        <v>3237751.31</v>
+        <v>3238032.784</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M83" s="3">
-        <v>43471</v>
-      </c>
-      <c r="N83" s="3">
-        <v>43472</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -3997,10 +3898,10 @@
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C84" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
         <v>3</v>
@@ -4012,16 +3913,16 @@
         <v>49</v>
       </c>
       <c r="G84" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H84" s="1">
         <v>22</v>
       </c>
       <c r="I84" s="1">
-        <v>295729.59279999899</v>
+        <v>295625.47989999899</v>
       </c>
       <c r="J84" s="1">
-        <v>3237751.31</v>
+        <v>3237836.0819999902</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>9</v>
@@ -4030,10 +3931,10 @@
         <v>9</v>
       </c>
       <c r="M84" s="3">
-        <v>43471</v>
+        <v>43457</v>
       </c>
       <c r="N84" s="3">
-        <v>43472</v>
+        <v>43457</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4041,10 +3942,10 @@
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C85" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" s="1">
         <v>3</v>
@@ -4056,16 +3957,16 @@
         <v>49</v>
       </c>
       <c r="G85" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H85" s="1">
         <v>22</v>
       </c>
       <c r="I85" s="1">
-        <v>295729.59279999899</v>
+        <v>295625.47989999899</v>
       </c>
       <c r="J85" s="1">
-        <v>3237751.31</v>
+        <v>3237836.0819999902</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>9</v>
@@ -4074,7 +3975,10 @@
         <v>9</v>
       </c>
       <c r="M85" s="3">
-        <v>43471</v>
+        <v>43457</v>
+      </c>
+      <c r="N85" s="3">
+        <v>43457</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -4082,10 +3986,10 @@
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C86" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" s="1">
         <v>3</v>
@@ -4097,16 +4001,16 @@
         <v>49</v>
       </c>
       <c r="G86" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H86" s="1">
         <v>22</v>
       </c>
       <c r="I86" s="1">
-        <v>295729.59279999899</v>
+        <v>295625.47989999899</v>
       </c>
       <c r="J86" s="1">
-        <v>3237751.31</v>
+        <v>3237836.0819999902</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>9</v>
@@ -4115,7 +4019,10 @@
         <v>9</v>
       </c>
       <c r="M86" s="3">
-        <v>43471</v>
+        <v>43457</v>
+      </c>
+      <c r="N86" s="3">
+        <v>43457</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -4126,7 +4033,7 @@
         <v>50</v>
       </c>
       <c r="C87" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D87" s="1">
         <v>3</v>
@@ -4158,6 +4065,9 @@
       <c r="M87" s="3">
         <v>43471</v>
       </c>
+      <c r="N87" s="3">
+        <v>43472</v>
+      </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
@@ -4167,7 +4077,7 @@
         <v>50</v>
       </c>
       <c r="C88" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D88" s="1">
         <v>3</v>
@@ -4179,22 +4089,28 @@
         <v>49</v>
       </c>
       <c r="G88" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H88" s="1">
         <v>22</v>
       </c>
       <c r="I88" s="1">
-        <v>295774.17820000002</v>
+        <v>295729.59279999899</v>
       </c>
       <c r="J88" s="1">
-        <v>3237700.8870000001</v>
+        <v>3237751.31</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M88" s="3">
+        <v>43471</v>
+      </c>
+      <c r="N88" s="3">
+        <v>43472</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -4205,7 +4121,7 @@
         <v>50</v>
       </c>
       <c r="C89" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D89" s="1">
         <v>3</v>
@@ -4217,22 +4133,28 @@
         <v>49</v>
       </c>
       <c r="G89" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H89" s="1">
         <v>22</v>
       </c>
       <c r="I89" s="1">
-        <v>295774.17820000002</v>
+        <v>295729.59279999899</v>
       </c>
       <c r="J89" s="1">
-        <v>3237700.8870000001</v>
+        <v>3237751.31</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M89" s="3">
+        <v>43471</v>
+      </c>
+      <c r="N89" s="3">
+        <v>43514</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -4243,7 +4165,7 @@
         <v>50</v>
       </c>
       <c r="C90" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D90" s="1">
         <v>3</v>
@@ -4255,22 +4177,28 @@
         <v>49</v>
       </c>
       <c r="G90" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H90" s="1">
         <v>22</v>
       </c>
       <c r="I90" s="1">
-        <v>295774.17820000002</v>
+        <v>295729.59279999899</v>
       </c>
       <c r="J90" s="1">
-        <v>3237700.8870000001</v>
+        <v>3237751.31</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M90" s="3">
+        <v>43471</v>
+      </c>
+      <c r="N90" s="3">
+        <v>43514</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -4278,10 +4206,10 @@
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C91" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D91" s="1">
         <v>3</v>
@@ -4293,22 +4221,28 @@
         <v>49</v>
       </c>
       <c r="G91" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H91" s="1">
         <v>22</v>
       </c>
       <c r="I91" s="1">
-        <v>295902.69449999899</v>
+        <v>295729.59279999899</v>
       </c>
       <c r="J91" s="1">
-        <v>3237537.557</v>
+        <v>3237751.31</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M91" s="3">
+        <v>43471</v>
+      </c>
+      <c r="N91" s="3">
+        <v>43516</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -4316,16 +4250,16 @@
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C92" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D92" s="1">
         <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>49</v>
@@ -4337,10 +4271,10 @@
         <v>22</v>
       </c>
       <c r="I92" s="1">
-        <v>295964.86560000002</v>
+        <v>295774.17820000002</v>
       </c>
       <c r="J92" s="1">
-        <v>3236951.5189999901</v>
+        <v>3237700.8870000001</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>9</v>
@@ -4349,7 +4283,10 @@
         <v>9</v>
       </c>
       <c r="M92" s="3">
-        <v>43471</v>
+        <v>43514</v>
+      </c>
+      <c r="N92" s="3">
+        <v>43516</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -4357,16 +4294,16 @@
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C93" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D93" s="1">
         <v>3</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>49</v>
@@ -4378,10 +4315,10 @@
         <v>22</v>
       </c>
       <c r="I93" s="1">
-        <v>295964.86560000002</v>
+        <v>295774.17820000002</v>
       </c>
       <c r="J93" s="1">
-        <v>3236951.5189999901</v>
+        <v>3237700.8870000001</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>9</v>
@@ -4390,7 +4327,10 @@
         <v>9</v>
       </c>
       <c r="M93" s="3">
-        <v>43471</v>
+        <v>43514</v>
+      </c>
+      <c r="N93" s="3">
+        <v>43516</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -4398,16 +4338,16 @@
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C94" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>49</v>
@@ -4419,10 +4359,10 @@
         <v>22</v>
       </c>
       <c r="I94" s="1">
-        <v>295964.86560000002</v>
+        <v>295774.17820000002</v>
       </c>
       <c r="J94" s="1">
-        <v>3236951.5189999901</v>
+        <v>3237700.8870000001</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>9</v>
@@ -4431,7 +4371,10 @@
         <v>9</v>
       </c>
       <c r="M94" s="3">
-        <v>43471</v>
+        <v>43514</v>
+      </c>
+      <c r="N94" s="3">
+        <v>43516</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -4439,7 +4382,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -4448,28 +4391,34 @@
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G95" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H95" s="1">
         <v>22</v>
       </c>
       <c r="I95" s="1">
-        <v>296176.874699999</v>
+        <v>295902.69449999899</v>
       </c>
       <c r="J95" s="1">
-        <v>3236569.86799999</v>
+        <v>3237537.557</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M95" s="3">
+        <v>43514</v>
+      </c>
+      <c r="N95" s="3">
+        <v>43515</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -4477,10 +4426,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1">
         <v>3</v>
@@ -4492,22 +4441,28 @@
         <v>49</v>
       </c>
       <c r="G96" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H96" s="1">
         <v>22</v>
       </c>
       <c r="I96" s="1">
-        <v>296176.874699999</v>
+        <v>295964.86560000002</v>
       </c>
       <c r="J96" s="1">
-        <v>3236569.86799999</v>
+        <v>3236951.5189999901</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M96" s="3">
+        <v>43471</v>
+      </c>
+      <c r="N96" s="3">
+        <v>43515</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -4515,10 +4470,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C97" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" s="1">
         <v>3</v>
@@ -4530,22 +4485,28 @@
         <v>49</v>
       </c>
       <c r="G97" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H97" s="1">
         <v>22</v>
       </c>
       <c r="I97" s="1">
-        <v>296176.874699999</v>
+        <v>295964.86560000002</v>
       </c>
       <c r="J97" s="1">
-        <v>3236569.86799999</v>
+        <v>3236951.5189999901</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M97" s="3">
+        <v>43471</v>
+      </c>
+      <c r="N97" s="3">
+        <v>43515</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -4553,10 +4514,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" s="1">
         <v>3</v>
@@ -4568,22 +4529,25 @@
         <v>49</v>
       </c>
       <c r="G98" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H98" s="1">
         <v>22</v>
       </c>
       <c r="I98" s="1">
-        <v>296176.874699999</v>
+        <v>295964.86560000002</v>
       </c>
       <c r="J98" s="1">
-        <v>3236569.86799999</v>
+        <v>3236951.5189999901</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M98" s="3">
+        <v>43471</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -4594,7 +4558,7 @@
         <v>53</v>
       </c>
       <c r="C99" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
@@ -4606,22 +4570,28 @@
         <v>49</v>
       </c>
       <c r="G99" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H99" s="1">
         <v>22</v>
       </c>
       <c r="I99" s="1">
-        <v>296250.60749999899</v>
+        <v>296176.874699999</v>
       </c>
       <c r="J99" s="1">
-        <v>3236434.89099999</v>
+        <v>3236569.86799999</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M99" s="3">
+        <v>43514</v>
+      </c>
+      <c r="N99" s="3">
+        <v>43515</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -4629,10 +4599,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="1">
         <v>3</v>
@@ -4650,10 +4620,10 @@
         <v>22</v>
       </c>
       <c r="I100" s="1">
-        <v>296377.63929999899</v>
+        <v>296176.874699999</v>
       </c>
       <c r="J100" s="1">
-        <v>3236022.0610000002</v>
+        <v>3236569.86799999</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>9</v>
@@ -4662,10 +4632,10 @@
         <v>9</v>
       </c>
       <c r="M100" s="3">
-        <v>43442</v>
+        <v>43514</v>
       </c>
       <c r="N100" s="3">
-        <v>43486</v>
+        <v>43515</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -4673,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C101" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" s="1">
         <v>3</v>
@@ -4694,10 +4664,10 @@
         <v>22</v>
       </c>
       <c r="I101" s="1">
-        <v>296377.63929999899</v>
+        <v>296176.874699999</v>
       </c>
       <c r="J101" s="1">
-        <v>3236022.0610000002</v>
+        <v>3236569.86799999</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>9</v>
@@ -4706,10 +4676,10 @@
         <v>9</v>
       </c>
       <c r="M101" s="3">
-        <v>43442</v>
+        <v>43514</v>
       </c>
       <c r="N101" s="3">
-        <v>43486</v>
+        <v>43515</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -4717,10 +4687,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C102" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D102" s="1">
         <v>3</v>
@@ -4738,10 +4708,10 @@
         <v>22</v>
       </c>
       <c r="I102" s="1">
-        <v>296377.63929999899</v>
+        <v>296176.874699999</v>
       </c>
       <c r="J102" s="1">
-        <v>3236022.0610000002</v>
+        <v>3236569.86799999</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>9</v>
@@ -4750,10 +4720,10 @@
         <v>9</v>
       </c>
       <c r="M102" s="3">
-        <v>43442</v>
+        <v>43514</v>
       </c>
       <c r="N102" s="3">
-        <v>43486</v>
+        <v>43515</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -4761,10 +4731,10 @@
         <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C103" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D103" s="1">
         <v>3</v>
@@ -4782,10 +4752,10 @@
         <v>22</v>
       </c>
       <c r="I103" s="1">
-        <v>296377.63929999899</v>
+        <v>296176.874699999</v>
       </c>
       <c r="J103" s="1">
-        <v>3236022.0610000002</v>
+        <v>3236569.86799999</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>9</v>
@@ -4794,10 +4764,10 @@
         <v>9</v>
       </c>
       <c r="M103" s="3">
-        <v>43442</v>
+        <v>43514</v>
       </c>
       <c r="N103" s="3">
-        <v>43486</v>
+        <v>43515</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -4808,7 +4778,7 @@
         <v>54</v>
       </c>
       <c r="C104" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D104" s="1">
         <v>3</v>
@@ -4840,6 +4810,9 @@
       <c r="M104" s="3">
         <v>43442</v>
       </c>
+      <c r="N104" s="3">
+        <v>43486</v>
+      </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -4849,7 +4822,7 @@
         <v>54</v>
       </c>
       <c r="C105" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D105" s="1">
         <v>3</v>
@@ -4861,16 +4834,16 @@
         <v>49</v>
       </c>
       <c r="G105" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H105" s="1">
         <v>22</v>
       </c>
       <c r="I105" s="1">
-        <v>296388.02639999898</v>
+        <v>296377.63929999899</v>
       </c>
       <c r="J105" s="1">
-        <v>3236002.7</v>
+        <v>3236022.0610000002</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>9</v>
@@ -4879,6 +4852,9 @@
         <v>9</v>
       </c>
       <c r="M105" s="3">
+        <v>43442</v>
+      </c>
+      <c r="N105" s="3">
         <v>43486</v>
       </c>
     </row>
@@ -4890,7 +4866,7 @@
         <v>54</v>
       </c>
       <c r="C106" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D106" s="1">
         <v>3</v>
@@ -4902,16 +4878,16 @@
         <v>49</v>
       </c>
       <c r="G106" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H106" s="1">
         <v>22</v>
       </c>
       <c r="I106" s="1">
-        <v>296388.02639999898</v>
+        <v>296377.63929999899</v>
       </c>
       <c r="J106" s="1">
-        <v>3236002.7</v>
+        <v>3236022.0610000002</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>9</v>
@@ -4920,6 +4896,9 @@
         <v>9</v>
       </c>
       <c r="M106" s="3">
+        <v>43442</v>
+      </c>
+      <c r="N106" s="3">
         <v>43486</v>
       </c>
     </row>
@@ -4931,7 +4910,7 @@
         <v>54</v>
       </c>
       <c r="C107" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D107" s="1">
         <v>3</v>
@@ -4943,16 +4922,16 @@
         <v>49</v>
       </c>
       <c r="G107" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H107" s="1">
         <v>22</v>
       </c>
       <c r="I107" s="1">
-        <v>296388.02639999898</v>
+        <v>296377.63929999899</v>
       </c>
       <c r="J107" s="1">
-        <v>3236002.7</v>
+        <v>3236022.0610000002</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>9</v>
@@ -4961,6 +4940,9 @@
         <v>9</v>
       </c>
       <c r="M107" s="3">
+        <v>43442</v>
+      </c>
+      <c r="N107" s="3">
         <v>43486</v>
       </c>
     </row>
@@ -4972,7 +4954,7 @@
         <v>54</v>
       </c>
       <c r="C108" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D108" s="1">
         <v>3</v>
@@ -4984,22 +4966,25 @@
         <v>49</v>
       </c>
       <c r="G108" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H108" s="1">
         <v>22</v>
       </c>
       <c r="I108" s="1">
-        <v>296388.02639999898</v>
+        <v>296377.63929999899</v>
       </c>
       <c r="J108" s="1">
-        <v>3236002.7</v>
+        <v>3236022.0610000002</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M108" s="3">
+        <v>43442</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -5007,10 +4992,10 @@
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C109" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D109" s="1">
         <v>3</v>
@@ -5022,16 +5007,16 @@
         <v>49</v>
       </c>
       <c r="G109" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H109" s="1">
         <v>22</v>
       </c>
       <c r="I109" s="1">
-        <v>296525.8751</v>
+        <v>296388.02639999898</v>
       </c>
       <c r="J109" s="1">
-        <v>3235705.75999999</v>
+        <v>3236002.7</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>9</v>
@@ -5040,10 +5025,7 @@
         <v>9</v>
       </c>
       <c r="M109" s="3">
-        <v>43487</v>
-      </c>
-      <c r="N109" s="3">
-        <v>43487</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -5051,10 +5033,10 @@
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C110" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D110" s="1">
         <v>3</v>
@@ -5066,16 +5048,16 @@
         <v>49</v>
       </c>
       <c r="G110" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H110" s="1">
         <v>22</v>
       </c>
       <c r="I110" s="1">
-        <v>296525.8751</v>
+        <v>296388.02639999898</v>
       </c>
       <c r="J110" s="1">
-        <v>3235705.75999999</v>
+        <v>3236002.7</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>9</v>
@@ -5084,10 +5066,7 @@
         <v>9</v>
       </c>
       <c r="M110" s="3">
-        <v>43487</v>
-      </c>
-      <c r="N110" s="3">
-        <v>43487</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -5095,10 +5074,10 @@
         <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C111" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D111" s="1">
         <v>3</v>
@@ -5110,16 +5089,16 @@
         <v>49</v>
       </c>
       <c r="G111" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H111" s="1">
         <v>22</v>
       </c>
       <c r="I111" s="1">
-        <v>296525.8751</v>
+        <v>296388.02639999898</v>
       </c>
       <c r="J111" s="1">
-        <v>3235705.75999999</v>
+        <v>3236002.7</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>9</v>
@@ -5128,10 +5107,7 @@
         <v>9</v>
       </c>
       <c r="M111" s="3">
-        <v>43487</v>
-      </c>
-      <c r="N111" s="3">
-        <v>43487</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -5139,10 +5115,10 @@
         <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C112" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D112" s="1">
         <v>3</v>
@@ -5154,28 +5130,22 @@
         <v>49</v>
       </c>
       <c r="G112" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H112" s="1">
         <v>22</v>
       </c>
       <c r="I112" s="1">
-        <v>296574.42709999898</v>
+        <v>296388.02639999898</v>
       </c>
       <c r="J112" s="1">
-        <v>3235607.21199999</v>
+        <v>3236002.7</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M112" s="3">
-        <v>43487</v>
-      </c>
-      <c r="N112" s="3">
-        <v>43487</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -5186,7 +5156,7 @@
         <v>55</v>
       </c>
       <c r="C113" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D113" s="1">
         <v>3</v>
@@ -5204,10 +5174,10 @@
         <v>22</v>
       </c>
       <c r="I113" s="1">
-        <v>296574.42709999898</v>
+        <v>296525.8751</v>
       </c>
       <c r="J113" s="1">
-        <v>3235607.21199999</v>
+        <v>3235705.75999999</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>9</v>
@@ -5230,7 +5200,7 @@
         <v>55</v>
       </c>
       <c r="C114" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D114" s="1">
         <v>3</v>
@@ -5248,10 +5218,10 @@
         <v>22</v>
       </c>
       <c r="I114" s="1">
-        <v>296574.42709999898</v>
+        <v>296525.8751</v>
       </c>
       <c r="J114" s="1">
-        <v>3235607.21199999</v>
+        <v>3235705.75999999</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>9</v>
@@ -5271,31 +5241,31 @@
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C115" s="1">
-        <v>1</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="G115" s="1">
+        <v>3</v>
+      </c>
+      <c r="H115" s="1">
+        <v>22</v>
       </c>
       <c r="I115" s="1">
-        <v>298132.23670000001</v>
+        <v>296525.8751</v>
       </c>
       <c r="J115" s="1">
-        <v>3238415.6540999901</v>
+        <v>3235705.75999999</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>9</v>
@@ -5304,10 +5274,10 @@
         <v>9</v>
       </c>
       <c r="M115" s="3">
-        <v>43432</v>
+        <v>43487</v>
       </c>
       <c r="N115" s="3">
-        <v>43456</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -5315,31 +5285,31 @@
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C116" s="1">
-        <v>1</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D116" s="1">
+        <v>3</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="G116" s="1">
+        <v>3</v>
+      </c>
+      <c r="H116" s="1">
+        <v>22</v>
       </c>
       <c r="I116" s="1">
-        <v>298242.70030000003</v>
+        <v>296574.42709999898</v>
       </c>
       <c r="J116" s="1">
-        <v>3238323.5599000002</v>
+        <v>3235607.21199999</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>9</v>
@@ -5348,10 +5318,10 @@
         <v>9</v>
       </c>
       <c r="M116" s="3">
-        <v>43432</v>
+        <v>43487</v>
       </c>
       <c r="N116" s="3">
-        <v>43457</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -5359,31 +5329,31 @@
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C117" s="1">
-        <v>1</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D117" s="1">
+        <v>3</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="G117" s="1">
+        <v>3</v>
+      </c>
+      <c r="H117" s="1">
+        <v>22</v>
       </c>
       <c r="I117" s="1">
-        <v>298340.15010000003</v>
+        <v>296574.42709999898</v>
       </c>
       <c r="J117" s="1">
-        <v>3238402.3242000001</v>
+        <v>3235607.21199999</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>9</v>
@@ -5392,10 +5362,10 @@
         <v>9</v>
       </c>
       <c r="M117" s="3">
-        <v>43432</v>
+        <v>43487</v>
       </c>
       <c r="N117" s="3">
-        <v>43457</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -5403,31 +5373,31 @@
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C118" s="1">
-        <v>1</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="G118" s="1">
+        <v>3</v>
+      </c>
+      <c r="H118" s="1">
+        <v>22</v>
       </c>
       <c r="I118" s="1">
-        <v>298294.44329999899</v>
+        <v>296574.42709999898</v>
       </c>
       <c r="J118" s="1">
-        <v>3238522.3177</v>
+        <v>3235607.21199999</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>9</v>
@@ -5436,10 +5406,10 @@
         <v>9</v>
       </c>
       <c r="M118" s="3">
-        <v>43432</v>
+        <v>43487</v>
       </c>
       <c r="N118" s="3">
-        <v>43456</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -5447,13 +5417,13 @@
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
       </c>
-      <c r="D119" s="1">
-        <v>3</v>
+      <c r="D119" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>8</v>
@@ -5464,23 +5434,23 @@
       <c r="G119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H119" s="1">
-        <v>24.79189513</v>
+      <c r="H119" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I119" s="1">
-        <v>298225.02500000002</v>
+        <v>298132.23670000001</v>
       </c>
       <c r="J119" s="1">
-        <v>3238535.733</v>
-      </c>
-      <c r="K119" s="1">
-        <v>298249.81689999899</v>
-      </c>
-      <c r="L119" s="1">
-        <v>3238535.733</v>
+        <v>3238415.6540999901</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M119" s="3">
-        <v>43429</v>
+        <v>43432</v>
       </c>
       <c r="N119" s="3">
         <v>43456</v>
@@ -5491,13 +5461,13 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C120" s="1">
-        <v>2</v>
-      </c>
-      <c r="D120" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>8</v>
@@ -5508,26 +5478,26 @@
       <c r="G120" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H120" s="1">
-        <v>22.960727330000001</v>
+      <c r="H120" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I120" s="1">
-        <v>298229.22509999899</v>
+        <v>298242.70030000003</v>
       </c>
       <c r="J120" s="1">
-        <v>3238527.733</v>
-      </c>
-      <c r="K120" s="1">
-        <v>298252.18579999899</v>
-      </c>
-      <c r="L120" s="1">
-        <v>3238527.733</v>
+        <v>3238323.5599000002</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M120" s="3">
-        <v>43429</v>
+        <v>43432</v>
       </c>
       <c r="N120" s="3">
-        <v>43456</v>
+        <v>43457</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -5535,13 +5505,13 @@
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
       </c>
-      <c r="D121" s="1">
-        <v>3</v>
+      <c r="D121" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>8</v>
@@ -5552,26 +5522,26 @@
       <c r="G121" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H121" s="1">
-        <v>25.006205810000001</v>
+      <c r="H121" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I121" s="1">
-        <v>298208.204399999</v>
+        <v>298340.15010000003</v>
       </c>
       <c r="J121" s="1">
-        <v>3238507.733</v>
-      </c>
-      <c r="K121" s="1">
-        <v>298233.210599999</v>
-      </c>
-      <c r="L121" s="1">
-        <v>3238507.733</v>
+        <v>3238402.3242000001</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M121" s="3">
-        <v>43429</v>
+        <v>43432</v>
       </c>
       <c r="N121" s="3">
-        <v>43456</v>
+        <v>43457</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -5579,13 +5549,13 @@
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
       </c>
-      <c r="D122" s="1">
-        <v>3</v>
+      <c r="D122" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>8</v>
@@ -5596,26 +5566,26 @@
       <c r="G122" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="1">
-        <v>19.462796910000002</v>
+      <c r="H122" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I122" s="1">
-        <v>298530.048899999</v>
+        <v>298294.44329999899</v>
       </c>
       <c r="J122" s="1">
-        <v>3237227.733</v>
-      </c>
-      <c r="K122" s="1">
-        <v>298549.51160000003</v>
-      </c>
-      <c r="L122" s="1">
-        <v>3237227.733</v>
+        <v>3238522.3177</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M122" s="3">
-        <v>43470</v>
+        <v>43432</v>
       </c>
       <c r="N122" s="3">
-        <v>43470</v>
+        <v>43456</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -5623,13 +5593,13 @@
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>7</v>
+      <c r="D123" s="1">
+        <v>3</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>8</v>
@@ -5640,26 +5610,26 @@
       <c r="G123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>9</v>
+      <c r="H123" s="1">
+        <v>24.79189513</v>
       </c>
       <c r="I123" s="1">
-        <v>298480.58419999899</v>
+        <v>298225.02500000002</v>
       </c>
       <c r="J123" s="1">
-        <v>3237712.7853999902</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>9</v>
+        <v>3238535.733</v>
+      </c>
+      <c r="K123" s="1">
+        <v>298249.81689999899</v>
+      </c>
+      <c r="L123" s="1">
+        <v>3238535.733</v>
       </c>
       <c r="M123" s="3">
-        <v>43457</v>
+        <v>43429</v>
       </c>
       <c r="N123" s="3">
-        <v>43457</v>
+        <v>43456</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
@@ -5667,10 +5637,10 @@
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C124" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" s="1">
         <v>3</v>
@@ -5685,25 +5655,25 @@
         <v>9</v>
       </c>
       <c r="H124" s="1">
-        <v>20.600858209999899</v>
+        <v>22.960727330000001</v>
       </c>
       <c r="I124" s="1">
-        <v>298424.4375</v>
+        <v>298229.22509999899</v>
       </c>
       <c r="J124" s="1">
-        <v>3237687.6499999901</v>
+        <v>3238527.733</v>
       </c>
       <c r="K124" s="1">
-        <v>298424.4375</v>
+        <v>298252.18579999899</v>
       </c>
       <c r="L124" s="1">
-        <v>3237708.2510000002</v>
+        <v>3238527.733</v>
       </c>
       <c r="M124" s="3">
-        <v>43457</v>
+        <v>43429</v>
       </c>
       <c r="N124" s="3">
-        <v>43457</v>
+        <v>43456</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -5711,10 +5681,10 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C125" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" s="1">
         <v>3</v>
@@ -5729,25 +5699,25 @@
         <v>9</v>
       </c>
       <c r="H125" s="1">
-        <v>22.309022290000001</v>
+        <v>25.006205810000001</v>
       </c>
       <c r="I125" s="1">
-        <v>298408.66950000002</v>
+        <v>298208.204399999</v>
       </c>
       <c r="J125" s="1">
-        <v>3237701.733</v>
+        <v>3238507.733</v>
       </c>
       <c r="K125" s="1">
-        <v>298430.97850000003</v>
+        <v>298233.210599999</v>
       </c>
       <c r="L125" s="1">
-        <v>3237701.733</v>
+        <v>3238507.733</v>
       </c>
       <c r="M125" s="3">
-        <v>43457</v>
+        <v>43429</v>
       </c>
       <c r="N125" s="3">
-        <v>43457</v>
+        <v>43456</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -5755,42 +5725,218 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>3</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" s="1">
+        <v>19.462796910000002</v>
+      </c>
+      <c r="I126" s="1">
+        <v>298530.048899999</v>
+      </c>
+      <c r="J126" s="1">
+        <v>3237227.733</v>
+      </c>
+      <c r="K126" s="1">
+        <v>298549.51160000003</v>
+      </c>
+      <c r="L126" s="1">
+        <v>3237227.733</v>
+      </c>
+      <c r="M126" s="3">
+        <v>43470</v>
+      </c>
+      <c r="N126" s="3">
+        <v>43470</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I127" s="1">
+        <v>298480.58419999899</v>
+      </c>
+      <c r="J127" s="1">
+        <v>3237712.7853999902</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M127" s="3">
+        <v>43457</v>
+      </c>
+      <c r="N127" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>3</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="1">
+        <v>20.600858209999899</v>
+      </c>
+      <c r="I128" s="1">
+        <v>298424.4375</v>
+      </c>
+      <c r="J128" s="1">
+        <v>3237687.6499999901</v>
+      </c>
+      <c r="K128" s="1">
+        <v>298424.4375</v>
+      </c>
+      <c r="L128" s="1">
+        <v>3237708.2510000002</v>
+      </c>
+      <c r="M128" s="3">
+        <v>43457</v>
+      </c>
+      <c r="N128" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129" s="1">
+        <v>22.309022290000001</v>
+      </c>
+      <c r="I129" s="1">
+        <v>298408.66950000002</v>
+      </c>
+      <c r="J129" s="1">
+        <v>3237701.733</v>
+      </c>
+      <c r="K129" s="1">
+        <v>298430.97850000003</v>
+      </c>
+      <c r="L129" s="1">
+        <v>3237701.733</v>
+      </c>
+      <c r="M129" s="3">
+        <v>43457</v>
+      </c>
+      <c r="N129" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>2</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C126" s="1">
-        <v>1</v>
-      </c>
-      <c r="D126" s="1">
-        <v>3</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H126" s="1">
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>3</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H130" s="1">
         <v>13.07784964</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I130" s="1">
         <v>298554.4375</v>
       </c>
-      <c r="J126" s="1">
+      <c r="J130" s="1">
         <v>3237797.60399999</v>
       </c>
-      <c r="K126" s="1">
+      <c r="K130" s="1">
         <v>298554.4375</v>
       </c>
-      <c r="L126" s="1">
+      <c r="L130" s="1">
         <v>3237810.682</v>
       </c>
-      <c r="M126" s="3">
+      <c r="M130" s="3">
         <v>43457</v>
       </c>
-      <c r="N126" s="3">
+      <c r="N130" s="3">
         <v>43457</v>
       </c>
     </row>
@@ -5802,10 +5948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6453,6 +6599,254 @@
         <v>101</v>
       </c>
     </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>43500</v>
+      </c>
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>43500</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>43500</v>
+      </c>
+      <c r="B83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>43501</v>
+      </c>
+      <c r="B84" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>43501</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>43501</v>
+      </c>
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>43502</v>
+      </c>
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>43502</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>43502</v>
+      </c>
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>43503</v>
+      </c>
+      <c r="B90" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>43503</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>43503</v>
+      </c>
+      <c r="B92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>43503</v>
+      </c>
+      <c r="B93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B97" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>43514</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>43515</v>
+      </c>
+      <c r="B99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>43515</v>
+      </c>
+      <c r="B100" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>43515</v>
+      </c>
+      <c r="B101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>43515</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>43515</v>
+      </c>
+      <c r="B103" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>43516</v>
+      </c>
+      <c r="B104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>43516</v>
+      </c>
+      <c r="B105" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>43516</v>
+      </c>
+      <c r="B106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>43516</v>
+      </c>
+      <c r="B107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>43517</v>
+      </c>
+      <c r="B108" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>43517</v>
+      </c>
+      <c r="B109" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>43517</v>
+      </c>
+      <c r="B110" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>43517</v>
+      </c>
+      <c r="B111" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="109">
   <si>
     <t>STATION</t>
   </si>
@@ -685,11 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O130"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V107" sqref="V107"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -749,42 +749,57 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>3</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>297465.11080000002</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3239361.2439000001</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="M2" s="3">
-        <v>43411</v>
+        <v>43432</v>
       </c>
       <c r="N2" s="3">
-        <v>43411</v>
+        <v>43442</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -793,27 +808,42 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H3" s="1">
+        <v>27.26635533</v>
+      </c>
+      <c r="I3" s="1">
+        <v>297606.4375</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3239498.2239999902</v>
+      </c>
+      <c r="K3" s="1">
+        <v>297606.4375</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3239525.49</v>
+      </c>
       <c r="M3" s="3">
-        <v>43411</v>
+        <v>43432</v>
       </c>
       <c r="N3" s="3">
-        <v>43411</v>
+        <v>43441</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -822,27 +852,42 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H4" s="1">
+        <v>21.53199905</v>
+      </c>
+      <c r="I4" s="1">
+        <v>297613.21350000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3239489.733</v>
+      </c>
+      <c r="K4" s="1">
+        <v>297634.74550000002</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3239489.733</v>
+      </c>
       <c r="M4" s="3">
-        <v>43411</v>
+        <v>43432</v>
       </c>
       <c r="N4" s="3">
-        <v>43411</v>
+        <v>43441</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -851,27 +896,42 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H5" s="1">
+        <v>26.83298224</v>
+      </c>
+      <c r="I5" s="1">
+        <v>297703.15509999898</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3239359.733</v>
+      </c>
+      <c r="K5" s="1">
+        <v>297729.98810000002</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3239359.733</v>
+      </c>
       <c r="M5" s="3">
-        <v>43411</v>
+        <v>43432</v>
       </c>
       <c r="N5" s="3">
-        <v>43412</v>
+        <v>43441</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -880,27 +940,42 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H6" s="1">
+        <v>25.37252303</v>
+      </c>
+      <c r="I6" s="1">
+        <v>297638.4375</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3239381.7620000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>297638.4375</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3239407.1340000001</v>
+      </c>
       <c r="M6" s="3">
-        <v>43411</v>
+        <v>43432</v>
       </c>
       <c r="N6" s="3">
-        <v>43412</v>
+        <v>43441</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -909,27 +984,42 @@
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H7" s="1">
+        <v>40.0598998299999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>297488.008299999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3239005.733</v>
+      </c>
+      <c r="K7" s="1">
+        <v>297528.06819999899</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3239005.733</v>
+      </c>
       <c r="M7" s="3">
-        <v>43411</v>
+        <v>43432</v>
       </c>
       <c r="N7" s="3">
-        <v>43412</v>
+        <v>43442</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -938,27 +1028,42 @@
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H8" s="1">
+        <v>28.339651920000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>297563.91320000001</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3239127.733</v>
+      </c>
+      <c r="K8" s="1">
+        <v>297592.25280000002</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3239127.733</v>
+      </c>
       <c r="M8" s="3">
-        <v>43411</v>
+        <v>43432</v>
       </c>
       <c r="N8" s="3">
-        <v>43412</v>
+        <v>43442</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -967,27 +1072,42 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H9" s="1">
+        <v>56.13767945</v>
+      </c>
+      <c r="I9" s="1">
+        <v>297831.8798</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3239179.733</v>
+      </c>
+      <c r="K9" s="1">
+        <v>297888.01750000002</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3239179.733</v>
+      </c>
       <c r="M9" s="3">
-        <v>43411</v>
+        <v>43432</v>
       </c>
       <c r="N9" s="3">
-        <v>43412</v>
+        <v>43456</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -996,27 +1116,42 @@
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H10" s="1">
+        <v>38.2753941</v>
+      </c>
+      <c r="I10" s="1">
+        <v>297870.4375</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3239165.327</v>
+      </c>
+      <c r="K10" s="1">
+        <v>297870.4375</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3239203.602</v>
+      </c>
       <c r="M10" s="3">
-        <v>43411</v>
+        <v>43432</v>
       </c>
       <c r="N10" s="3">
-        <v>43413</v>
+        <v>43456</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -1025,56 +1160,86 @@
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H11" s="1">
+        <v>14.8970371099999</v>
+      </c>
+      <c r="I11" s="1">
+        <v>297802.4375</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3239153.1860000002</v>
+      </c>
+      <c r="K11" s="1">
+        <v>297802.4375</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3239168.0830000001</v>
+      </c>
       <c r="M11" s="3">
-        <v>43411</v>
+        <v>43432</v>
       </c>
       <c r="N11" s="3">
-        <v>43413</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H12" s="1">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1">
+        <v>299282</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3235919</v>
+      </c>
+      <c r="K12" s="1">
+        <v>299277</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3235930</v>
+      </c>
       <c r="M12" s="3">
-        <v>43412</v>
+        <v>43429</v>
       </c>
       <c r="N12" s="3">
-        <v>43413</v>
+        <v>43502</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -1083,190 +1248,295 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H13" s="1">
+        <v>27.316264990000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>299312.4375</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3235910.946</v>
+      </c>
+      <c r="K13" s="1">
+        <v>299312.4375</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3235938.2620000001</v>
+      </c>
       <c r="M13" s="3">
-        <v>43412</v>
+        <v>43429</v>
       </c>
       <c r="N13" s="3">
-        <v>43413</v>
+        <v>43502</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H14" s="1">
+        <v>20.20351222</v>
+      </c>
+      <c r="I14" s="1">
+        <v>298626.4375</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3236014.966</v>
+      </c>
+      <c r="K14" s="1">
+        <v>298626.4375</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3236035.1699999901</v>
+      </c>
       <c r="M14" s="3">
-        <v>43412</v>
+        <v>43502</v>
       </c>
       <c r="N14" s="3">
-        <v>43413</v>
+        <v>43502</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H15" s="1">
+        <v>27.53043723</v>
+      </c>
+      <c r="I15" s="1">
+        <v>298612.4375</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3236001.8760000002</v>
+      </c>
+      <c r="K15" s="1">
+        <v>298612.4375</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3236029.4070000001</v>
+      </c>
       <c r="M15" s="3">
-        <v>43412</v>
+        <v>43502</v>
       </c>
       <c r="N15" s="3">
-        <v>43431</v>
+        <v>43502</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H16" s="1">
+        <v>12.723409520000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>298326.4375</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3236013.0010000002</v>
+      </c>
+      <c r="K16" s="1">
+        <v>298326.4375</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3236025.7239999902</v>
+      </c>
       <c r="M16" s="3">
-        <v>43412</v>
+        <v>43502</v>
       </c>
       <c r="N16" s="3">
-        <v>43431</v>
+        <v>43502</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H17" s="1">
+        <v>41.928492939999899</v>
+      </c>
+      <c r="I17" s="1">
+        <v>298200.20659999899</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3236057.733</v>
+      </c>
+      <c r="K17" s="1">
+        <v>298242.13510000001</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3236057.733</v>
+      </c>
       <c r="M17" s="3">
-        <v>43412</v>
+        <v>43501</v>
       </c>
       <c r="N17" s="3">
-        <v>43431</v>
+        <v>43501</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H18" s="1">
+        <v>22.133418750000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>298178.4375</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3235865.0989999902</v>
+      </c>
+      <c r="K18" s="1">
+        <v>298178.4375</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3235887.2319999901</v>
+      </c>
       <c r="M18" s="3">
-        <v>43412</v>
+        <v>43487</v>
       </c>
       <c r="N18" s="3">
-        <v>43431</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H19" s="1">
+        <v>89.511496100000002</v>
+      </c>
+      <c r="I19" s="1">
+        <v>298072.27480000001</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3235857.733</v>
+      </c>
+      <c r="K19" s="1">
+        <v>298161.78629999899</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3235857.733</v>
+      </c>
       <c r="M19" s="3">
-        <v>43412</v>
+        <v>43487</v>
       </c>
       <c r="N19" s="3">
-        <v>43431</v>
+        <v>43487</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1274,16 +1544,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
+      <c r="D20" s="1">
+        <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -1291,26 +1561,26 @@
       <c r="G20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>9</v>
+      <c r="H20" s="1">
+        <v>26.451220030000002</v>
       </c>
       <c r="I20" s="1">
-        <v>297465.11080000002</v>
+        <v>298230.4375</v>
       </c>
       <c r="J20" s="1">
-        <v>3239361.2439000001</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>9</v>
+        <v>3235731.2940000002</v>
+      </c>
+      <c r="K20" s="1">
+        <v>298230.4375</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3235757.74599999</v>
       </c>
       <c r="M20" s="3">
-        <v>43432</v>
+        <v>43488</v>
       </c>
       <c r="N20" s="3">
-        <v>43442</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1318,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1327,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
@@ -1336,25 +1606,25 @@
         <v>9</v>
       </c>
       <c r="H21" s="1">
-        <v>27.26635533</v>
+        <v>20.460927040000001</v>
       </c>
       <c r="I21" s="1">
-        <v>297606.4375</v>
+        <v>298364.913999999</v>
       </c>
       <c r="J21" s="1">
-        <v>3239498.2239999902</v>
+        <v>3235645.733</v>
       </c>
       <c r="K21" s="1">
-        <v>297606.4375</v>
+        <v>298385.3749</v>
       </c>
       <c r="L21" s="1">
-        <v>3239525.49</v>
+        <v>3235645.733</v>
       </c>
       <c r="M21" s="3">
-        <v>43432</v>
+        <v>43488</v>
       </c>
       <c r="N21" s="3">
-        <v>43441</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1362,16 +1632,16 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -1380,25 +1650,25 @@
         <v>9</v>
       </c>
       <c r="H22" s="1">
-        <v>21.53199905</v>
+        <v>13.430629980000001</v>
       </c>
       <c r="I22" s="1">
-        <v>297613.21350000001</v>
+        <v>298536.25319999899</v>
       </c>
       <c r="J22" s="1">
-        <v>3239489.733</v>
+        <v>3235407.733</v>
       </c>
       <c r="K22" s="1">
-        <v>297634.74550000002</v>
+        <v>298549.6838</v>
       </c>
       <c r="L22" s="1">
-        <v>3239489.733</v>
+        <v>3235407.733</v>
       </c>
       <c r="M22" s="3">
-        <v>43432</v>
+        <v>43500</v>
       </c>
       <c r="N22" s="3">
-        <v>43441</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1406,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1415,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>9</v>
@@ -1424,25 +1694,25 @@
         <v>9</v>
       </c>
       <c r="H23" s="1">
-        <v>26.83298224</v>
+        <v>17.3951081999999</v>
       </c>
       <c r="I23" s="1">
-        <v>297703.15509999898</v>
+        <v>298242.4375</v>
       </c>
       <c r="J23" s="1">
-        <v>3239359.733</v>
+        <v>3235223.8280000002</v>
       </c>
       <c r="K23" s="1">
-        <v>297729.98810000002</v>
+        <v>298242.4375</v>
       </c>
       <c r="L23" s="1">
-        <v>3239359.733</v>
+        <v>3235241.2230000002</v>
       </c>
       <c r="M23" s="3">
-        <v>43432</v>
+        <v>43500</v>
       </c>
       <c r="N23" s="3">
-        <v>43441</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1450,16 +1720,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>9</v>
@@ -1468,25 +1738,25 @@
         <v>9</v>
       </c>
       <c r="H24" s="1">
-        <v>25.37252303</v>
+        <v>29.653190290000001</v>
       </c>
       <c r="I24" s="1">
-        <v>297638.4375</v>
+        <v>298339.47320000001</v>
       </c>
       <c r="J24" s="1">
-        <v>3239381.7620000001</v>
+        <v>3235185.733</v>
       </c>
       <c r="K24" s="1">
-        <v>297638.4375</v>
+        <v>298369.1263</v>
       </c>
       <c r="L24" s="1">
-        <v>3239407.1340000001</v>
+        <v>3235185.733</v>
       </c>
       <c r="M24" s="3">
-        <v>43432</v>
+        <v>43502</v>
       </c>
       <c r="N24" s="3">
-        <v>43441</v>
+        <v>43502</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1494,16 +1764,16 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>9</v>
@@ -1512,25 +1782,25 @@
         <v>9</v>
       </c>
       <c r="H25" s="1">
-        <v>40.0598998299999</v>
+        <v>31.66703476</v>
       </c>
       <c r="I25" s="1">
-        <v>297488.008299999</v>
+        <v>298321.0491</v>
       </c>
       <c r="J25" s="1">
-        <v>3239005.733</v>
+        <v>3235215.733</v>
       </c>
       <c r="K25" s="1">
-        <v>297528.06819999899</v>
+        <v>298352.71620000002</v>
       </c>
       <c r="L25" s="1">
-        <v>3239005.733</v>
+        <v>3235215.733</v>
       </c>
       <c r="M25" s="3">
-        <v>43432</v>
+        <v>43502</v>
       </c>
       <c r="N25" s="3">
-        <v>43442</v>
+        <v>43502</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1538,16 +1808,16 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>9</v>
@@ -1556,25 +1826,25 @@
         <v>9</v>
       </c>
       <c r="H26" s="1">
-        <v>28.339651920000001</v>
+        <v>25.804812859999899</v>
       </c>
       <c r="I26" s="1">
-        <v>297563.91320000001</v>
+        <v>298352.4375</v>
       </c>
       <c r="J26" s="1">
-        <v>3239127.733</v>
+        <v>3235099.577</v>
       </c>
       <c r="K26" s="1">
-        <v>297592.25280000002</v>
+        <v>298352.4375</v>
       </c>
       <c r="L26" s="1">
-        <v>3239127.733</v>
+        <v>3235125.3820000002</v>
       </c>
       <c r="M26" s="3">
-        <v>43432</v>
+        <v>43502</v>
       </c>
       <c r="N26" s="3">
-        <v>43442</v>
+        <v>43502</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -1582,16 +1852,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>9</v>
@@ -1600,25 +1870,25 @@
         <v>9</v>
       </c>
       <c r="H27" s="1">
-        <v>56.13767945</v>
+        <v>22.5</v>
       </c>
       <c r="I27" s="1">
-        <v>297831.8798</v>
+        <v>298841</v>
       </c>
       <c r="J27" s="1">
-        <v>3239179.733</v>
+        <v>3235773</v>
       </c>
       <c r="K27" s="1">
-        <v>297888.01750000002</v>
+        <v>298860</v>
       </c>
       <c r="L27" s="1">
-        <v>3239179.733</v>
+        <v>3235763</v>
       </c>
       <c r="M27" s="3">
-        <v>43432</v>
+        <v>43429</v>
       </c>
       <c r="N27" s="3">
-        <v>43456</v>
+        <v>43503</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -1626,16 +1896,16 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>9</v>
@@ -1644,25 +1914,25 @@
         <v>9</v>
       </c>
       <c r="H28" s="1">
-        <v>38.2753941</v>
+        <v>24</v>
       </c>
       <c r="I28" s="1">
-        <v>297870.4375</v>
+        <v>298763</v>
       </c>
       <c r="J28" s="1">
-        <v>3239165.327</v>
+        <v>3235642</v>
       </c>
       <c r="K28" s="1">
-        <v>297870.4375</v>
+        <v>298749</v>
       </c>
       <c r="L28" s="1">
-        <v>3239203.602</v>
+        <v>3235624</v>
       </c>
       <c r="M28" s="3">
-        <v>43432</v>
+        <v>43429</v>
       </c>
       <c r="N28" s="3">
-        <v>43456</v>
+        <v>43503</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -1670,16 +1940,16 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="1">
-        <v>3</v>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>9</v>
@@ -1687,26 +1957,26 @@
       <c r="G29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="1">
-        <v>14.8970371099999</v>
+      <c r="H29" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I29" s="1">
-        <v>297802.4375</v>
+        <v>298317.06650000002</v>
       </c>
       <c r="J29" s="1">
-        <v>3239153.1860000002</v>
-      </c>
-      <c r="K29" s="1">
-        <v>297802.4375</v>
-      </c>
-      <c r="L29" s="1">
-        <v>3239168.0830000001</v>
+        <v>3235752.86469999</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M29" s="3">
-        <v>43432</v>
+        <v>43488</v>
       </c>
       <c r="N29" s="3">
-        <v>43470</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -1714,16 +1984,16 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>9</v>
@@ -1731,26 +2001,26 @@
       <c r="G30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="1">
-        <v>20</v>
+      <c r="H30" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I30" s="1">
-        <v>299282</v>
+        <v>298712.76539999899</v>
       </c>
       <c r="J30" s="1">
-        <v>3235919</v>
-      </c>
-      <c r="K30" s="1">
-        <v>299277</v>
-      </c>
-      <c r="L30" s="1">
-        <v>3235930</v>
+        <v>3235924.4775999901</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M30" s="3">
-        <v>43429</v>
+        <v>43488</v>
       </c>
       <c r="N30" s="3">
-        <v>43502</v>
+        <v>43503</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1758,16 +2028,16 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>
@@ -1775,26 +2045,26 @@
       <c r="G31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="1">
-        <v>27.316264990000001</v>
+      <c r="H31" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I31" s="1">
-        <v>299312.4375</v>
+        <v>298843.08120000002</v>
       </c>
       <c r="J31" s="1">
-        <v>3235910.946</v>
-      </c>
-      <c r="K31" s="1">
-        <v>299312.4375</v>
-      </c>
-      <c r="L31" s="1">
-        <v>3235938.2620000001</v>
+        <v>3235996.7908000001</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M31" s="3">
         <v>43429</v>
       </c>
       <c r="N31" s="3">
-        <v>43502</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -1802,16 +2072,16 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>9</v>
@@ -1820,19 +2090,19 @@
         <v>9</v>
       </c>
       <c r="H32" s="1">
-        <v>22.5</v>
+        <v>21.6661538</v>
       </c>
       <c r="I32" s="1">
-        <v>298841</v>
+        <v>299137.57679999899</v>
       </c>
       <c r="J32" s="1">
-        <v>3235773</v>
+        <v>3235589.733</v>
       </c>
       <c r="K32" s="1">
-        <v>298860</v>
+        <v>299159.24300000002</v>
       </c>
       <c r="L32" s="1">
-        <v>3235763</v>
+        <v>3235589.733</v>
       </c>
       <c r="M32" s="3">
         <v>43429</v>
@@ -1846,13 +2116,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>17</v>
@@ -1864,25 +2134,25 @@
         <v>9</v>
       </c>
       <c r="H33" s="1">
-        <v>24</v>
+        <v>19.31462196</v>
       </c>
       <c r="I33" s="1">
-        <v>298763</v>
+        <v>298844.4375</v>
       </c>
       <c r="J33" s="1">
-        <v>3235642</v>
+        <v>3236099.2170000002</v>
       </c>
       <c r="K33" s="1">
-        <v>298749</v>
+        <v>298844.4375</v>
       </c>
       <c r="L33" s="1">
-        <v>3235624</v>
+        <v>3236118.531</v>
       </c>
       <c r="M33" s="3">
         <v>43429</v>
       </c>
       <c r="N33" s="3">
-        <v>43503</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -1890,13 +2160,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
+      <c r="D34" s="1">
+        <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>17</v>
@@ -1907,26 +2177,26 @@
       <c r="G34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>9</v>
+      <c r="H34" s="1">
+        <v>22.3871290599999</v>
       </c>
       <c r="I34" s="1">
-        <v>298317.06650000002</v>
+        <v>298690.4375</v>
       </c>
       <c r="J34" s="1">
-        <v>3235752.86469999</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>9</v>
+        <v>3236231.12</v>
+      </c>
+      <c r="K34" s="1">
+        <v>298690.4375</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3236253.5070000002</v>
       </c>
       <c r="M34" s="3">
-        <v>43488</v>
+        <v>43429</v>
       </c>
       <c r="N34" s="3">
-        <v>43488</v>
+        <v>43503</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -1934,13 +2204,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
+      <c r="D35" s="1">
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>17</v>
@@ -1951,23 +2221,23 @@
       <c r="G35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>9</v>
+      <c r="H35" s="1">
+        <v>32.5</v>
       </c>
       <c r="I35" s="1">
-        <v>298712.76539999899</v>
+        <v>298380</v>
       </c>
       <c r="J35" s="1">
-        <v>3235924.4775999901</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>9</v>
+        <v>3236557</v>
+      </c>
+      <c r="K35" s="1">
+        <v>298375</v>
+      </c>
+      <c r="L35" s="1">
+        <v>3236545</v>
       </c>
       <c r="M35" s="3">
-        <v>43488</v>
+        <v>43429</v>
       </c>
       <c r="N35" s="3">
         <v>43503</v>
@@ -1978,13 +2248,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
+      <c r="D36" s="1">
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>17</v>
@@ -1995,26 +2265,26 @@
       <c r="G36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>9</v>
+      <c r="H36" s="1">
+        <v>33</v>
       </c>
       <c r="I36" s="1">
-        <v>298843.08120000002</v>
+        <v>298651</v>
       </c>
       <c r="J36" s="1">
-        <v>3235996.7908000001</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>9</v>
+        <v>3236638</v>
+      </c>
+      <c r="K36" s="1">
+        <v>298658</v>
+      </c>
+      <c r="L36" s="1">
+        <v>3236649</v>
       </c>
       <c r="M36" s="3">
         <v>43429</v>
       </c>
       <c r="N36" s="3">
-        <v>43478</v>
+        <v>43503</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2022,16 +2292,16 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>9</v>
@@ -2040,19 +2310,19 @@
         <v>9</v>
       </c>
       <c r="H37" s="1">
-        <v>21.6661538</v>
+        <v>20</v>
       </c>
       <c r="I37" s="1">
-        <v>299137.57679999899</v>
+        <v>298534</v>
       </c>
       <c r="J37" s="1">
-        <v>3235589.733</v>
+        <v>3236727</v>
       </c>
       <c r="K37" s="1">
-        <v>299159.24300000002</v>
+        <v>298522</v>
       </c>
       <c r="L37" s="1">
-        <v>3235589.733</v>
+        <v>3236714</v>
       </c>
       <c r="M37" s="3">
         <v>43429</v>
@@ -2066,13 +2336,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
-      <c r="D38" s="1">
-        <v>3</v>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>17</v>
@@ -2083,26 +2353,26 @@
       <c r="G38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="1">
-        <v>19.31462196</v>
+      <c r="H38" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I38" s="1">
-        <v>298844.4375</v>
+        <v>298821.46500000003</v>
       </c>
       <c r="J38" s="1">
-        <v>3236099.2170000002</v>
-      </c>
-      <c r="K38" s="1">
-        <v>298844.4375</v>
-      </c>
-      <c r="L38" s="1">
-        <v>3236118.531</v>
+        <v>3236639.54179999</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M38" s="3">
         <v>43429</v>
       </c>
       <c r="N38" s="3">
-        <v>43478</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -2110,13 +2380,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
-      <c r="D39" s="1">
-        <v>3</v>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>17</v>
@@ -2127,26 +2397,26 @@
       <c r="G39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="1">
-        <v>22.3871290599999</v>
+      <c r="H39" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I39" s="1">
-        <v>298690.4375</v>
+        <v>298808.056099999</v>
       </c>
       <c r="J39" s="1">
-        <v>3236231.12</v>
-      </c>
-      <c r="K39" s="1">
-        <v>298690.4375</v>
-      </c>
-      <c r="L39" s="1">
-        <v>3236253.5070000002</v>
+        <v>3236766.7225000001</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M39" s="3">
         <v>43429</v>
       </c>
       <c r="N39" s="3">
-        <v>43503</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2154,13 +2424,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>17</v>
@@ -2172,25 +2442,25 @@
         <v>9</v>
       </c>
       <c r="H40" s="1">
-        <v>20.20351222</v>
+        <v>32.6</v>
       </c>
       <c r="I40" s="1">
-        <v>298626.4375</v>
+        <v>297907</v>
       </c>
       <c r="J40" s="1">
-        <v>3236014.966</v>
+        <v>3234553</v>
       </c>
       <c r="K40" s="1">
-        <v>298626.4375</v>
+        <v>297916</v>
       </c>
       <c r="L40" s="1">
-        <v>3236035.1699999901</v>
+        <v>3234583</v>
       </c>
       <c r="M40" s="3">
-        <v>43502</v>
+        <v>43487</v>
       </c>
       <c r="N40" s="3">
-        <v>43502</v>
+        <v>43488</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2198,10 +2468,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -2216,25 +2486,25 @@
         <v>9</v>
       </c>
       <c r="H41" s="1">
-        <v>27.53043723</v>
+        <v>13.574880090000001</v>
       </c>
       <c r="I41" s="1">
-        <v>298612.4375</v>
+        <v>298680.4375</v>
       </c>
       <c r="J41" s="1">
-        <v>3236001.8760000002</v>
+        <v>3236802.1669999901</v>
       </c>
       <c r="K41" s="1">
-        <v>298612.4375</v>
+        <v>298680.4375</v>
       </c>
       <c r="L41" s="1">
-        <v>3236029.4070000001</v>
+        <v>3236815.7420000001</v>
       </c>
       <c r="M41" s="3">
-        <v>43502</v>
+        <v>43429</v>
       </c>
       <c r="N41" s="3">
-        <v>43502</v>
+        <v>43503</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2242,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -2260,25 +2530,25 @@
         <v>9</v>
       </c>
       <c r="H42" s="1">
-        <v>12.723409520000001</v>
+        <v>16.160674539999899</v>
       </c>
       <c r="I42" s="1">
-        <v>298326.4375</v>
+        <v>298611.75510000001</v>
       </c>
       <c r="J42" s="1">
-        <v>3236013.0010000002</v>
+        <v>3236561.733</v>
       </c>
       <c r="K42" s="1">
-        <v>298326.4375</v>
+        <v>298627.91580000002</v>
       </c>
       <c r="L42" s="1">
-        <v>3236025.7239999902</v>
+        <v>3236561.733</v>
       </c>
       <c r="M42" s="3">
-        <v>43502</v>
+        <v>43429</v>
       </c>
       <c r="N42" s="3">
-        <v>43502</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2286,7 +2556,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -2304,33 +2574,33 @@
         <v>9</v>
       </c>
       <c r="H43" s="1">
-        <v>41.928492939999899</v>
+        <v>36</v>
       </c>
       <c r="I43" s="1">
-        <v>298200.20659999899</v>
+        <v>297281</v>
       </c>
       <c r="J43" s="1">
-        <v>3236057.733</v>
+        <v>3233308</v>
       </c>
       <c r="K43" s="1">
-        <v>298242.13510000001</v>
+        <v>297247</v>
       </c>
       <c r="L43" s="1">
-        <v>3236057.733</v>
+        <v>3233315</v>
       </c>
       <c r="M43" s="3">
-        <v>43501</v>
+        <v>43487</v>
       </c>
       <c r="N43" s="3">
-        <v>43501</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -2339,42 +2609,27 @@
         <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="1">
-        <v>22.133418750000001</v>
-      </c>
-      <c r="I44" s="1">
-        <v>298178.4375</v>
-      </c>
-      <c r="J44" s="1">
-        <v>3235865.0989999902</v>
-      </c>
-      <c r="K44" s="1">
-        <v>298178.4375</v>
-      </c>
-      <c r="L44" s="1">
-        <v>3235887.2319999901</v>
-      </c>
       <c r="M44" s="3">
-        <v>43487</v>
+        <v>43411</v>
       </c>
       <c r="N44" s="3">
-        <v>43487</v>
+        <v>43412</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
@@ -2383,174 +2638,114 @@
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="1">
-        <v>89.511496100000002</v>
-      </c>
-      <c r="I45" s="1">
-        <v>298072.27480000001</v>
-      </c>
-      <c r="J45" s="1">
-        <v>3235857.733</v>
-      </c>
-      <c r="K45" s="1">
-        <v>298161.78629999899</v>
-      </c>
-      <c r="L45" s="1">
-        <v>3235857.733</v>
-      </c>
       <c r="M45" s="3">
-        <v>43487</v>
+        <v>43411</v>
       </c>
       <c r="N45" s="3">
-        <v>43487</v>
+        <v>43412</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="1">
-        <v>26.451220030000002</v>
-      </c>
-      <c r="I46" s="1">
-        <v>298230.4375</v>
-      </c>
-      <c r="J46" s="1">
-        <v>3235731.2940000002</v>
-      </c>
-      <c r="K46" s="1">
-        <v>298230.4375</v>
-      </c>
-      <c r="L46" s="1">
-        <v>3235757.74599999</v>
-      </c>
       <c r="M46" s="3">
-        <v>43488</v>
+        <v>43411</v>
       </c>
       <c r="N46" s="3">
-        <v>43488</v>
+        <v>43412</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="1">
-        <v>20.460927040000001</v>
-      </c>
-      <c r="I47" s="1">
-        <v>298364.913999999</v>
-      </c>
-      <c r="J47" s="1">
-        <v>3235645.733</v>
-      </c>
-      <c r="K47" s="1">
-        <v>298385.3749</v>
-      </c>
-      <c r="L47" s="1">
-        <v>3235645.733</v>
-      </c>
       <c r="M47" s="3">
-        <v>43488</v>
+        <v>43411</v>
       </c>
       <c r="N47" s="3">
-        <v>43488</v>
+        <v>43413</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="1">
-        <v>13.430629980000001</v>
-      </c>
-      <c r="I48" s="1">
-        <v>298536.25319999899</v>
-      </c>
-      <c r="J48" s="1">
-        <v>3235407.733</v>
-      </c>
-      <c r="K48" s="1">
-        <v>298549.6838</v>
-      </c>
-      <c r="L48" s="1">
-        <v>3235407.733</v>
-      </c>
       <c r="M48" s="3">
-        <v>43500</v>
+        <v>43411</v>
       </c>
       <c r="N48" s="3">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -2559,438 +2754,312 @@
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
       </c>
       <c r="H49" s="1">
-        <v>17.3951081999999</v>
+        <v>22</v>
       </c>
       <c r="I49" s="1">
-        <v>298242.4375</v>
+        <v>295240.32020000002</v>
       </c>
       <c r="J49" s="1">
-        <v>3235223.8280000002</v>
-      </c>
-      <c r="K49" s="1">
-        <v>298242.4375</v>
-      </c>
-      <c r="L49" s="1">
-        <v>3235241.2230000002</v>
+        <v>3238286.6310000001</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M49" s="3">
-        <v>43500</v>
-      </c>
-      <c r="N49" s="3">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2</v>
       </c>
       <c r="H50" s="1">
-        <v>29.653190290000001</v>
+        <v>22</v>
       </c>
       <c r="I50" s="1">
-        <v>298339.47320000001</v>
+        <v>295240.32020000002</v>
       </c>
       <c r="J50" s="1">
-        <v>3235185.733</v>
-      </c>
-      <c r="K50" s="1">
-        <v>298369.1263</v>
-      </c>
-      <c r="L50" s="1">
-        <v>3235185.733</v>
+        <v>3238286.6310000001</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M50" s="3">
-        <v>43502</v>
-      </c>
-      <c r="N50" s="3">
-        <v>43502</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="1">
-        <v>31.66703476</v>
-      </c>
-      <c r="I51" s="1">
-        <v>298321.0491</v>
-      </c>
-      <c r="J51" s="1">
-        <v>3235215.733</v>
-      </c>
-      <c r="K51" s="1">
-        <v>298352.71620000002</v>
-      </c>
-      <c r="L51" s="1">
-        <v>3235215.733</v>
-      </c>
       <c r="M51" s="3">
-        <v>43502</v>
+        <v>43412</v>
       </c>
       <c r="N51" s="3">
-        <v>43502</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="1">
-        <v>25.804812859999899</v>
-      </c>
-      <c r="I52" s="1">
-        <v>298352.4375</v>
-      </c>
-      <c r="J52" s="1">
-        <v>3235099.577</v>
-      </c>
-      <c r="K52" s="1">
-        <v>298352.4375</v>
-      </c>
-      <c r="L52" s="1">
-        <v>3235125.3820000002</v>
-      </c>
       <c r="M52" s="3">
-        <v>43502</v>
+        <v>43412</v>
       </c>
       <c r="N52" s="3">
-        <v>43502</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="1">
-        <v>32.5</v>
-      </c>
-      <c r="I53" s="1">
-        <v>298380</v>
-      </c>
-      <c r="J53" s="1">
-        <v>3236557</v>
-      </c>
-      <c r="K53" s="1">
-        <v>298375</v>
-      </c>
-      <c r="L53" s="1">
-        <v>3236545</v>
-      </c>
       <c r="M53" s="3">
-        <v>43429</v>
+        <v>43412</v>
       </c>
       <c r="N53" s="3">
-        <v>43503</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="1">
-        <v>33</v>
-      </c>
-      <c r="I54" s="1">
-        <v>298651</v>
-      </c>
-      <c r="J54" s="1">
-        <v>3236638</v>
-      </c>
-      <c r="K54" s="1">
-        <v>298658</v>
-      </c>
-      <c r="L54" s="1">
-        <v>3236649</v>
-      </c>
       <c r="M54" s="3">
-        <v>43429</v>
+        <v>43412</v>
       </c>
       <c r="N54" s="3">
-        <v>43503</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H55" s="1">
-        <v>20</v>
-      </c>
-      <c r="I55" s="1">
-        <v>298534</v>
-      </c>
-      <c r="J55" s="1">
-        <v>3236727</v>
-      </c>
-      <c r="K55" s="1">
-        <v>298522</v>
-      </c>
-      <c r="L55" s="1">
-        <v>3236714</v>
-      </c>
       <c r="M55" s="3">
-        <v>43429</v>
+        <v>43412</v>
       </c>
       <c r="N55" s="3">
-        <v>43503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" s="1">
-        <v>298821.46500000003</v>
-      </c>
-      <c r="J56" s="1">
-        <v>3236639.54179999</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="M56" s="3">
-        <v>43429</v>
+        <v>43412</v>
       </c>
       <c r="N56" s="3">
-        <v>43463</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57" s="1">
-        <v>298808.056099999</v>
-      </c>
-      <c r="J57" s="1">
-        <v>3236766.7225000001</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="M57" s="3">
-        <v>43429</v>
+        <v>43412</v>
       </c>
       <c r="N57" s="3">
-        <v>43463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="1">
-        <v>32.6</v>
-      </c>
-      <c r="I58" s="1">
-        <v>297907</v>
-      </c>
-      <c r="J58" s="1">
-        <v>3234553</v>
-      </c>
-      <c r="K58" s="1">
-        <v>297916</v>
-      </c>
-      <c r="L58" s="1">
-        <v>3234583</v>
-      </c>
       <c r="M58" s="3">
-        <v>43487</v>
+        <v>43412</v>
       </c>
       <c r="N58" s="3">
-        <v>43488</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -2999,178 +3068,298 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3</v>
       </c>
       <c r="H59" s="1">
-        <v>13.574880090000001</v>
+        <v>22</v>
       </c>
       <c r="I59" s="1">
-        <v>298680.4375</v>
+        <v>295625.47989999899</v>
       </c>
       <c r="J59" s="1">
-        <v>3236802.1669999901</v>
-      </c>
-      <c r="K59" s="1">
-        <v>298680.4375</v>
-      </c>
-      <c r="L59" s="1">
-        <v>3236815.7420000001</v>
+        <v>3237836.0819999902</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M59" s="3">
-        <v>43429</v>
+        <v>43457</v>
       </c>
       <c r="N59" s="3">
-        <v>43503</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3</v>
       </c>
       <c r="H60" s="1">
-        <v>16.160674539999899</v>
+        <v>22</v>
       </c>
       <c r="I60" s="1">
-        <v>298611.75510000001</v>
+        <v>295625.47989999899</v>
       </c>
       <c r="J60" s="1">
-        <v>3236561.733</v>
-      </c>
-      <c r="K60" s="1">
-        <v>298627.91580000002</v>
-      </c>
-      <c r="L60" s="1">
-        <v>3236561.733</v>
+        <v>3237836.0819999902</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M60" s="3">
-        <v>43429</v>
+        <v>43457</v>
       </c>
       <c r="N60" s="3">
-        <v>43463</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D61" s="1">
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="G61" s="1">
+        <v>3</v>
       </c>
       <c r="H61" s="1">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I61" s="1">
-        <v>297281</v>
+        <v>295625.47989999899</v>
       </c>
       <c r="J61" s="1">
-        <v>3233308</v>
-      </c>
-      <c r="K61" s="1">
-        <v>297247</v>
-      </c>
-      <c r="L61" s="1">
-        <v>3233315</v>
+        <v>3237836.0819999902</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M61" s="3">
-        <v>43487</v>
+        <v>43457</v>
       </c>
       <c r="N61" s="3">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
       <c r="B62" s="1" t="s">
-        <v>104</v>
+        <v>50</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="1">
+        <v>5</v>
+      </c>
+      <c r="H62" s="1">
+        <v>22</v>
+      </c>
+      <c r="I62" s="1">
+        <v>295729.59279999899</v>
+      </c>
+      <c r="J62" s="1">
+        <v>3237751.31</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M62" s="3">
-        <v>43517</v>
+        <v>43471</v>
       </c>
       <c r="N62" s="3">
-        <v>43517</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>2</v>
+      </c>
       <c r="B63" s="1" t="s">
-        <v>105</v>
+        <v>50</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" s="1">
+        <v>5</v>
+      </c>
+      <c r="H63" s="1">
+        <v>22</v>
+      </c>
+      <c r="I63" s="1">
+        <v>295729.59279999899</v>
+      </c>
+      <c r="J63" s="1">
+        <v>3237751.31</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M63" s="3">
-        <v>43517</v>
+        <v>43471</v>
       </c>
       <c r="N63" s="3">
-        <v>43517</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
       <c r="B64" s="1" t="s">
-        <v>106</v>
+        <v>50</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" s="1">
+        <v>5</v>
+      </c>
+      <c r="H64" s="1">
+        <v>22</v>
+      </c>
+      <c r="I64" s="1">
+        <v>295729.59279999899</v>
+      </c>
+      <c r="J64" s="1">
+        <v>3237751.31</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M64" s="3">
-        <v>43517</v>
+        <v>43471</v>
       </c>
       <c r="N64" s="3">
-        <v>43517</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>108</v>
+        <v>43514</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>2</v>
+      </c>
       <c r="B65" s="1" t="s">
-        <v>107</v>
+        <v>50</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" s="1">
+        <v>5</v>
+      </c>
+      <c r="H65" s="1">
+        <v>22</v>
+      </c>
+      <c r="I65" s="1">
+        <v>295729.59279999899</v>
+      </c>
+      <c r="J65" s="1">
+        <v>3237751.31</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="M65" s="3">
-        <v>43517</v>
+        <v>43471</v>
       </c>
       <c r="N65" s="3">
-        <v>43517</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>108</v>
+        <v>43514</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -3178,10 +3367,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -3190,7 +3379,7 @@
         <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G66" s="1">
         <v>5</v>
@@ -3199,10 +3388,10 @@
         <v>22</v>
       </c>
       <c r="I66" s="1">
-        <v>294830.50900000002</v>
+        <v>295729.59279999899</v>
       </c>
       <c r="J66" s="1">
-        <v>3238750.773</v>
+        <v>3237751.31</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>9</v>
@@ -3211,10 +3400,10 @@
         <v>9</v>
       </c>
       <c r="M66" s="3">
-        <v>43470</v>
+        <v>43471</v>
       </c>
       <c r="N66" s="3">
-        <v>43471</v>
+        <v>43516</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -3222,10 +3411,10 @@
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C67" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -3234,19 +3423,19 @@
         <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G67" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H67" s="1">
         <v>22</v>
       </c>
       <c r="I67" s="1">
-        <v>294830.50900000002</v>
+        <v>295774.17820000002</v>
       </c>
       <c r="J67" s="1">
-        <v>3238750.773</v>
+        <v>3237700.8870000001</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>9</v>
@@ -3255,10 +3444,10 @@
         <v>9</v>
       </c>
       <c r="M67" s="3">
-        <v>43470</v>
+        <v>43514</v>
       </c>
       <c r="N67" s="3">
-        <v>43471</v>
+        <v>43516</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -3266,10 +3455,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C68" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -3278,19 +3467,19 @@
         <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G68" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H68" s="1">
         <v>22</v>
       </c>
       <c r="I68" s="1">
-        <v>294830.50900000002</v>
+        <v>295774.17820000002</v>
       </c>
       <c r="J68" s="1">
-        <v>3238750.773</v>
+        <v>3237700.8870000001</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>9</v>
@@ -3299,10 +3488,10 @@
         <v>9</v>
       </c>
       <c r="M68" s="3">
-        <v>43470</v>
+        <v>43514</v>
       </c>
       <c r="N68" s="3">
-        <v>43471</v>
+        <v>43516</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -3310,10 +3499,10 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C69" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -3322,19 +3511,19 @@
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G69" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H69" s="1">
         <v>22</v>
       </c>
       <c r="I69" s="1">
-        <v>294830.50900000002</v>
+        <v>295774.17820000002</v>
       </c>
       <c r="J69" s="1">
-        <v>3238750.773</v>
+        <v>3237700.8870000001</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>9</v>
@@ -3343,10 +3532,10 @@
         <v>9</v>
       </c>
       <c r="M69" s="3">
-        <v>43470</v>
+        <v>43514</v>
       </c>
       <c r="N69" s="3">
-        <v>43471</v>
+        <v>43516</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -3354,10 +3543,10 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C70" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
         <v>3</v>
@@ -3366,19 +3555,19 @@
         <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G70" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H70" s="1">
         <v>22</v>
       </c>
       <c r="I70" s="1">
-        <v>294830.50900000002</v>
+        <v>295902.69449999899</v>
       </c>
       <c r="J70" s="1">
-        <v>3238750.773</v>
+        <v>3237537.557</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>9</v>
@@ -3387,10 +3576,10 @@
         <v>9</v>
       </c>
       <c r="M70" s="3">
-        <v>43470</v>
+        <v>43514</v>
       </c>
       <c r="N70" s="3">
-        <v>43471</v>
+        <v>43515</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -3398,37 +3587,43 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C71" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1">
         <v>3</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" s="1">
         <v>22</v>
       </c>
       <c r="I71" s="1">
-        <v>294920.8002</v>
+        <v>295964.86560000002</v>
       </c>
       <c r="J71" s="1">
-        <v>3238651.68899999</v>
+        <v>3236951.5189999901</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M71" s="3">
+        <v>43471</v>
+      </c>
+      <c r="N71" s="3">
+        <v>43515</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -3436,37 +3631,43 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C72" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G72" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72" s="1">
         <v>22</v>
       </c>
       <c r="I72" s="1">
-        <v>294920.8002</v>
+        <v>295964.86560000002</v>
       </c>
       <c r="J72" s="1">
-        <v>3238651.68899999</v>
+        <v>3236951.5189999901</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M72" s="3">
+        <v>43471</v>
+      </c>
+      <c r="N72" s="3">
+        <v>43515</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -3474,37 +3675,40 @@
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C73" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1">
         <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G73" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73" s="1">
         <v>22</v>
       </c>
       <c r="I73" s="1">
-        <v>294942.0013</v>
+        <v>295964.86560000002</v>
       </c>
       <c r="J73" s="1">
-        <v>3238634.6979999901</v>
+        <v>3236951.5189999901</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M73" s="3">
+        <v>43471</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -3512,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -3521,28 +3725,34 @@
         <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G74" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H74" s="1">
         <v>22</v>
       </c>
       <c r="I74" s="1">
-        <v>295026.7623</v>
+        <v>296176.874699999</v>
       </c>
       <c r="J74" s="1">
-        <v>3238588.838</v>
+        <v>3236569.86799999</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M74" s="3">
+        <v>43514</v>
+      </c>
+      <c r="N74" s="3">
+        <v>43515</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -3550,7 +3760,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
@@ -3559,28 +3769,34 @@
         <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G75" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H75" s="1">
         <v>22</v>
       </c>
       <c r="I75" s="1">
-        <v>295026.7623</v>
+        <v>296176.874699999</v>
       </c>
       <c r="J75" s="1">
-        <v>3238588.838</v>
+        <v>3236569.86799999</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M75" s="3">
+        <v>43514</v>
+      </c>
+      <c r="N75" s="3">
+        <v>43515</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -3588,7 +3804,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C76" s="1">
         <v>3</v>
@@ -3597,28 +3813,34 @@
         <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G76" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H76" s="1">
         <v>22</v>
       </c>
       <c r="I76" s="1">
-        <v>295026.7623</v>
+        <v>296176.874699999</v>
       </c>
       <c r="J76" s="1">
-        <v>3238588.838</v>
+        <v>3236569.86799999</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="M76" s="3">
+        <v>43514</v>
+      </c>
+      <c r="N76" s="3">
+        <v>43515</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -3626,31 +3848,31 @@
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G77" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H77" s="1">
         <v>22</v>
       </c>
       <c r="I77" s="1">
-        <v>295240.32020000002</v>
+        <v>296176.874699999</v>
       </c>
       <c r="J77" s="1">
-        <v>3238286.6310000001</v>
+        <v>3236569.86799999</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>9</v>
@@ -3659,7 +3881,10 @@
         <v>9</v>
       </c>
       <c r="M77" s="3">
-        <v>43472</v>
+        <v>43514</v>
+      </c>
+      <c r="N77" s="3">
+        <v>43515</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -3667,31 +3892,31 @@
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C78" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" s="1">
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G78" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H78" s="1">
         <v>22</v>
       </c>
       <c r="I78" s="1">
-        <v>295240.32020000002</v>
+        <v>296176.874699999</v>
       </c>
       <c r="J78" s="1">
-        <v>3238286.6310000001</v>
+        <v>3236569.86799999</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>9</v>
@@ -3700,45 +3925,27 @@
         <v>9</v>
       </c>
       <c r="M78" s="3">
-        <v>43472</v>
+        <v>43514</v>
+      </c>
+      <c r="N78" s="3">
+        <v>43515</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>2</v>
-      </c>
       <c r="B79" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
       </c>
-      <c r="D79" s="1">
-        <v>3</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="1">
-        <v>5</v>
-      </c>
-      <c r="H79" s="1">
-        <v>22</v>
-      </c>
-      <c r="I79" s="1">
-        <v>295455.982599999</v>
-      </c>
-      <c r="J79" s="1">
-        <v>3238032.784</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>9</v>
+      <c r="M79" s="3">
+        <v>43517</v>
+      </c>
+      <c r="N79" s="3">
+        <v>43517</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -3746,19 +3953,19 @@
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C80" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
         <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G80" s="1">
         <v>5</v>
@@ -3767,10 +3974,10 @@
         <v>22</v>
       </c>
       <c r="I80" s="1">
-        <v>295455.982599999</v>
+        <v>296377.63929999899</v>
       </c>
       <c r="J80" s="1">
-        <v>3238032.784</v>
+        <v>3236022.0610000002</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>9</v>
@@ -3778,25 +3985,31 @@
       <c r="L80" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M80" s="3">
+        <v>43442</v>
+      </c>
+      <c r="N80" s="3">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C81" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" s="1">
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G81" s="1">
         <v>5</v>
@@ -3805,10 +4018,10 @@
         <v>22</v>
       </c>
       <c r="I81" s="1">
-        <v>295455.982599999</v>
+        <v>296377.63929999899</v>
       </c>
       <c r="J81" s="1">
-        <v>3238032.784</v>
+        <v>3236022.0610000002</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>9</v>
@@ -3816,25 +4029,31 @@
       <c r="L81" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>43442</v>
+      </c>
+      <c r="N81" s="3">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C82" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" s="1">
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G82" s="1">
         <v>5</v>
@@ -3843,10 +4062,10 @@
         <v>22</v>
       </c>
       <c r="I82" s="1">
-        <v>295455.982599999</v>
+        <v>296377.63929999899</v>
       </c>
       <c r="J82" s="1">
-        <v>3238032.784</v>
+        <v>3236022.0610000002</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>9</v>
@@ -3854,25 +4073,31 @@
       <c r="L82" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M82" s="3">
+        <v>43442</v>
+      </c>
+      <c r="N82" s="3">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>2</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C83" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" s="1">
         <v>3</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G83" s="1">
         <v>5</v>
@@ -3881,10 +4106,10 @@
         <v>22</v>
       </c>
       <c r="I83" s="1">
-        <v>295455.982599999</v>
+        <v>296377.63929999899</v>
       </c>
       <c r="J83" s="1">
-        <v>3238032.784</v>
+        <v>3236022.0610000002</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>9</v>
@@ -3892,37 +4117,43 @@
       <c r="L83" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>43442</v>
+      </c>
+      <c r="N83" s="3">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C84" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D84" s="1">
         <v>3</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G84" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H84" s="1">
         <v>22</v>
       </c>
       <c r="I84" s="1">
-        <v>295625.47989999899</v>
+        <v>296377.63929999899</v>
       </c>
       <c r="J84" s="1">
-        <v>3237836.0819999902</v>
+        <v>3236022.0610000002</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>9</v>
@@ -3931,42 +4162,39 @@
         <v>9</v>
       </c>
       <c r="M84" s="3">
-        <v>43457</v>
-      </c>
-      <c r="N84" s="3">
-        <v>43457</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C85" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D85" s="1">
         <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G85" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H85" s="1">
         <v>22</v>
       </c>
       <c r="I85" s="1">
-        <v>295625.47989999899</v>
+        <v>296388.02639999898</v>
       </c>
       <c r="J85" s="1">
-        <v>3237836.0819999902</v>
+        <v>3236002.7</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>9</v>
@@ -3975,42 +4203,39 @@
         <v>9</v>
       </c>
       <c r="M85" s="3">
-        <v>43457</v>
-      </c>
-      <c r="N85" s="3">
-        <v>43457</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C86" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D86" s="1">
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G86" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H86" s="1">
         <v>22</v>
       </c>
       <c r="I86" s="1">
-        <v>295625.47989999899</v>
+        <v>296388.02639999898</v>
       </c>
       <c r="J86" s="1">
-        <v>3237836.0819999902</v>
+        <v>3236002.7</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>9</v>
@@ -4019,42 +4244,39 @@
         <v>9</v>
       </c>
       <c r="M86" s="3">
-        <v>43457</v>
-      </c>
-      <c r="N86" s="3">
-        <v>43457</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C87" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1">
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G87" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H87" s="1">
         <v>22</v>
       </c>
       <c r="I87" s="1">
-        <v>295729.59279999899</v>
+        <v>296388.02639999898</v>
       </c>
       <c r="J87" s="1">
-        <v>3237751.31</v>
+        <v>3236002.7</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>9</v>
@@ -4063,42 +4285,39 @@
         <v>9</v>
       </c>
       <c r="M87" s="3">
-        <v>43471</v>
-      </c>
-      <c r="N87" s="3">
-        <v>43472</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C88" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D88" s="1">
         <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G88" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H88" s="1">
         <v>22</v>
       </c>
       <c r="I88" s="1">
-        <v>295729.59279999899</v>
+        <v>296388.02639999898</v>
       </c>
       <c r="J88" s="1">
-        <v>3237751.31</v>
+        <v>3236002.7</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>9</v>
@@ -4106,43 +4325,37 @@
       <c r="L88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M88" s="3">
-        <v>43471</v>
-      </c>
-      <c r="N88" s="3">
-        <v>43472</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C89" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D89" s="1">
         <v>3</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G89" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H89" s="1">
         <v>22</v>
       </c>
       <c r="I89" s="1">
-        <v>295729.59279999899</v>
+        <v>296525.8751</v>
       </c>
       <c r="J89" s="1">
-        <v>3237751.31</v>
+        <v>3235705.75999999</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>9</v>
@@ -4151,42 +4364,42 @@
         <v>9</v>
       </c>
       <c r="M89" s="3">
-        <v>43471</v>
+        <v>43487</v>
       </c>
       <c r="N89" s="3">
-        <v>43514</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C90" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" s="1">
         <v>3</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G90" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H90" s="1">
         <v>22</v>
       </c>
       <c r="I90" s="1">
-        <v>295729.59279999899</v>
+        <v>296525.8751</v>
       </c>
       <c r="J90" s="1">
-        <v>3237751.31</v>
+        <v>3235705.75999999</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>9</v>
@@ -4195,42 +4408,42 @@
         <v>9</v>
       </c>
       <c r="M90" s="3">
-        <v>43471</v>
+        <v>43487</v>
       </c>
       <c r="N90" s="3">
-        <v>43514</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C91" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" s="1">
         <v>3</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G91" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H91" s="1">
         <v>22</v>
       </c>
       <c r="I91" s="1">
-        <v>295729.59279999899</v>
+        <v>296525.8751</v>
       </c>
       <c r="J91" s="1">
-        <v>3237751.31</v>
+        <v>3235705.75999999</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>9</v>
@@ -4239,27 +4452,27 @@
         <v>9</v>
       </c>
       <c r="M91" s="3">
-        <v>43471</v>
+        <v>43487</v>
       </c>
       <c r="N91" s="3">
-        <v>43516</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C92" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D92" s="1">
         <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>49</v>
@@ -4271,10 +4484,10 @@
         <v>22</v>
       </c>
       <c r="I92" s="1">
-        <v>295774.17820000002</v>
+        <v>296574.42709999898</v>
       </c>
       <c r="J92" s="1">
-        <v>3237700.8870000001</v>
+        <v>3235607.21199999</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>9</v>
@@ -4283,27 +4496,27 @@
         <v>9</v>
       </c>
       <c r="M92" s="3">
-        <v>43514</v>
+        <v>43487</v>
       </c>
       <c r="N92" s="3">
-        <v>43516</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C93" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D93" s="1">
         <v>3</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>49</v>
@@ -4315,10 +4528,10 @@
         <v>22</v>
       </c>
       <c r="I93" s="1">
-        <v>295774.17820000002</v>
+        <v>296574.42709999898</v>
       </c>
       <c r="J93" s="1">
-        <v>3237700.8870000001</v>
+        <v>3235607.21199999</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>9</v>
@@ -4327,27 +4540,27 @@
         <v>9</v>
       </c>
       <c r="M93" s="3">
-        <v>43514</v>
+        <v>43487</v>
       </c>
       <c r="N93" s="3">
-        <v>43516</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C94" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>49</v>
@@ -4359,10 +4572,10 @@
         <v>22</v>
       </c>
       <c r="I94" s="1">
-        <v>295774.17820000002</v>
+        <v>296574.42709999898</v>
       </c>
       <c r="J94" s="1">
-        <v>3237700.8870000001</v>
+        <v>3235607.21199999</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>9</v>
@@ -4371,174 +4584,93 @@
         <v>9</v>
       </c>
       <c r="M94" s="3">
-        <v>43514</v>
+        <v>43487</v>
       </c>
       <c r="N94" s="3">
-        <v>43516</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>2</v>
-      </c>
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
       </c>
-      <c r="D95" s="1">
-        <v>3</v>
-      </c>
-      <c r="E95" s="1" t="s">
+      <c r="M95" s="3">
+        <v>43517</v>
+      </c>
+      <c r="N95" s="3">
+        <v>43517</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="M96" s="3">
+        <v>43517</v>
+      </c>
+      <c r="N96" s="3">
+        <v>43517</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97" s="3">
+        <v>43517</v>
+      </c>
+      <c r="N97" s="3">
+        <v>43517</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>2</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G95" s="1">
-        <v>1</v>
-      </c>
-      <c r="H95" s="1">
-        <v>22</v>
-      </c>
-      <c r="I95" s="1">
-        <v>295902.69449999899</v>
-      </c>
-      <c r="J95" s="1">
-        <v>3237537.557</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M95" s="3">
-        <v>43514</v>
-      </c>
-      <c r="N95" s="3">
-        <v>43515</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>2</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1</v>
-      </c>
-      <c r="D96" s="1">
-        <v>3</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G96" s="1">
-        <v>3</v>
-      </c>
-      <c r="H96" s="1">
-        <v>22</v>
-      </c>
-      <c r="I96" s="1">
-        <v>295964.86560000002</v>
-      </c>
-      <c r="J96" s="1">
-        <v>3236951.5189999901</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M96" s="3">
-        <v>43471</v>
-      </c>
-      <c r="N96" s="3">
-        <v>43515</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>2</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="1">
-        <v>2</v>
-      </c>
-      <c r="D97" s="1">
-        <v>3</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G97" s="1">
-        <v>3</v>
-      </c>
-      <c r="H97" s="1">
-        <v>22</v>
-      </c>
-      <c r="I97" s="1">
-        <v>295964.86560000002</v>
-      </c>
-      <c r="J97" s="1">
-        <v>3236951.5189999901</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M97" s="3">
-        <v>43471</v>
-      </c>
-      <c r="N97" s="3">
-        <v>43515</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>2</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" s="1">
-        <v>3</v>
-      </c>
-      <c r="D98" s="1">
-        <v>3</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F98" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G98" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H98" s="1">
         <v>22</v>
       </c>
       <c r="I98" s="1">
-        <v>295964.86560000002</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J98" s="1">
-        <v>3236951.5189999901</v>
+        <v>3238750.773</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>9</v>
@@ -4547,27 +4679,30 @@
         <v>9</v>
       </c>
       <c r="M98" s="3">
+        <v>43470</v>
+      </c>
+      <c r="N98" s="3">
         <v>43471</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G99" s="1">
         <v>5</v>
@@ -4576,10 +4711,10 @@
         <v>22</v>
       </c>
       <c r="I99" s="1">
-        <v>296176.874699999</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J99" s="1">
-        <v>3236569.86799999</v>
+        <v>3238750.773</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>9</v>
@@ -4588,30 +4723,30 @@
         <v>9</v>
       </c>
       <c r="M99" s="3">
-        <v>43514</v>
+        <v>43470</v>
       </c>
       <c r="N99" s="3">
-        <v>43515</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C100" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" s="1">
         <v>3</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G100" s="1">
         <v>5</v>
@@ -4620,10 +4755,10 @@
         <v>22</v>
       </c>
       <c r="I100" s="1">
-        <v>296176.874699999</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J100" s="1">
-        <v>3236569.86799999</v>
+        <v>3238750.773</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>9</v>
@@ -4632,30 +4767,30 @@
         <v>9</v>
       </c>
       <c r="M100" s="3">
-        <v>43514</v>
+        <v>43470</v>
       </c>
       <c r="N100" s="3">
-        <v>43515</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C101" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" s="1">
         <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G101" s="1">
         <v>5</v>
@@ -4664,10 +4799,10 @@
         <v>22</v>
       </c>
       <c r="I101" s="1">
-        <v>296176.874699999</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J101" s="1">
-        <v>3236569.86799999</v>
+        <v>3238750.773</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>9</v>
@@ -4676,30 +4811,30 @@
         <v>9</v>
       </c>
       <c r="M101" s="3">
-        <v>43514</v>
+        <v>43470</v>
       </c>
       <c r="N101" s="3">
-        <v>43515</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C102" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D102" s="1">
         <v>3</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G102" s="1">
         <v>5</v>
@@ -4708,10 +4843,10 @@
         <v>22</v>
       </c>
       <c r="I102" s="1">
-        <v>296176.874699999</v>
+        <v>294830.50900000002</v>
       </c>
       <c r="J102" s="1">
-        <v>3236569.86799999</v>
+        <v>3238750.773</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>9</v>
@@ -4720,262 +4855,187 @@
         <v>9</v>
       </c>
       <c r="M102" s="3">
-        <v>43514</v>
+        <v>43470</v>
       </c>
       <c r="N102" s="3">
-        <v>43515</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M103" s="3">
+        <v>43411</v>
+      </c>
+      <c r="N103" s="3">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M104" s="3">
+        <v>43411</v>
+      </c>
+      <c r="N104" s="3">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>1</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1">
+        <v>3</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M105" s="3">
+        <v>43411</v>
+      </c>
+      <c r="N105" s="3">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="1">
+        <v>4</v>
+      </c>
+      <c r="D106" s="1">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M106" s="3">
+        <v>43411</v>
+      </c>
+      <c r="N106" s="3">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>1</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="1">
         <v>5</v>
       </c>
-      <c r="D103" s="1">
-        <v>3</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G103" s="1">
-        <v>5</v>
-      </c>
-      <c r="H103" s="1">
-        <v>22</v>
-      </c>
-      <c r="I103" s="1">
-        <v>296176.874699999</v>
-      </c>
-      <c r="J103" s="1">
-        <v>3236569.86799999</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M103" s="3">
-        <v>43514</v>
-      </c>
-      <c r="N103" s="3">
-        <v>43515</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>2</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C104" s="1">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1">
-        <v>3</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G104" s="1">
-        <v>5</v>
-      </c>
-      <c r="H104" s="1">
-        <v>22</v>
-      </c>
-      <c r="I104" s="1">
-        <v>296377.63929999899</v>
-      </c>
-      <c r="J104" s="1">
-        <v>3236022.0610000002</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M104" s="3">
-        <v>43442</v>
-      </c>
-      <c r="N104" s="3">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>2</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C105" s="1">
-        <v>2</v>
-      </c>
-      <c r="D105" s="1">
-        <v>3</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G105" s="1">
-        <v>5</v>
-      </c>
-      <c r="H105" s="1">
-        <v>22</v>
-      </c>
-      <c r="I105" s="1">
-        <v>296377.63929999899</v>
-      </c>
-      <c r="J105" s="1">
-        <v>3236022.0610000002</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M105" s="3">
-        <v>43442</v>
-      </c>
-      <c r="N105" s="3">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>2</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C106" s="1">
-        <v>3</v>
-      </c>
-      <c r="D106" s="1">
-        <v>3</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G106" s="1">
-        <v>5</v>
-      </c>
-      <c r="H106" s="1">
-        <v>22</v>
-      </c>
-      <c r="I106" s="1">
-        <v>296377.63929999899</v>
-      </c>
-      <c r="J106" s="1">
-        <v>3236022.0610000002</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M106" s="3">
-        <v>43442</v>
-      </c>
-      <c r="N106" s="3">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>2</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" s="1">
-        <v>4</v>
-      </c>
       <c r="D107" s="1">
         <v>3</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G107" s="1">
-        <v>5</v>
-      </c>
-      <c r="H107" s="1">
-        <v>22</v>
-      </c>
-      <c r="I107" s="1">
-        <v>296377.63929999899</v>
-      </c>
-      <c r="J107" s="1">
-        <v>3236022.0610000002</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L107" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M107" s="3">
-        <v>43442</v>
+        <v>43411</v>
       </c>
       <c r="N107" s="3">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C108" s="1">
-        <v>5</v>
-      </c>
-      <c r="D108" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G108" s="1">
-        <v>5</v>
-      </c>
-      <c r="H108" s="1">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I108" s="1">
-        <v>296377.63929999899</v>
+        <v>298132.23670000001</v>
       </c>
       <c r="J108" s="1">
-        <v>3236022.0610000002</v>
+        <v>3238415.6540999901</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>9</v>
@@ -4984,39 +5044,42 @@
         <v>9</v>
       </c>
       <c r="M108" s="3">
-        <v>43442</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43432</v>
+      </c>
+      <c r="N108" s="3">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C109" s="1">
-        <v>6</v>
-      </c>
-      <c r="D109" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G109" s="1">
-        <v>4</v>
-      </c>
-      <c r="H109" s="1">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I109" s="1">
-        <v>296388.02639999898</v>
+        <v>298242.70030000003</v>
       </c>
       <c r="J109" s="1">
-        <v>3236002.7</v>
+        <v>3238323.5599000002</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>9</v>
@@ -5025,39 +5088,42 @@
         <v>9</v>
       </c>
       <c r="M109" s="3">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43432</v>
+      </c>
+      <c r="N109" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="1">
-        <v>3</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G110" s="1">
-        <v>4</v>
-      </c>
-      <c r="H110" s="1">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I110" s="1">
-        <v>296388.02639999898</v>
+        <v>298340.15010000003</v>
       </c>
       <c r="J110" s="1">
-        <v>3236002.7</v>
+        <v>3238402.3242000001</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>9</v>
@@ -5066,39 +5132,42 @@
         <v>9</v>
       </c>
       <c r="M110" s="3">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43432</v>
+      </c>
+      <c r="N110" s="3">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="1">
-        <v>3</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F111" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G111" s="1">
-        <v>4</v>
-      </c>
-      <c r="H111" s="1">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I111" s="1">
-        <v>296388.02639999898</v>
+        <v>298294.44329999899</v>
       </c>
       <c r="J111" s="1">
-        <v>3236002.7</v>
+        <v>3238522.3177</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>9</v>
@@ -5107,45 +5176,54 @@
         <v>9</v>
       </c>
       <c r="M111" s="3">
-        <v>43486</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43432</v>
+      </c>
+      <c r="N111" s="3">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C112" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D112" s="1">
         <v>3</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G112" s="1">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H112" s="1">
-        <v>22</v>
+        <v>24.79189513</v>
       </c>
       <c r="I112" s="1">
-        <v>296388.02639999898</v>
+        <v>298225.02500000002</v>
       </c>
       <c r="J112" s="1">
-        <v>3236002.7</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>9</v>
+        <v>3238535.733</v>
+      </c>
+      <c r="K112" s="1">
+        <v>298249.81689999899</v>
+      </c>
+      <c r="L112" s="1">
+        <v>3238535.733</v>
+      </c>
+      <c r="M112" s="3">
+        <v>43429</v>
+      </c>
+      <c r="N112" s="3">
+        <v>43456</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -5153,43 +5231,43 @@
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" s="1">
         <v>3</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G113" s="1">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H113" s="1">
-        <v>22</v>
+        <v>22.960727330000001</v>
       </c>
       <c r="I113" s="1">
-        <v>296525.8751</v>
+        <v>298229.22509999899</v>
       </c>
       <c r="J113" s="1">
-        <v>3235705.75999999</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>9</v>
+        <v>3238527.733</v>
+      </c>
+      <c r="K113" s="1">
+        <v>298252.18579999899</v>
+      </c>
+      <c r="L113" s="1">
+        <v>3238527.733</v>
       </c>
       <c r="M113" s="3">
-        <v>43487</v>
+        <v>43429</v>
       </c>
       <c r="N113" s="3">
-        <v>43487</v>
+        <v>43456</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -5197,43 +5275,43 @@
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C114" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114" s="1">
         <v>3</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G114" s="1">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H114" s="1">
-        <v>22</v>
+        <v>25.006205810000001</v>
       </c>
       <c r="I114" s="1">
-        <v>296525.8751</v>
+        <v>298208.204399999</v>
       </c>
       <c r="J114" s="1">
-        <v>3235705.75999999</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>9</v>
+        <v>3238507.733</v>
+      </c>
+      <c r="K114" s="1">
+        <v>298233.210599999</v>
+      </c>
+      <c r="L114" s="1">
+        <v>3238507.733</v>
       </c>
       <c r="M114" s="3">
-        <v>43487</v>
+        <v>43429</v>
       </c>
       <c r="N114" s="3">
-        <v>43487</v>
+        <v>43456</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -5241,43 +5319,43 @@
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C115" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115" s="1">
         <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G115" s="1">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H115" s="1">
-        <v>22</v>
+        <v>19.462796910000002</v>
       </c>
       <c r="I115" s="1">
-        <v>296525.8751</v>
+        <v>298530.048899999</v>
       </c>
       <c r="J115" s="1">
-        <v>3235705.75999999</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>9</v>
+        <v>3237227.733</v>
+      </c>
+      <c r="K115" s="1">
+        <v>298549.51160000003</v>
+      </c>
+      <c r="L115" s="1">
+        <v>3237227.733</v>
       </c>
       <c r="M115" s="3">
-        <v>43487</v>
+        <v>43470</v>
       </c>
       <c r="N115" s="3">
-        <v>43487</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -5285,31 +5363,31 @@
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C116" s="1">
-        <v>4</v>
-      </c>
-      <c r="D116" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G116" s="1">
-        <v>3</v>
-      </c>
-      <c r="H116" s="1">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I116" s="1">
-        <v>296574.42709999898</v>
+        <v>298480.58419999899</v>
       </c>
       <c r="J116" s="1">
-        <v>3235607.21199999</v>
+        <v>3237712.7853999902</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>9</v>
@@ -5318,10 +5396,10 @@
         <v>9</v>
       </c>
       <c r="M116" s="3">
-        <v>43487</v>
+        <v>43457</v>
       </c>
       <c r="N116" s="3">
-        <v>43487</v>
+        <v>43457</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -5329,43 +5407,43 @@
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C117" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D117" s="1">
         <v>3</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G117" s="1">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H117" s="1">
-        <v>22</v>
+        <v>20.600858209999899</v>
       </c>
       <c r="I117" s="1">
-        <v>296574.42709999898</v>
+        <v>298424.4375</v>
       </c>
       <c r="J117" s="1">
-        <v>3235607.21199999</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>9</v>
+        <v>3237687.6499999901</v>
+      </c>
+      <c r="K117" s="1">
+        <v>298424.4375</v>
+      </c>
+      <c r="L117" s="1">
+        <v>3237708.2510000002</v>
       </c>
       <c r="M117" s="3">
-        <v>43487</v>
+        <v>43457</v>
       </c>
       <c r="N117" s="3">
-        <v>43487</v>
+        <v>43457</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -5373,43 +5451,43 @@
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C118" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D118" s="1">
         <v>3</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G118" s="1">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H118" s="1">
-        <v>22</v>
+        <v>22.309022290000001</v>
       </c>
       <c r="I118" s="1">
-        <v>296574.42709999898</v>
+        <v>298408.66950000002</v>
       </c>
       <c r="J118" s="1">
-        <v>3235607.21199999</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>9</v>
+        <v>3237701.733</v>
+      </c>
+      <c r="K118" s="1">
+        <v>298430.97850000003</v>
+      </c>
+      <c r="L118" s="1">
+        <v>3237701.733</v>
       </c>
       <c r="M118" s="3">
-        <v>43487</v>
+        <v>43457</v>
       </c>
       <c r="N118" s="3">
-        <v>43487</v>
+        <v>43457</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -5417,13 +5495,13 @@
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>7</v>
+      <c r="D119" s="1">
+        <v>3</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>8</v>
@@ -5434,513 +5512,33 @@
       <c r="G119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>9</v>
+      <c r="H119" s="1">
+        <v>13.07784964</v>
       </c>
       <c r="I119" s="1">
-        <v>298132.23670000001</v>
+        <v>298554.4375</v>
       </c>
       <c r="J119" s="1">
-        <v>3238415.6540999901</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>9</v>
+        <v>3237797.60399999</v>
+      </c>
+      <c r="K119" s="1">
+        <v>298554.4375</v>
+      </c>
+      <c r="L119" s="1">
+        <v>3237810.682</v>
       </c>
       <c r="M119" s="3">
-        <v>43432</v>
+        <v>43457</v>
       </c>
       <c r="N119" s="3">
-        <v>43456</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>2</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C120" s="1">
-        <v>1</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I120" s="1">
-        <v>298242.70030000003</v>
-      </c>
-      <c r="J120" s="1">
-        <v>3238323.5599000002</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M120" s="3">
-        <v>43432</v>
-      </c>
-      <c r="N120" s="3">
         <v>43457</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>2</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C121" s="1">
-        <v>1</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I121" s="1">
-        <v>298340.15010000003</v>
-      </c>
-      <c r="J121" s="1">
-        <v>3238402.3242000001</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M121" s="3">
-        <v>43432</v>
-      </c>
-      <c r="N121" s="3">
-        <v>43457</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>2</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C122" s="1">
-        <v>1</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I122" s="1">
-        <v>298294.44329999899</v>
-      </c>
-      <c r="J122" s="1">
-        <v>3238522.3177</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M122" s="3">
-        <v>43432</v>
-      </c>
-      <c r="N122" s="3">
-        <v>43456</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>2</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C123" s="1">
-        <v>1</v>
-      </c>
-      <c r="D123" s="1">
-        <v>3</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H123" s="1">
-        <v>24.79189513</v>
-      </c>
-      <c r="I123" s="1">
-        <v>298225.02500000002</v>
-      </c>
-      <c r="J123" s="1">
-        <v>3238535.733</v>
-      </c>
-      <c r="K123" s="1">
-        <v>298249.81689999899</v>
-      </c>
-      <c r="L123" s="1">
-        <v>3238535.733</v>
-      </c>
-      <c r="M123" s="3">
-        <v>43429</v>
-      </c>
-      <c r="N123" s="3">
-        <v>43456</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>2</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="1">
-        <v>2</v>
-      </c>
-      <c r="D124" s="1">
-        <v>3</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H124" s="1">
-        <v>22.960727330000001</v>
-      </c>
-      <c r="I124" s="1">
-        <v>298229.22509999899</v>
-      </c>
-      <c r="J124" s="1">
-        <v>3238527.733</v>
-      </c>
-      <c r="K124" s="1">
-        <v>298252.18579999899</v>
-      </c>
-      <c r="L124" s="1">
-        <v>3238527.733</v>
-      </c>
-      <c r="M124" s="3">
-        <v>43429</v>
-      </c>
-      <c r="N124" s="3">
-        <v>43456</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>2</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C125" s="1">
-        <v>1</v>
-      </c>
-      <c r="D125" s="1">
-        <v>3</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H125" s="1">
-        <v>25.006205810000001</v>
-      </c>
-      <c r="I125" s="1">
-        <v>298208.204399999</v>
-      </c>
-      <c r="J125" s="1">
-        <v>3238507.733</v>
-      </c>
-      <c r="K125" s="1">
-        <v>298233.210599999</v>
-      </c>
-      <c r="L125" s="1">
-        <v>3238507.733</v>
-      </c>
-      <c r="M125" s="3">
-        <v>43429</v>
-      </c>
-      <c r="N125" s="3">
-        <v>43456</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>2</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C126" s="1">
-        <v>1</v>
-      </c>
-      <c r="D126" s="1">
-        <v>3</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H126" s="1">
-        <v>19.462796910000002</v>
-      </c>
-      <c r="I126" s="1">
-        <v>298530.048899999</v>
-      </c>
-      <c r="J126" s="1">
-        <v>3237227.733</v>
-      </c>
-      <c r="K126" s="1">
-        <v>298549.51160000003</v>
-      </c>
-      <c r="L126" s="1">
-        <v>3237227.733</v>
-      </c>
-      <c r="M126" s="3">
-        <v>43470</v>
-      </c>
-      <c r="N126" s="3">
-        <v>43470</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>2</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C127" s="1">
-        <v>1</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I127" s="1">
-        <v>298480.58419999899</v>
-      </c>
-      <c r="J127" s="1">
-        <v>3237712.7853999902</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M127" s="3">
-        <v>43457</v>
-      </c>
-      <c r="N127" s="3">
-        <v>43457</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>2</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C128" s="1">
-        <v>1</v>
-      </c>
-      <c r="D128" s="1">
-        <v>3</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H128" s="1">
-        <v>20.600858209999899</v>
-      </c>
-      <c r="I128" s="1">
-        <v>298424.4375</v>
-      </c>
-      <c r="J128" s="1">
-        <v>3237687.6499999901</v>
-      </c>
-      <c r="K128" s="1">
-        <v>298424.4375</v>
-      </c>
-      <c r="L128" s="1">
-        <v>3237708.2510000002</v>
-      </c>
-      <c r="M128" s="3">
-        <v>43457</v>
-      </c>
-      <c r="N128" s="3">
-        <v>43457</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>2</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C129" s="1">
-        <v>2</v>
-      </c>
-      <c r="D129" s="1">
-        <v>3</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H129" s="1">
-        <v>22.309022290000001</v>
-      </c>
-      <c r="I129" s="1">
-        <v>298408.66950000002</v>
-      </c>
-      <c r="J129" s="1">
-        <v>3237701.733</v>
-      </c>
-      <c r="K129" s="1">
-        <v>298430.97850000003</v>
-      </c>
-      <c r="L129" s="1">
-        <v>3237701.733</v>
-      </c>
-      <c r="M129" s="3">
-        <v>43457</v>
-      </c>
-      <c r="N129" s="3">
-        <v>43457</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>2</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C130" s="1">
-        <v>1</v>
-      </c>
-      <c r="D130" s="1">
-        <v>3</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H130" s="1">
-        <v>13.07784964</v>
-      </c>
-      <c r="I130" s="1">
-        <v>298554.4375</v>
-      </c>
-      <c r="J130" s="1">
-        <v>3237797.60399999</v>
-      </c>
-      <c r="K130" s="1">
-        <v>298554.4375</v>
-      </c>
-      <c r="L130" s="1">
-        <v>3237810.682</v>
-      </c>
-      <c r="M130" s="3">
-        <v>43457</v>
-      </c>
-      <c r="N130" s="3">
-        <v>43457</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:O130">
+    <sortCondition ref="B2:B130"/>
+    <sortCondition ref="C2:C130"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="134">
   <si>
     <t>BTI1</t>
   </si>
@@ -331,6 +331,105 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>CKI1</t>
+  </si>
+  <si>
+    <t>CKI2</t>
+  </si>
+  <si>
+    <t>CKI3</t>
+  </si>
+  <si>
+    <t>CKN1</t>
+  </si>
+  <si>
+    <t>CKN2</t>
+  </si>
+  <si>
+    <t>CKN3</t>
+  </si>
+  <si>
+    <t>CKO1</t>
+  </si>
+  <si>
+    <t>CKO2</t>
+  </si>
+  <si>
+    <t>CKO3</t>
+  </si>
+  <si>
+    <t>CRI1</t>
+  </si>
+  <si>
+    <t>CRI2</t>
+  </si>
+  <si>
+    <t>CRI3</t>
+  </si>
+  <si>
+    <t>CRN1</t>
+  </si>
+  <si>
+    <t>CRN2</t>
+  </si>
+  <si>
+    <t>CRN3</t>
+  </si>
+  <si>
+    <t>CRO1</t>
+  </si>
+  <si>
+    <t>CRO2</t>
+  </si>
+  <si>
+    <t>CRO3</t>
+  </si>
+  <si>
+    <t>CRO4</t>
+  </si>
+  <si>
+    <t>HBI1</t>
+  </si>
+  <si>
+    <t>HBI2</t>
+  </si>
+  <si>
+    <t>HBI3</t>
+  </si>
+  <si>
+    <t>HBI4</t>
+  </si>
+  <si>
+    <t>HBN1</t>
+  </si>
+  <si>
+    <t>HBN2</t>
+  </si>
+  <si>
+    <t>HBN3</t>
+  </si>
+  <si>
+    <t>HBN5</t>
+  </si>
+  <si>
+    <t>HBN6</t>
+  </si>
+  <si>
+    <t>HBO1</t>
+  </si>
+  <si>
+    <t>HBO2</t>
+  </si>
+  <si>
+    <t>HBO3</t>
+  </si>
+  <si>
+    <t>Tyler Ring</t>
+  </si>
+  <si>
+    <t>Emily Colson</t>
   </si>
 </sst>
 </file>
@@ -661,11 +760,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S116"/>
+  <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S95" sqref="S95"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3030,6 +3129,475 @@
         <v>43457</v>
       </c>
     </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="3">
+        <v>43613</v>
+      </c>
+      <c r="F117" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" s="3">
+        <v>43613</v>
+      </c>
+      <c r="F118" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="3">
+        <v>43613</v>
+      </c>
+      <c r="F119" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="3">
+        <v>43613</v>
+      </c>
+      <c r="F126" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127" s="3">
+        <v>43613</v>
+      </c>
+      <c r="F127" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" s="3">
+        <v>43613</v>
+      </c>
+      <c r="F128" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="3">
+        <v>43613</v>
+      </c>
+      <c r="F129" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" s="3">
+        <v>43613</v>
+      </c>
+      <c r="F130" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="3">
+        <v>43613</v>
+      </c>
+      <c r="F131" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E144" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E145" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E148" s="3"/>
+    </row>
   </sheetData>
   <sortState ref="A2:J118">
     <sortCondition ref="A2:A118"/>
@@ -3041,10 +3609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3988,6 +4556,46 @@
         <v>78</v>
       </c>
     </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B118" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B119" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B121" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B122" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="136">
   <si>
     <t>BTI1</t>
   </si>
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t>Emily Colson</t>
+  </si>
+  <si>
+    <t>Tyler Coleman</t>
+  </si>
+  <si>
+    <t>Eric Bovee</t>
   </si>
 </sst>
 </file>
@@ -762,9 +768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
+      <selection pane="bottomLeft" activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3193,6 +3199,9 @@
       <c r="E120" s="3">
         <v>43613</v>
       </c>
+      <c r="F120" s="3">
+        <v>43630</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -3207,6 +3216,9 @@
       <c r="E121" s="3">
         <v>43613</v>
       </c>
+      <c r="F121" s="3">
+        <v>43630</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
@@ -3221,6 +3233,9 @@
       <c r="E122" s="3">
         <v>43613</v>
       </c>
+      <c r="F122" s="3">
+        <v>43630</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
@@ -3235,6 +3250,9 @@
       <c r="E123" s="3">
         <v>43613</v>
       </c>
+      <c r="F123" s="3">
+        <v>43630</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -3249,6 +3267,9 @@
       <c r="E124" s="3">
         <v>43613</v>
       </c>
+      <c r="F124" s="3">
+        <v>43630</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -3263,6 +3284,9 @@
       <c r="E125" s="3">
         <v>43613</v>
       </c>
+      <c r="F125" s="3">
+        <v>43630</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -3379,6 +3403,9 @@
       <c r="E132" s="3">
         <v>43613</v>
       </c>
+      <c r="F132" s="3">
+        <v>43630</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
@@ -3393,6 +3420,9 @@
       <c r="E133" s="3">
         <v>43613</v>
       </c>
+      <c r="F133" s="3">
+        <v>43630</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
@@ -3407,6 +3437,7 @@
       <c r="E134" s="3">
         <v>43613</v>
       </c>
+      <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
@@ -3420,6 +3451,9 @@
       </c>
       <c r="E135" s="3">
         <v>43613</v>
+      </c>
+      <c r="F135" s="3">
+        <v>43630</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -3609,10 +3643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4596,6 +4630,54 @@
         <v>133</v>
       </c>
     </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>43630</v>
+      </c>
+      <c r="B123" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>43630</v>
+      </c>
+      <c r="B124" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>43630</v>
+      </c>
+      <c r="B125" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>43630</v>
+      </c>
+      <c r="B126" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>43630</v>
+      </c>
+      <c r="B127" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>43630</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="136">
   <si>
     <t>BTI1</t>
   </si>
@@ -766,11 +766,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S148"/>
+  <dimension ref="A1:S159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H140" sqref="H140"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3631,6 +3631,127 @@
         <v>2</v>
       </c>
       <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:J118">

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="137">
   <si>
     <t>BTI1</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>Eric Bovee</t>
+  </si>
+  <si>
+    <t>Samantha Hoskins</t>
   </si>
 </sst>
 </file>
@@ -766,11 +769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S159"/>
+  <dimension ref="A1:S157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H152" sqref="H152"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P162" sqref="P162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3142,6 +3145,9 @@
       <c r="B117" s="1">
         <v>1</v>
       </c>
+      <c r="C117" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D117" s="1" t="s">
         <v>2</v>
       </c>
@@ -3159,6 +3165,9 @@
       <c r="B118" s="1">
         <v>1</v>
       </c>
+      <c r="C118" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D118" s="1" t="s">
         <v>2</v>
       </c>
@@ -3176,6 +3185,9 @@
       <c r="B119" s="1">
         <v>1</v>
       </c>
+      <c r="C119" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D119" s="1" t="s">
         <v>2</v>
       </c>
@@ -3193,6 +3205,9 @@
       <c r="B120" s="1">
         <v>1</v>
       </c>
+      <c r="C120" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D120" s="1" t="s">
         <v>2</v>
       </c>
@@ -3210,6 +3225,9 @@
       <c r="B121" s="1">
         <v>1</v>
       </c>
+      <c r="C121" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D121" s="1" t="s">
         <v>2</v>
       </c>
@@ -3227,6 +3245,9 @@
       <c r="B122" s="1">
         <v>1</v>
       </c>
+      <c r="C122" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D122" s="1" t="s">
         <v>2</v>
       </c>
@@ -3244,6 +3265,9 @@
       <c r="B123" s="1">
         <v>1</v>
       </c>
+      <c r="C123" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D123" s="1" t="s">
         <v>2</v>
       </c>
@@ -3261,6 +3285,9 @@
       <c r="B124" s="1">
         <v>1</v>
       </c>
+      <c r="C124" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D124" s="1" t="s">
         <v>2</v>
       </c>
@@ -3278,6 +3305,9 @@
       <c r="B125" s="1">
         <v>1</v>
       </c>
+      <c r="C125" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D125" s="1" t="s">
         <v>2</v>
       </c>
@@ -3295,6 +3325,9 @@
       <c r="B126" s="1">
         <v>1</v>
       </c>
+      <c r="C126" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D126" s="1" t="s">
         <v>2</v>
       </c>
@@ -3312,6 +3345,9 @@
       <c r="B127" s="1">
         <v>1</v>
       </c>
+      <c r="C127" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D127" s="1" t="s">
         <v>2</v>
       </c>
@@ -3329,6 +3365,9 @@
       <c r="B128" s="1">
         <v>1</v>
       </c>
+      <c r="C128" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D128" s="1" t="s">
         <v>2</v>
       </c>
@@ -3346,6 +3385,9 @@
       <c r="B129" s="1">
         <v>1</v>
       </c>
+      <c r="C129" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D129" s="1" t="s">
         <v>2</v>
       </c>
@@ -3363,6 +3405,9 @@
       <c r="B130" s="1">
         <v>1</v>
       </c>
+      <c r="C130" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D130" s="1" t="s">
         <v>2</v>
       </c>
@@ -3380,6 +3425,9 @@
       <c r="B131" s="1">
         <v>1</v>
       </c>
+      <c r="C131" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D131" s="1" t="s">
         <v>2</v>
       </c>
@@ -3397,6 +3445,9 @@
       <c r="B132" s="1">
         <v>1</v>
       </c>
+      <c r="C132" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D132" s="1" t="s">
         <v>2</v>
       </c>
@@ -3414,6 +3465,9 @@
       <c r="B133" s="1">
         <v>1</v>
       </c>
+      <c r="C133" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D133" s="1" t="s">
         <v>2</v>
       </c>
@@ -3431,6 +3485,9 @@
       <c r="B134" s="1">
         <v>1</v>
       </c>
+      <c r="C134" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D134" s="1" t="s">
         <v>2</v>
       </c>
@@ -3446,6 +3503,9 @@
       <c r="B135" s="1">
         <v>1</v>
       </c>
+      <c r="C135" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D135" s="1" t="s">
         <v>2</v>
       </c>
@@ -3463,11 +3523,17 @@
       <c r="B136" s="1">
         <v>1</v>
       </c>
+      <c r="C136" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D136" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E136" s="3">
         <v>43614</v>
+      </c>
+      <c r="F136" s="3">
+        <v>43644</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -3477,11 +3543,17 @@
       <c r="B137" s="1">
         <v>1</v>
       </c>
+      <c r="C137" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D137" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E137" s="3">
         <v>43614</v>
+      </c>
+      <c r="F137" s="3">
+        <v>43644</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -3491,11 +3563,17 @@
       <c r="B138" s="1">
         <v>1</v>
       </c>
+      <c r="C138" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D138" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E138" s="3">
         <v>43614</v>
+      </c>
+      <c r="F138" s="3">
+        <v>43644</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -3505,11 +3583,17 @@
       <c r="B139" s="1">
         <v>1</v>
       </c>
+      <c r="C139" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D139" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E139" s="3">
         <v>43614</v>
+      </c>
+      <c r="F139" s="3">
+        <v>43644</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -3519,6 +3603,9 @@
       <c r="B140" s="1">
         <v>1</v>
       </c>
+      <c r="C140" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D140" s="1" t="s">
         <v>2</v>
       </c>
@@ -3531,6 +3618,9 @@
       <c r="B141" s="1">
         <v>1</v>
       </c>
+      <c r="C141" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D141" s="1" t="s">
         <v>2</v>
       </c>
@@ -3545,17 +3635,25 @@
       <c r="B142" s="1">
         <v>1</v>
       </c>
+      <c r="C142" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D142" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E142" s="3"/>
+      <c r="E142" s="3">
+        <v>43644</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B143" s="1">
         <v>1</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>2</v>
@@ -3563,13 +3661,19 @@
       <c r="E143" s="3">
         <v>43614</v>
       </c>
+      <c r="F143" s="3">
+        <v>43644</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B144" s="1">
         <v>1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>2</v>
@@ -3577,13 +3681,19 @@
       <c r="E144" s="3">
         <v>43614</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" s="3">
+        <v>43644</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B145" s="1">
         <v>1</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>2</v>
@@ -3592,26 +3702,32 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B146" s="1">
         <v>1</v>
       </c>
+      <c r="C146" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D146" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E146" s="3">
-        <v>43614</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43644</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B147" s="1">
         <v>1</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>2</v>
@@ -3620,137 +3736,180 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="B148" s="1">
         <v>1</v>
       </c>
+      <c r="C148" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D148" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E148" s="3">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B149" s="1">
         <v>1</v>
       </c>
+      <c r="C149" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D149" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E149" s="3">
+        <v>43429</v>
+      </c>
+      <c r="F149" s="3">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B150" s="1">
         <v>1</v>
       </c>
+      <c r="C150" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D150" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E150" s="3">
+        <v>43429</v>
+      </c>
+      <c r="F150" s="3">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B151" s="1">
         <v>1</v>
       </c>
+      <c r="C151" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D151" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E151" s="3">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B152" s="1">
         <v>1</v>
       </c>
+      <c r="C152" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D152" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E152" s="3">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B153" s="1">
         <v>1</v>
       </c>
+      <c r="C153" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D153" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E153" s="3">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B154" s="1">
         <v>1</v>
       </c>
+      <c r="C154" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D154" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E154" s="3">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B155" s="1">
         <v>1</v>
       </c>
+      <c r="C155" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D155" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E155" s="3">
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B156" s="1">
         <v>1</v>
       </c>
+      <c r="C156" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D156" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E156" s="3">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B157" s="1">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B158" s="1">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B159" s="1">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>37</v>
+      <c r="E157" s="3">
+        <v>43517</v>
       </c>
     </row>
   </sheetData>
@@ -3764,10 +3923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:A128"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4799,6 +4958,102 @@
         <v>133</v>
       </c>
     </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>43644</v>
+      </c>
+      <c r="B129" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>43644</v>
+      </c>
+      <c r="B130" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>43644</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B132" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B135" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B136" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B137" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>43648</v>
+      </c>
+      <c r="B138" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>43648</v>
+      </c>
+      <c r="B139" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>43648</v>
+      </c>
+      <c r="B140" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -771,9 +771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P162" sqref="P162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3752,6 +3752,9 @@
       <c r="E148" s="3">
         <v>43429</v>
       </c>
+      <c r="F148" s="3">
+        <v>43648</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
@@ -3809,6 +3812,9 @@
       <c r="E151" s="3">
         <v>43429</v>
       </c>
+      <c r="F151" s="3">
+        <v>43648</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
@@ -3842,6 +3848,9 @@
       </c>
       <c r="E153" s="3">
         <v>43429</v>
+      </c>
+      <c r="F153" s="3">
+        <v>43648</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -3925,7 +3934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+    <sheetView topLeftCell="A116" workbookViewId="0">
       <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>

--- a/Oyster/transect/data/lc_trans_progress_people.xlsx
+++ b/Oyster/transect/data/lc_trans_progress_people.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="9855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="137">
   <si>
     <t>BTI1</t>
   </si>
@@ -769,11 +769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S157"/>
+  <dimension ref="A1:S158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I147" sqref="I147"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3701,6 +3701,9 @@
       <c r="E145" s="3">
         <v>43614</v>
       </c>
+      <c r="F145" s="3">
+        <v>43677</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
@@ -3718,6 +3721,9 @@
       <c r="E146" s="3">
         <v>43644</v>
       </c>
+      <c r="F146" s="3">
+        <v>43677</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
@@ -3735,6 +3741,9 @@
       <c r="E147" s="3">
         <v>43614</v>
       </c>
+      <c r="F147" s="3">
+        <v>43677</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
@@ -3832,6 +3841,9 @@
       <c r="E152" s="3">
         <v>43429</v>
       </c>
+      <c r="F152" s="3">
+        <v>43676</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
@@ -3869,6 +3881,9 @@
       <c r="E154" s="3">
         <v>43487</v>
       </c>
+      <c r="F154" s="3">
+        <v>43676</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
@@ -3886,6 +3901,9 @@
       <c r="E155" s="3">
         <v>43487</v>
       </c>
+      <c r="F155" s="3">
+        <v>43676</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
@@ -3919,6 +3937,20 @@
       </c>
       <c r="E157" s="3">
         <v>43517</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3932,10 +3964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5063,6 +5095,62 @@
         <v>136</v>
       </c>
     </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B141" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B142" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B143" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>43676</v>
+      </c>
+      <c r="B144" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B145" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B146" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B147" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
